--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -7,14 +7,13 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
-    <sheet name="de-de" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -22,33 +21,33 @@
     <t>zh-cn</t>
   </si>
   <si>
-    <t>de-de</t>
-  </si>
-  <si>
     <t>osmond-test-1.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>Handback transform failed</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.md</t>
-  </si>
-  <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -118,37 +117,19 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-01 07:05:43</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-01 07:05:43</t>
-  </si>
-  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:42</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-01 07:07:20</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -223,37 +204,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
-  <tableColumns count="10">
-    <tableColumn id="1" name="Source File Name"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="Latest Handoff File"/>
-    <tableColumn id="4" name="Latest Handoff Datetime"/>
-    <tableColumn id="5" name="Latest Target File"/>
-    <tableColumn id="6" name="Latest Handback File"/>
-    <tableColumn id="7" name="Latest Handback DateTime"/>
-    <tableColumn id="8" name="Handoff Reason"/>
-    <tableColumn id="9" name="Dependency From"/>
-    <tableColumn id="10" name="Column10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="File Name"/>
+    <tableColumn id="2" name="zh-cn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
-  <tableColumns count="3">
-    <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-cn"/>
-    <tableColumn id="3" name="de-de"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -261,7 +223,6 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -271,63 +232,45 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -335,10 +278,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -348,18 +288,12 @@
       <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -368,8 +302,8 @@
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
     <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId3"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId6"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
     <hyperlink ref="A9" display="README.md" r:id="rId9"/>
@@ -431,10 +365,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -443,7 +377,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -457,10 +391,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -469,7 +403,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -483,10 +417,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -503,16 +437,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>33</v>
@@ -523,16 +457,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>33</v>
@@ -546,7 +480,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
@@ -607,10 +541,10 @@
     <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId10"/>
     <hyperlink ref="C4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="Ping.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A5" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId16"/>
     <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId18"/>
@@ -621,230 +555,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="workerroletest.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId14"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId15"/>
-  </hyperlinks>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -7,13 +7,14 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -21,12 +22,21 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>osmond-test-1.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
     <t>test-scenario-1.md</t>
   </si>
   <si>
@@ -36,18 +46,9 @@
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -102,6 +103,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-01 07:05:43</t>
+  </si>
+  <si>
+    <t>2016-02-01 08:16:58</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
   </si>
   <si>
@@ -117,12 +127,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-01 07:05:43</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
@@ -130,6 +134,24 @@
   </si>
   <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:42</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-01 07:07:20</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -204,10 +226,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Latest Handoff File"/>
+    <tableColumn id="4" name="Latest Handoff Datetime"/>
+    <tableColumn id="5" name="Latest Target File"/>
+    <tableColumn id="6" name="Latest Handback File"/>
+    <tableColumn id="7" name="Latest Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
+  <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
+    <tableColumn id="3" name="de-de"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -215,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,6 +264,7 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -232,45 +274,63 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -278,7 +338,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -288,6 +351,9 @@
       <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -296,13 +362,16 @@
       <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="Ping.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="workerroletest.md" r:id="rId5"/>
     <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId6"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
@@ -365,10 +434,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -377,7 +446,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -391,25 +460,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -417,19 +486,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -437,10 +512,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
@@ -449,7 +524,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -457,19 +532,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -480,16 +555,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -503,13 +578,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -520,13 +595,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -535,20 +610,248 @@
     <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="osmond-test-1.md" r:id="rId4"/>
     <hyperlink ref="F2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="workerroletest.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId16"/>
-    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId18"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId19"/>
+    <hyperlink ref="A3" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="Ping.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="test-scenario-1.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="workerroletest.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A9" display="README.md" r:id="rId21"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="workerroletest.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A9" display="README.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -7,14 +7,13 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
-    <sheet name="de-de" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -22,33 +21,30 @@
     <t>zh-cn</t>
   </si>
   <si>
-    <t>de-de</t>
-  </si>
-  <si>
     <t>osmond-test-1.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>Handback transform failed</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.md</t>
-  </si>
-  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -134,24 +130,6 @@
   </si>
   <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:42</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-01 07:07:20</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -226,37 +204,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
-  <tableColumns count="10">
-    <tableColumn id="1" name="Source File Name"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="Latest Handoff File"/>
-    <tableColumn id="4" name="Latest Handoff Datetime"/>
-    <tableColumn id="5" name="Latest Target File"/>
-    <tableColumn id="6" name="Latest Handback File"/>
-    <tableColumn id="7" name="Latest Handback DateTime"/>
-    <tableColumn id="8" name="Handoff Reason"/>
-    <tableColumn id="9" name="Dependency From"/>
-    <tableColumn id="10" name="Column10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="File Name"/>
+    <tableColumn id="2" name="zh-cn"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
-  <tableColumns count="3">
-    <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-cn"/>
-    <tableColumn id="3" name="de-de"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -264,7 +223,6 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -274,96 +232,69 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -405,203 +336,203 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -632,230 +563,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="workerroletest.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId14"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId15"/>
-  </hyperlinks>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -7,13 +7,14 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -21,30 +22,33 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>osmond-test-1.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.md</t>
+  </si>
+  <si>
     <t>Ping.md</t>
   </si>
   <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>Handback transform failed</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -99,37 +103,55 @@
     <t>Include</t>
   </si>
   <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:21</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-01 07:05:43</t>
+    <t>2016-02-19 08:20:19</t>
   </si>
   <si>
     <t>2016-02-01 08:16:58</t>
   </si>
   <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:21</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
     <t>Ignored</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:42</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-19 08:20:22</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -204,10 +226,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:B1" headerRowCount="0">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Latest Handoff File"/>
+    <tableColumn id="4" name="Latest Handoff Datetime"/>
+    <tableColumn id="5" name="Latest Target File"/>
+    <tableColumn id="6" name="Latest Handback File"/>
+    <tableColumn id="7" name="Latest Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
+  <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
+    <tableColumn id="3" name="de-de"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -215,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -223,6 +264,7 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -232,78 +274,105 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="Ping.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="workerroletest.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId6"/>
+    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="Ping.md" r:id="rId6"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
     <hyperlink ref="A9" display="README.md" r:id="rId9"/>
@@ -336,203 +405,203 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -541,18 +610,18 @@
     <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="osmond-test-1.md" r:id="rId4"/>
     <hyperlink ref="F2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="Ping.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="test-scenario-1.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="workerroletest.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="workerroletest.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="Ping.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="Ping.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId18"/>
     <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId19"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId20"/>
@@ -563,4 +632,230 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="workerroletest.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A9" display="README.md" r:id="rId15"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -43,13 +43,16 @@
     <t>Handback transform failed</t>
   </si>
   <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
+    <t>Handoff transform failed</t>
   </si>
   <si>
     <t>.localization-config</t>
@@ -118,9 +121,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Ignored</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
   </si>
   <si>
     <t>2016-01-06 16:02:42</t>
@@ -338,32 +335,32 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -371,9 +368,9 @@
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
     <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId3"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
     <hyperlink ref="A9" display="README.md" r:id="rId9"/>
   </hyperlinks>
@@ -405,31 +402,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -440,22 +437,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -466,22 +463,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -492,16 +489,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -512,16 +509,22 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -532,22 +535,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -555,33 +552,30 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>39</v>
@@ -589,16 +583,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>39</v>
@@ -616,16 +610,15 @@
     <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId10"/>
     <hyperlink ref="C4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="Ping.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E6" display="Ping.md" r:id="rId16"/>
-    <hyperlink ref="F6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId20"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId21"/>
+    <hyperlink ref="A5" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="E5" display="Ping.md" r:id="rId14"/>
+    <hyperlink ref="F5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId18"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId19"/>
+    <hyperlink ref="A9" display="README.md" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -655,116 +648,116 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -773,47 +766,44 @@
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>39</v>
@@ -821,16 +811,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>39</v>
@@ -838,20 +828,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="workerroletest.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId14"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId15"/>
+    <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="Ping.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="testworkerrole.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="workerroletest.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId12"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId13"/>
+    <hyperlink ref="A9" display="README.md" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -127,7 +127,7 @@
     <t>2016-02-19 08:20:19</t>
   </si>
   <si>
-    <t>2016-02-01 08:16:58</t>
+    <t>2016-02-22 08:37:26</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -127,7 +127,7 @@
     <t>2016-02-19 08:20:19</t>
   </si>
   <si>
-    <t>2016-02-22 08:37:26</t>
+    <t>2016-02-22 08:47:41</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -127,7 +127,7 @@
     <t>2016-02-19 08:20:19</t>
   </si>
   <si>
-    <t>2016-02-22 08:47:41</t>
+    <t>2016-02-22 08:57:49</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -43,18 +43,15 @@
     <t>Handback transform failed</t>
   </si>
   <si>
+    <t>generate-warning&amp;error.md</t>
+  </si>
+  <si>
     <t>Ping.md</t>
   </si>
   <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
-    <t>generate-warning&amp;error.md</t>
-  </si>
-  <si>
-    <t>Handoff transform failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -121,12 +118,15 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:49:33</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-19 08:20:19</t>
-  </si>
-  <si>
     <t>2016-02-22 08:57:49</t>
   </si>
   <si>
@@ -136,13 +136,16 @@
     <t>Ignored</t>
   </si>
   <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:49:38</t>
+  </si>
+  <si>
     <t>2016-01-06 16:02:42</t>
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-19 08:20:22</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
@@ -335,32 +338,32 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -368,9 +371,9 @@
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
     <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId3"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
     <hyperlink ref="A9" display="README.md" r:id="rId9"/>
   </hyperlinks>
@@ -402,31 +405,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -437,22 +440,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -463,22 +466,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +492,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -509,22 +512,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -535,16 +532,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -552,30 +555,33 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>39</v>
@@ -583,16 +589,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>39</v>
@@ -610,15 +616,16 @@
     <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId10"/>
     <hyperlink ref="C4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="E5" display="Ping.md" r:id="rId14"/>
-    <hyperlink ref="F5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId18"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId19"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId20"/>
+    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId12"/>
+    <hyperlink ref="C5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A6" display="Ping.md" r:id="rId14"/>
+    <hyperlink ref="C6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E6" display="Ping.md" r:id="rId16"/>
+    <hyperlink ref="F6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A9" display="README.md" r:id="rId21"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -648,116 +655,116 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
@@ -766,44 +773,47 @@
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>39</v>
@@ -811,16 +821,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>39</v>
@@ -828,19 +838,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="Ping.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="testworkerrole.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="workerroletest.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId12"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId13"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId14"/>
+    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="workerroletest.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A9" display="README.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -34,6 +34,9 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
     <t>test-scenario-1.md</t>
   </si>
   <si>
@@ -46,9 +49,6 @@
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -103,6 +103,15 @@
     <t>Include</t>
   </si>
   <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:49:33</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
   </si>
   <si>
@@ -119,15 +128,6 @@
   </si>
   <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:49:33</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 08:57:49</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
@@ -305,7 +305,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
@@ -313,10 +313,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
@@ -369,10 +369,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="A3" display="Ping.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="workerroletest.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId6"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
     <hyperlink ref="A9" display="README.md" r:id="rId9"/>
@@ -469,16 +469,16 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -489,16 +489,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -506,10 +512,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
@@ -518,7 +524,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -532,19 +538,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -561,10 +561,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -578,10 +578,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>39</v>
@@ -595,10 +595,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>39</v>
@@ -610,18 +610,18 @@
     <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="osmond-test-1.md" r:id="rId4"/>
     <hyperlink ref="F2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="workerroletest.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="A5" display="generate-warning&amp;error.md" r:id="rId12"/>
-    <hyperlink ref="C5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A6" display="Ping.md" r:id="rId14"/>
-    <hyperlink ref="C6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E6" display="Ping.md" r:id="rId16"/>
-    <hyperlink ref="F6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A3" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="Ping.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="test-scenario-1.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="workerroletest.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId18"/>
     <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId19"/>
     <hyperlink ref="A8" display=".localization-config" r:id="rId20"/>
@@ -684,7 +684,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -696,7 +696,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>28</v>
@@ -716,7 +716,7 @@
         <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>28</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
@@ -736,7 +736,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>28</v>
@@ -744,19 +744,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>28</v>
@@ -776,7 +776,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>28</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
@@ -796,7 +796,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>28</v>
@@ -810,10 +810,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>39</v>
@@ -827,10 +827,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>39</v>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>File Name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
+    <t>test1.md</t>
+  </si>
+  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -130,6 +133,12 @@
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:44:54</t>
+  </si>
+  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
@@ -146,6 +155,12 @@
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:44:58</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
@@ -256,7 +271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -349,21 +364,43 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -373,9 +410,11 @@
     <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId4"/>
     <hyperlink ref="A5" display="workerroletest.md" r:id="rId5"/>
     <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId8"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="test1.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="testworkerrole.md" r:id="rId8"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
+    <hyperlink ref="A10" display="test1.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="README.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -386,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,31 +444,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -440,22 +479,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -466,22 +505,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -492,22 +531,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -518,16 +557,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +577,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -558,16 +597,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -575,33 +614,70 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +698,13 @@
     <hyperlink ref="C5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId16"/>
     <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId20"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId21"/>
+    <hyperlink ref="A7" display="test1.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A8" display="testworkerrole.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A10" display="test1.md" r:id="rId23"/>
+    <hyperlink ref="A11" display="README.md" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -636,7 +715,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -655,31 +734,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -690,16 +769,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -710,16 +789,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -730,16 +809,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -750,16 +829,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -770,70 +849,107 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -846,12 +962,15 @@
     <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
     <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="workerroletest.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display=".localization-config" r:id="rId14"/>
-    <hyperlink ref="A9" display="README.md" r:id="rId15"/>
+    <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="workerroletest.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display=".localization-config" r:id="rId16"/>
+    <hyperlink ref="A10" display="test1.md" r:id="rId17"/>
+    <hyperlink ref="A11" display="README.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,9 @@
     <t>test1.md</t>
   </si>
   <si>
+    <t>test2.md</t>
+  </si>
+  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -139,6 +142,15 @@
     <t>2016-02-23 03:44:54</t>
   </si>
   <si>
+    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:55:47</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
@@ -161,6 +173,15 @@
   </si>
   <si>
     <t>2016-02-23 03:44:58</t>
+  </si>
+  <si>
+    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 03:55:57</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
@@ -271,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -361,7 +382,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
@@ -372,35 +393,46 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -411,10 +443,11 @@
     <hyperlink ref="A5" display="workerroletest.md" r:id="rId5"/>
     <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId6"/>
     <hyperlink ref="A7" display="test1.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="testworkerrole.md" r:id="rId8"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId9"/>
-    <hyperlink ref="A10" display="test1.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="README.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="test1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="test2.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
+    <hyperlink ref="A11" display=".localization-config" r:id="rId11"/>
+    <hyperlink ref="A12" display="README.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -425,7 +458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -444,31 +477,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -479,22 +512,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -505,22 +538,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -531,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -557,16 +590,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -577,16 +610,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -597,87 +630,110 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -700,11 +756,14 @@
     <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId17"/>
     <hyperlink ref="A7" display="test1.md" r:id="rId18"/>
     <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="testworkerrole.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId22"/>
-    <hyperlink ref="A10" display="test1.md" r:id="rId23"/>
-    <hyperlink ref="A11" display="README.md" r:id="rId24"/>
+    <hyperlink ref="A8" display="test1.md" r:id="rId20"/>
+    <hyperlink ref="C8" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A9" display="test2.md" r:id="rId22"/>
+    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId24"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A11" display=".localization-config" r:id="rId26"/>
+    <hyperlink ref="A12" display="README.md" r:id="rId27"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -715,7 +774,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -734,31 +793,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -769,16 +828,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -789,16 +848,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -809,16 +868,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -829,16 +888,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -849,56 +908,56 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -906,50 +965,73 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -964,13 +1046,16 @@
     <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
     <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="workerroletest.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display=".localization-config" r:id="rId16"/>
-    <hyperlink ref="A10" display="test1.md" r:id="rId17"/>
-    <hyperlink ref="A11" display="README.md" r:id="rId18"/>
+    <hyperlink ref="A7" display="test1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A12" display="README.md" r:id="rId21"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -145,7 +145,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 03:55:47</t>
+    <t>2016-02-23 04:05:11</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 03:55:57</t>
+    <t>2016-02-23 04:05:15</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -145,7 +145,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 04:05:11</t>
+    <t>2016-02-23 04:14:26</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 04:05:15</t>
+    <t>2016-02-23 04:14:30</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -145,7 +145,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 04:14:26</t>
+    <t>2016-02-23 04:43:07</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 04:14:30</t>
+    <t>2016-02-23 04:43:11</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -145,7 +145,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 04:43:07</t>
+    <t>2016-02-23 04:53:26</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 04:43:11</t>
+    <t>2016-02-23 04:53:30</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -145,7 +145,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 04:53:26</t>
+    <t>2016-02-23 05:04:54</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 04:53:30</t>
+    <t>2016-02-23 05:04:59</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>File Name</t>
   </si>
@@ -40,21 +40,21 @@
     <t>test-scenario-1.md</t>
   </si>
   <si>
+    <t>test2.md</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
     <t>workerroletest.md</t>
   </si>
   <si>
-    <t>Handback transform failed</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
-    <t>test1.md</t>
-  </si>
-  <si>
-    <t>test2.md</t>
-  </si>
-  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -124,15 +124,27 @@
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
   </si>
   <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:04:54</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:34:31</t>
+  </si>
+  <si>
+    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-01-06 16:02:21</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
@@ -140,15 +152,6 @@
   </si>
   <si>
     <t>2016-02-23 03:44:54</t>
-  </si>
-  <si>
-    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 05:04:54</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
@@ -352,7 +355,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
@@ -360,10 +363,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
@@ -374,7 +377,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
@@ -382,7 +385,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
@@ -393,7 +396,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -440,11 +443,11 @@
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
     <hyperlink ref="A3" display="Ping.md" r:id="rId3"/>
     <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="workerroletest.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="test1.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="test2.md" r:id="rId9"/>
+    <hyperlink ref="A5" display="test2.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="test1.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="workerroletest.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="generate-warning&amp;error.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId9"/>
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
     <hyperlink ref="A11" display=".localization-config" r:id="rId11"/>
     <hyperlink ref="A12" display="README.md" r:id="rId12"/>
@@ -587,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>36</v>
@@ -595,6 +598,12 @@
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="0" t="s">
         <v>38</v>
       </c>
@@ -604,19 +613,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>30</v>
@@ -627,16 +636,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>30</v>
@@ -644,19 +653,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>30</v>
@@ -664,7 +673,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -673,10 +682,10 @@
         <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>30</v>
@@ -690,13 +699,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>30</v>
@@ -710,13 +719,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -727,13 +736,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -750,20 +759,22 @@
     <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="test-scenario-1.md" r:id="rId12"/>
     <hyperlink ref="F4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="workerroletest.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="test1.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId20"/>
-    <hyperlink ref="C8" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A9" display="test2.md" r:id="rId22"/>
-    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId24"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A11" display=".localization-config" r:id="rId26"/>
-    <hyperlink ref="A12" display="README.md" r:id="rId27"/>
+    <hyperlink ref="A5" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="test2.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="test1.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A7" display="workerroletest.md" r:id="rId20"/>
+    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A8" display="generate-warning&amp;error.md" r:id="rId22"/>
+    <hyperlink ref="C8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId24"/>
+    <hyperlink ref="C9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId26"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A11" display=".localization-config" r:id="rId28"/>
+    <hyperlink ref="A12" display="README.md" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -822,19 +833,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>30</v>
@@ -851,10 +862,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>30</v>
@@ -868,13 +879,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>30</v>
@@ -891,10 +902,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>30</v>
@@ -902,19 +913,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>30</v>
@@ -922,19 +933,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>30</v>
@@ -942,19 +953,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>30</v>
@@ -968,13 +979,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>30</v>
@@ -982,19 +993,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>30</v>
@@ -1008,13 +1019,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1025,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,9 @@
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-02-23 12:04:45</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
@@ -148,10 +154,7 @@
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:44:54</t>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
@@ -172,19 +175,19 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
   </si>
   <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 03:44:58</t>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 12:04:50</t>
   </si>
   <si>
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
   </si>
   <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-02-23 05:04:59</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
@@ -295,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +399,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
@@ -407,7 +410,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
@@ -418,24 +421,35 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -447,10 +461,11 @@
     <hyperlink ref="A6" display="test1.md" r:id="rId6"/>
     <hyperlink ref="A7" display="workerroletest.md" r:id="rId7"/>
     <hyperlink ref="A8" display="generate-warning&amp;error.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="test1.md" r:id="rId9"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
     <hyperlink ref="A11" display=".localization-config" r:id="rId11"/>
-    <hyperlink ref="A12" display="README.md" r:id="rId12"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="README.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -461,7 +476,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -480,31 +495,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -515,22 +530,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -541,22 +556,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -593,22 +608,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -619,16 +634,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -639,16 +654,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -659,90 +674,107 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -769,12 +801,13 @@
     <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId21"/>
     <hyperlink ref="A8" display="generate-warning&amp;error.md" r:id="rId22"/>
     <hyperlink ref="C8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A9" display="test1.md" r:id="rId24"/>
-    <hyperlink ref="C9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId24"/>
+    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId25"/>
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId26"/>
     <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId27"/>
     <hyperlink ref="A11" display=".localization-config" r:id="rId28"/>
-    <hyperlink ref="A12" display="README.md" r:id="rId29"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId29"/>
+    <hyperlink ref="A13" display="README.md" r:id="rId30"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -785,7 +818,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,31 +837,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -839,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -859,16 +892,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -879,16 +912,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -899,36 +932,36 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -939,16 +972,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -962,33 +995,33 @@
         <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -999,50 +1032,67 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1055,8 +1105,8 @@
     <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
     <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="keep-the-ui-thread-responsive.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A7" display="test1.md" r:id="rId12"/>
     <hyperlink ref="C7" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf" r:id="rId13"/>
     <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
@@ -1066,7 +1116,8 @@
     <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
     <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="A11" display=".localization-config" r:id="rId20"/>
-    <hyperlink ref="A12" display="README.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId21"/>
+    <hyperlink ref="A13" display="README.md" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>File Name</t>
   </si>
@@ -43,21 +43,21 @@
     <t>test2.md</t>
   </si>
   <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
     <t>test1.md</t>
   </si>
   <si>
-    <t>Handback transform failed</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -136,25 +136,28 @@
     <t>2016-02-23 05:34:31</t>
   </si>
   <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:21</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 13:05:05</t>
+  </si>
+  <si>
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 12:04:45</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:21</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+    <t>2016-02-23 12:15:10</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
@@ -178,7 +181,7 @@
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 12:04:50</t>
+    <t>2016-02-23 13:05:10</t>
   </si>
   <si>
     <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
@@ -380,7 +383,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
@@ -432,7 +435,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -458,10 +461,10 @@
     <hyperlink ref="A3" display="Ping.md" r:id="rId3"/>
     <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId4"/>
     <hyperlink ref="A5" display="test2.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="test1.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="workerroletest.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="generate-warning&amp;error.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="workerroletest.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId9"/>
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
     <hyperlink ref="A11" display=".localization-config" r:id="rId11"/>
     <hyperlink ref="A12" display="test1.md" r:id="rId12"/>
@@ -651,13 +654,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>42</v>
@@ -674,10 +677,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>42</v>
@@ -697,10 +700,16 @@
         <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>31</v>
@@ -714,10 +723,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>42</v>
@@ -740,12 +749,12 @@
         <v>42</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -757,7 +766,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -774,7 +783,7 @@
         <v>42</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -795,19 +804,21 @@
     <hyperlink ref="C5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId15"/>
     <hyperlink ref="E5" display="test2.md" r:id="rId16"/>
     <hyperlink ref="F5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="test1.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display="workerroletest.md" r:id="rId20"/>
-    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A8" display="generate-warning&amp;error.md" r:id="rId22"/>
-    <hyperlink ref="C8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId24"/>
-    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId26"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A11" display=".localization-config" r:id="rId28"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId29"/>
-    <hyperlink ref="A13" display="README.md" r:id="rId30"/>
+    <hyperlink ref="A6" display="workerroletest.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId20"/>
+    <hyperlink ref="C7" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId22"/>
+    <hyperlink ref="C8" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId24"/>
+    <hyperlink ref="C9" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="E9" display="test1.md" r:id="rId26"/>
+    <hyperlink ref="F9" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId28"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A11" display=".localization-config" r:id="rId30"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId31"/>
+    <hyperlink ref="A13" display="README.md" r:id="rId32"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -866,16 +877,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>42</v>
@@ -895,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>42</v>
@@ -912,10 +923,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>42</v>
@@ -935,7 +946,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>42</v>
@@ -946,16 +957,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>42</v>
@@ -966,16 +977,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>42</v>
@@ -992,10 +1003,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>42</v>
@@ -1012,10 +1023,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>42</v>
@@ -1026,16 +1037,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>42</v>
@@ -1058,12 +1069,12 @@
         <v>42</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>16</v>
@@ -1075,7 +1086,7 @@
         <v>42</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -1092,7 +1103,7 @@
         <v>42</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,9 @@
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
     <t>keep-the-ui-thread-responsive.md</t>
   </si>
   <si>
@@ -148,15 +151,18 @@
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
+    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 13:24:37</t>
+  </si>
+  <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-02-23 13:05:05</t>
   </si>
   <si>
-    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2016-02-23 12:15:10</t>
   </si>
   <si>
@@ -178,13 +184,16 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
   </si>
   <si>
+    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 13:24:42</t>
+  </si>
+  <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
   </si>
   <si>
     <t>2016-02-23 13:05:10</t>
-  </si>
-  <si>
-    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
@@ -301,7 +310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,32 +436,43 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -463,12 +483,13 @@
     <hyperlink ref="A5" display="test2.md" r:id="rId5"/>
     <hyperlink ref="A6" display="workerroletest.md" r:id="rId6"/>
     <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="test1.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="A11" display=".localization-config" r:id="rId11"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="README.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="test1.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId11"/>
+    <hyperlink ref="A12" display=".localization-config" r:id="rId12"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="README.md" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -479,7 +500,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,31 +519,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -533,22 +554,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -559,22 +580,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -585,22 +606,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +632,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -637,16 +658,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -657,16 +678,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -677,16 +698,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -697,22 +718,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -723,16 +738,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -740,50 +761,70 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -808,17 +849,19 @@
     <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId19"/>
     <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId20"/>
     <hyperlink ref="C7" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId22"/>
-    <hyperlink ref="C8" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A9" display="test1.md" r:id="rId24"/>
-    <hyperlink ref="C9" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="E9" display="test1.md" r:id="rId26"/>
-    <hyperlink ref="F9" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId28"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A11" display=".localization-config" r:id="rId30"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId31"/>
-    <hyperlink ref="A13" display="README.md" r:id="rId32"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId22"/>
+    <hyperlink ref="C8" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId24"/>
+    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A10" display="test1.md" r:id="rId26"/>
+    <hyperlink ref="C10" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="E10" display="test1.md" r:id="rId28"/>
+    <hyperlink ref="F10" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId30"/>
+    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A12" display=".localization-config" r:id="rId32"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId33"/>
+    <hyperlink ref="A14" display="README.md" r:id="rId34"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -829,7 +872,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,31 +891,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -883,16 +926,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -903,16 +946,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -923,16 +966,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -943,16 +986,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -963,16 +1006,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -983,127 +1026,147 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1116,19 +1179,21 @@
     <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
     <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="keep-the-ui-thread-responsive.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="test1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display=".localization-config" r:id="rId20"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId21"/>
-    <hyperlink ref="A13" display="README.md" r:id="rId22"/>
+    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="keep-the-ui-thread-responsive.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test2.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display=".localization-config" r:id="rId22"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId23"/>
+    <hyperlink ref="A14" display="README.md" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -163,6 +163,9 @@
     <t>2016-02-23 13:05:05</t>
   </si>
   <si>
+    <t>2016-02-23 13:55:23</t>
+  </si>
+  <si>
     <t>2016-02-23 12:15:10</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>2016-02-23 13:05:10</t>
+  </si>
+  <si>
+    <t>2016-02-23 13:55:27</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
@@ -741,7 +747,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -750,7 +756,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>32</v>
@@ -764,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
@@ -790,7 +796,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -807,7 +813,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +830,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -926,10 +932,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>43</v>
@@ -949,7 +955,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>43</v>
@@ -966,10 +972,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>43</v>
@@ -989,7 +995,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>43</v>
@@ -1006,10 +1012,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>43</v>
@@ -1026,10 +1032,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>43</v>
@@ -1046,10 +1052,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>43</v>
@@ -1066,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>43</v>
@@ -1086,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>43</v>
@@ -1106,10 +1112,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>43</v>
@@ -1132,7 +1138,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1149,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -1166,7 +1172,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -52,24 +52,30 @@
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
   </si>
   <si>
-    <t>keep-the-ui-thread-responsive.md</t>
+    <t>Handoff transform failed</t>
+  </si>
+  <si>
+    <t>.localization-config</t>
+  </si>
+  <si>
+    <t>Not to be localized</t>
   </si>
   <si>
     <t>test1.md</t>
   </si>
   <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>.localization-config</t>
-  </si>
-  <si>
-    <t>Not to be localized</t>
-  </si>
-  <si>
     <t>README.md</t>
   </si>
   <si>
@@ -151,10 +157,10 @@
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 13:24:37</t>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 14:04:44</t>
   </si>
   <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
@@ -163,12 +169,6 @@
     <t>2016-02-23 13:05:05</t>
   </si>
   <si>
-    <t>2016-02-23 13:55:23</t>
-  </si>
-  <si>
-    <t>2016-02-23 12:15:10</t>
-  </si>
-  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
@@ -187,19 +187,16 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
   </si>
   <si>
-    <t>test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 13:24:42</t>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 14:04:50</t>
   </si>
   <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
   </si>
   <si>
     <t>2016-02-23 13:05:10</t>
-  </si>
-  <si>
-    <t>2016-02-23 13:55:27</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
@@ -442,43 +439,43 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -489,10 +486,10 @@
     <hyperlink ref="A5" display="test2.md" r:id="rId5"/>
     <hyperlink ref="A6" display="workerroletest.md" r:id="rId6"/>
     <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId8"/>
     <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test1.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId11"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId11"/>
     <hyperlink ref="A12" display=".localization-config" r:id="rId12"/>
     <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
     <hyperlink ref="A14" display="README.md" r:id="rId14"/>
@@ -525,31 +522,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -560,22 +557,22 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -586,22 +583,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -612,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +635,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -664,16 +661,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -684,16 +681,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -704,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -724,16 +721,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -744,22 +741,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -767,33 +758,30 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>52</v>
@@ -801,16 +789,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>52</v>
@@ -818,16 +806,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>52</v>
@@ -855,19 +843,16 @@
     <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId19"/>
     <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId20"/>
     <hyperlink ref="C7" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId22"/>
-    <hyperlink ref="C8" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId22"/>
+    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId24"/>
     <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A10" display="test1.md" r:id="rId26"/>
-    <hyperlink ref="C10" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="E10" display="test1.md" r:id="rId28"/>
-    <hyperlink ref="F10" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId30"/>
-    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A12" display=".localization-config" r:id="rId32"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId33"/>
-    <hyperlink ref="A14" display="README.md" r:id="rId34"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId26"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
+    <hyperlink ref="A12" display=".localization-config" r:id="rId29"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId30"/>
+    <hyperlink ref="A14" display="README.md" r:id="rId31"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -897,31 +882,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -938,10 +923,10 @@
         <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -952,16 +937,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -978,10 +963,10 @@
         <v>54</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -992,16 +977,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1018,10 +1003,10 @@
         <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1038,55 +1023,55 @@
         <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
@@ -1098,44 +1083,41 @@
         <v>55</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>52</v>
@@ -1143,16 +1125,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>52</v>
@@ -1160,16 +1142,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>52</v>
@@ -1185,21 +1167,20 @@
     <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
     <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A7" display="keep-the-ui-thread-responsive.md" r:id="rId12"/>
     <hyperlink ref="C7" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="test1.a04caccb4c9d67200f1be887cc6268d030f9cc12.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="test2.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display=".localization-config" r:id="rId22"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId23"/>
-    <hyperlink ref="A14" display="README.md" r:id="rId24"/>
+    <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId20"/>
+    <hyperlink ref="A12" display=".localization-config" r:id="rId21"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId22"/>
+    <hyperlink ref="A14" display="README.md" r:id="rId23"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -6,23 +6,33 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
-    <sheet name="de-de" sheetId="3" r:id="rId4"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
+    <sheet name="ja-jp" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>zh-cn</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>ja-jp</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>osmond-test-1.md</t>
@@ -31,34 +41,34 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>Ping.md</t>
   </si>
   <si>
     <t>test-scenario-1.md</t>
   </si>
   <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
     <t>test2.md</t>
   </si>
   <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
     <t>workerroletest.md</t>
   </si>
   <si>
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>generate-warning&amp;error.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
+    <t>README.md</t>
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
@@ -73,12 +83,6 @@
     <t>Not to be localized</t>
   </si>
   <si>
-    <t>test1.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -106,21 +110,66 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:49:38</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:42</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:40</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Ignored</t>
+  </si>
+  <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
   </si>
   <si>
     <t>2015-11-06 07:23:55</t>
   </si>
   <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
-  </si>
-  <si>
     <t>2015-11-06 07:36:12</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
@@ -133,13 +182,10 @@
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
-  </si>
-  <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 05:04:54</t>
+    <t>2016-02-24 05:24:47</t>
   </si>
   <si>
     <t>2016-02-23 05:34:31</t>
@@ -151,64 +197,61 @@
     <t>2016-01-06 16:02:21</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 14:04:44</t>
-  </si>
-  <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-23 13:05:05</t>
-  </si>
-  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
-    <t>Ignored</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:49:38</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:42</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 14:04:50</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 13:05:10</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 05:04:59</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:25:27</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf</t>
   </si>
 </sst>
 </file>
@@ -265,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -283,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="zh-cn" displayName="zh_cn" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -301,11 +344,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ja-jp" displayName="ja_jp" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Latest Handoff File"/>
+    <tableColumn id="4" name="Latest Handoff Datetime"/>
+    <tableColumn id="5" name="Latest Target File"/>
+    <tableColumn id="6" name="Latest Handback File"/>
+    <tableColumn id="7" name="Latest Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
+  <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="zh-cn"/>
-    <tableColumn id="3" name="de-de"/>
+    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="3" name="zh-cn"/>
+    <tableColumn id="4" name="ja-jp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -313,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -322,6 +384,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -334,15 +397,21 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -351,42 +420,54 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -400,6 +481,9 @@
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -411,6 +495,9 @@
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -420,6 +507,9 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -433,16 +523,22 @@
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -450,21 +546,27 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -472,27 +574,30 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="Ping.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="test2.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="workerroletest.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="Ping.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="test1.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="test2.md" r:id="rId9"/>
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId11"/>
-    <hyperlink ref="A12" display=".localization-config" r:id="rId12"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="README.md" r:id="rId14"/>
+    <hyperlink ref="A11" display="workerroletest.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="README.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId13"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -522,50 +627,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
@@ -580,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -588,14 +687,8 @@
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -603,22 +696,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>33</v>
@@ -629,25 +716,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -655,19 +736,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -681,13 +762,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -701,13 +782,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -721,13 +802,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -741,13 +822,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -758,16 +839,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -775,33 +859,36 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -809,50 +896,44 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId3"/>
-    <hyperlink ref="E2" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="F2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="Ping.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="test-scenario-1.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="test2.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="workerroletest.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId20"/>
-    <hyperlink ref="C7" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId22"/>
-    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId24"/>
-    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId26"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
-    <hyperlink ref="A12" display=".localization-config" r:id="rId29"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId30"/>
-    <hyperlink ref="A14" display="README.md" r:id="rId31"/>
+    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test2.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="README.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId24"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -882,48 +963,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -931,19 +1018,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -951,19 +1044,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -971,19 +1070,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -991,19 +1096,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -1011,19 +1116,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -1031,7 +1136,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
@@ -1040,10 +1145,10 @@
         <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -1051,19 +1156,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -1071,19 +1176,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -1091,19 +1196,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1111,33 +1219,36 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1145,42 +1256,392 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="E2" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="F2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="Ping.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="test-scenario-1.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="E5" display="test2.md" r:id="rId16"/>
+    <hyperlink ref="F5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="workerroletest.md" r:id="rId18"/>
+    <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId20"/>
+    <hyperlink ref="C7" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A8" display="test1.md" r:id="rId22"/>
+    <hyperlink ref="C8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId24"/>
+    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId26"/>
+    <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId28"/>
+    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A12" display="README.md" r:id="rId30"/>
+    <hyperlink ref="C12" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId33"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId5"/>
     <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="keep-the-ui-thread-responsive.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId20"/>
-    <hyperlink ref="A12" display=".localization-config" r:id="rId21"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId22"/>
-    <hyperlink ref="A14" display="README.md" r:id="rId23"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="README.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>File Name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>README.md</t>
   </si>
   <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
   </si>
   <si>
@@ -158,6 +161,12 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
   </si>
   <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 12:14:49</t>
+  </si>
+  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -215,6 +224,12 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 12:14:55</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
   </si>
   <si>
@@ -252,6 +267,12 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 12:15:02</t>
   </si>
 </sst>
 </file>
@@ -375,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -560,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>5</v>
@@ -571,16 +592,30 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>21</v>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -596,8 +631,9 @@
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
     <hyperlink ref="A11" display="workerroletest.md" r:id="rId11"/>
     <hyperlink ref="A12" display="README.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId13"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A13" display="testfirstlevel.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -608,7 +644,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -627,31 +663,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -662,16 +698,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -682,16 +718,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -702,16 +738,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -722,16 +758,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -742,16 +778,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -762,16 +798,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -782,16 +818,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -802,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -822,16 +858,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -842,16 +878,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -862,16 +898,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -879,33 +915,53 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>47</v>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +988,10 @@
     <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A12" display="README.md" r:id="rId22"/>
     <hyperlink ref="C12" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId24"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId25"/>
+    <hyperlink ref="A13" display="testfirstlevel.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId27"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -944,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,31 +1021,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -998,22 +1056,22 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1024,22 +1082,22 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1050,22 +1108,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1076,22 +1134,22 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1102,16 +1160,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1122,16 +1180,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1200,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1162,16 +1220,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1182,16 +1240,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1202,16 +1260,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1222,16 +1280,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1239,33 +1297,53 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>47</v>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1300,8 +1378,10 @@
     <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId29"/>
     <hyperlink ref="A12" display="README.md" r:id="rId30"/>
     <hyperlink ref="C12" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId33"/>
+    <hyperlink ref="A13" display="testfirstlevel.md" r:id="rId32"/>
+    <hyperlink ref="C13" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId34"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId35"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1312,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1331,31 +1411,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -1366,16 +1446,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1386,16 +1466,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1406,16 +1486,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1426,16 +1506,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -1446,36 +1526,36 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1486,16 +1566,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1506,16 +1586,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1526,16 +1606,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1546,16 +1626,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1566,16 +1646,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1586,33 +1666,53 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>47</v>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1741,9 @@
     <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="README.md" r:id="rId24"/>
     <hyperlink ref="C13" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId26"/>
+    <hyperlink ref="A14" display="testfirstlevel.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId28"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>File Name</t>
   </si>
@@ -86,6 +86,9 @@
     <t>Not to be localized</t>
   </si>
   <si>
+    <t>testfirstlevel2.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-02-24 12:34:51</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
   </si>
   <si>
@@ -179,36 +185,39 @@
     <t>2015-11-06 07:36:12</t>
   </si>
   <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:47</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:34:31</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:21</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:49:33</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:49:33</t>
+    <t>2016-02-24 12:34:57</t>
   </si>
   <si>
     <t>2016-02-22 14:58:54</t>
   </si>
   <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:47</t>
-  </si>
-  <si>
-    <t>2016-02-23 05:34:31</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:21</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 12:35:04</t>
   </si>
   <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
@@ -396,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>5</v>
@@ -615,6 +627,20 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -634,6 +660,7 @@
     <hyperlink ref="A13" display="testfirstlevel.md" r:id="rId13"/>
     <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
     <hyperlink ref="A15" display=".localization-config" r:id="rId15"/>
+    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -644,7 +671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -663,31 +690,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -698,16 +725,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -718,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -738,16 +765,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -758,16 +785,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -778,16 +805,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -798,16 +825,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -818,16 +845,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -838,16 +865,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -858,16 +885,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -878,16 +905,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -898,16 +925,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -918,16 +945,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -938,13 +965,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -955,13 +982,30 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -992,6 +1036,7 @@
     <hyperlink ref="C13" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId25"/>
     <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
     <hyperlink ref="A15" display=".localization-config" r:id="rId27"/>
+    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId28"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1002,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1021,31 +1066,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -1056,53 +1101,53 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
@@ -1111,85 +1156,85 @@
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1200,16 +1245,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1265,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1240,16 +1285,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1260,16 +1305,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1280,16 +1325,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -1300,16 +1345,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -1320,13 +1365,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -1337,13 +1382,30 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1352,22 +1414,22 @@
     <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="osmond-test-1.md" r:id="rId4"/>
     <hyperlink ref="F2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="Ping.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="test-scenario-1.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="E5" display="test2.md" r:id="rId16"/>
-    <hyperlink ref="F5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="workerroletest.md" r:id="rId18"/>
-    <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="A7" display="generate-warning&amp;error.md" r:id="rId20"/>
-    <hyperlink ref="C7" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="test2.md" r:id="rId10"/>
+    <hyperlink ref="C4" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="E4" display="test2.md" r:id="rId12"/>
+    <hyperlink ref="F4" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="workerroletest.md" r:id="rId14"/>
+    <hyperlink ref="C5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId16"/>
+    <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId18"/>
+    <hyperlink ref="C7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="E7" display="Ping.md" r:id="rId20"/>
+    <hyperlink ref="F7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId21"/>
     <hyperlink ref="A8" display="test1.md" r:id="rId22"/>
     <hyperlink ref="C8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId23"/>
     <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId24"/>
@@ -1382,6 +1444,7 @@
     <hyperlink ref="C13" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId33"/>
     <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId34"/>
     <hyperlink ref="A15" display=".localization-config" r:id="rId35"/>
+    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId36"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1392,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1411,31 +1474,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -1446,16 +1509,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -1466,16 +1529,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -1486,16 +1549,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1506,16 +1569,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -1526,16 +1589,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1546,16 +1609,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1566,16 +1629,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1586,16 +1649,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1606,16 +1669,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1626,16 +1689,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1646,16 +1709,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -1666,16 +1729,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -1686,16 +1749,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -1706,13 +1769,30 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1744,6 +1824,7 @@
     <hyperlink ref="A14" display="testfirstlevel.md" r:id="rId26"/>
     <hyperlink ref="C14" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.ja-jp.xlf" r:id="rId27"/>
     <hyperlink ref="A15" display=".localization-config" r:id="rId28"/>
+    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>File Name</t>
   </si>
@@ -71,21 +71,21 @@
     <t>README.md</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
+    <t>Handoff transform failed</t>
+  </si>
+  <si>
+    <t>.localization-config</t>
+  </si>
+  <si>
+    <t>Not to be localized</t>
+  </si>
+  <si>
     <t>testfirstlevel.md</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
-  </si>
-  <si>
-    <t>Handoff transform failed</t>
-  </si>
-  <si>
-    <t>.localization-config</t>
-  </si>
-  <si>
-    <t>Not to be localized</t>
-  </si>
-  <si>
     <t>testfirstlevel2.md</t>
   </si>
   <si>
@@ -137,7 +137,7 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-24 12:34:51</t>
+    <t>2016-02-25 08:55:44</t>
   </si>
   <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
@@ -167,12 +167,6 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
   </si>
   <si>
-    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 12:14:49</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -212,7 +206,7 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-24 12:34:57</t>
+    <t>2016-02-25 08:55:51</t>
   </si>
   <si>
     <t>2016-02-22 14:58:54</t>
@@ -233,12 +227,6 @@
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 12:14:55</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
   </si>
   <si>
@@ -251,7 +239,7 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-02-24 12:35:04</t>
+    <t>2016-02-25 08:55:58</t>
   </si>
   <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
@@ -279,12 +267,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 12:15:02</t>
   </si>
 </sst>
 </file>
@@ -593,10 +575,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>5</v>
@@ -604,30 +586,30 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -635,13 +617,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -657,9 +639,9 @@
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
     <hyperlink ref="A11" display="workerroletest.md" r:id="rId11"/>
     <hyperlink ref="A12" display="README.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="testfirstlevel.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId15"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId13"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId14"/>
+    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId15"/>
     <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
@@ -942,27 +924,24 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
@@ -971,16 +950,16 @@
         <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
@@ -988,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -996,7 +975,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>35</v>
@@ -1005,7 +984,7 @@
         <v>35</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1032,11 +1011,10 @@
     <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A12" display="README.md" r:id="rId22"/>
     <hyperlink ref="C12" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="testfirstlevel.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId27"/>
-    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId28"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId24"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId25"/>
+    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId26"/>
+    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId27"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1101,10 +1079,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1113,7 +1091,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>36</v>
@@ -1127,10 +1105,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1139,7 +1117,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>36</v>
@@ -1153,19 +1131,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>59</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>36</v>
@@ -1179,10 +1157,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>35</v>
@@ -1199,10 +1177,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>35</v>
@@ -1219,19 +1197,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>36</v>
@@ -1245,10 +1223,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>35</v>
@@ -1265,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>35</v>
@@ -1285,10 +1263,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>35</v>
@@ -1305,10 +1283,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>35</v>
@@ -1325,10 +1303,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>35</v>
@@ -1342,27 +1320,24 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
@@ -1371,16 +1346,16 @@
         <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1388,7 +1363,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1396,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>35</v>
@@ -1405,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1440,11 +1415,10 @@
     <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId29"/>
     <hyperlink ref="A12" display="README.md" r:id="rId30"/>
     <hyperlink ref="C12" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId31"/>
-    <hyperlink ref="A13" display="testfirstlevel.md" r:id="rId32"/>
-    <hyperlink ref="C13" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId33"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId34"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId35"/>
-    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId36"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId33"/>
+    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId34"/>
+    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId35"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1509,10 +1483,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>35</v>
@@ -1529,10 +1503,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>35</v>
@@ -1549,10 +1523,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>35</v>
@@ -1569,10 +1543,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>35</v>
@@ -1589,10 +1563,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>35</v>
@@ -1603,16 +1577,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>35</v>
@@ -1629,10 +1603,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>35</v>
@@ -1649,10 +1623,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>35</v>
@@ -1669,10 +1643,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>35</v>
@@ -1689,10 +1663,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>35</v>
@@ -1709,10 +1683,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>35</v>
@@ -1729,10 +1703,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>35</v>
@@ -1743,31 +1717,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1775,7 +1746,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1754,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>35</v>
@@ -1792,7 +1763,7 @@
         <v>35</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1821,10 +1792,9 @@
     <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="README.md" r:id="rId24"/>
     <hyperlink ref="C13" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="testfirstlevel.md" r:id="rId26"/>
-    <hyperlink ref="C14" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.ja-jp.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId28"/>
-    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId29"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId26"/>
+    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId27"/>
+    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId28"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -6,33 +6,29 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="de-de" sheetId="2" r:id="rId3"/>
+    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
     <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
-    <sheet name="ja-jp" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>de-de</t>
+    <t>ja-jp</t>
   </si>
   <si>
     <t>zh-cn</t>
   </si>
   <si>
-    <t>ja-jp</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>osmond-test-1.md</t>
@@ -50,6 +46,12 @@
     <t>test1.md</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
+    <t>Handoff transform failed</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
   </si>
   <si>
@@ -71,12 +73,6 @@
     <t>README.md</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
-  </si>
-  <si>
-    <t>Handoff transform failed</t>
-  </si>
-  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -116,10 +112,10 @@
     <t>Dependency From</t>
   </si>
   <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:49:38</t>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:25:27</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -128,60 +124,63 @@
     <t>Include</t>
   </si>
   <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-25 08:55:58</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Ignored</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-06 07:23:55</t>
+  </si>
+  <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-06 16:02:42</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-25 08:55:44</t>
+    <t>2015-11-06 07:36:12</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
   </si>
   <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
   </si>
   <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:40</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Ignored</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:23:55</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:36:12</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
   </si>
   <si>
@@ -225,48 +224,6 @@
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:25:27</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-25 08:55:58</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf</t>
   </si>
 </sst>
 </file>
@@ -323,7 +280,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -359,30 +316,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ja-jp" displayName="ja_jp" ref="A1:J1" headerRowCount="0">
-  <tableColumns count="10">
-    <tableColumn id="1" name="Source File Name"/>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="Latest Handoff File"/>
-    <tableColumn id="4" name="Latest Handoff Datetime"/>
-    <tableColumn id="5" name="Latest Target File"/>
-    <tableColumn id="6" name="Latest Handback File"/>
-    <tableColumn id="7" name="Latest Handback DateTime"/>
-    <tableColumn id="8" name="Handoff Reason"/>
-    <tableColumn id="9" name="Dependency From"/>
-    <tableColumn id="10" name="Column10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
+  <tableColumns count="3">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="de-de"/>
+    <tableColumn id="2" name="ja-jp"/>
     <tableColumn id="3" name="zh-cn"/>
-    <tableColumn id="4" name="ja-jp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -390,7 +328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +337,6 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -412,92 +349,71 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -505,13 +421,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -519,13 +432,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -533,13 +443,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -547,27 +454,21 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -575,55 +476,43 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -633,13 +522,13 @@
     <hyperlink ref="A4" display="Ping.md" r:id="rId4"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId5"/>
     <hyperlink ref="A6" display="test1.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="test2.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="workerroletest.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="README.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId13"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="test2.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="workerroletest.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="README.md" r:id="rId13"/>
     <hyperlink ref="A14" display=".localization-config" r:id="rId14"/>
     <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId15"/>
     <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId16"/>
@@ -672,151 +561,151 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -824,19 +713,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -844,19 +733,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -864,19 +753,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -884,39 +773,39 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -924,97 +813,101 @@
         <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId5"/>
     <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="test2.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="README.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId24"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId25"/>
-    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId26"/>
-    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId27"/>
+    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="README.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId26"/>
+    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId27"/>
+    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId28"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1044,91 +937,91 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="H2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -1137,7 +1030,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>55</v>
@@ -1146,15 +1039,15 @@
         <v>57</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -1163,18 +1056,18 @@
         <v>59</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>60</v>
@@ -1183,18 +1076,18 @@
         <v>61</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -1203,7 +1096,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>62</v>
@@ -1212,15 +1105,15 @@
         <v>64</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>65</v>
@@ -1229,18 +1122,18 @@
         <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
@@ -1249,18 +1142,18 @@
         <v>56</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>67</v>
@@ -1269,18 +1162,18 @@
         <v>56</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
@@ -1289,18 +1182,18 @@
         <v>59</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>69</v>
@@ -1309,78 +1202,78 @@
         <v>56</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1425,380 +1318,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="README.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId26"/>
-    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId27"/>
-    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId28"/>
-  </hyperlinks>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -6,28 +6,35 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="ja-jp" sheetId="2" r:id="rId3"/>
+    <sheet name="de-de" sheetId="2" r:id="rId3"/>
     <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
+    <sheet name="ja-jp" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
     <t>ja-jp</t>
   </si>
   <si>
-    <t>zh-cn</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -46,39 +53,42 @@
     <t>test1.md</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>test2.md</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
+    <t>toc.yml</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
   </si>
   <si>
     <t>Handoff transform failed</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
-    <t>test2.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>Handback transform failed</t>
+    <t>.localization-config</t>
+  </si>
+  <si>
+    <t>Not to be localized</t>
   </si>
   <si>
     <t>README.md</t>
   </si>
   <si>
-    <t>.localization-config</t>
-  </si>
-  <si>
-    <t>Not to be localized</t>
-  </si>
-  <si>
     <t>testfirstlevel.md</t>
   </si>
   <si>
@@ -112,18 +122,126 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:49:38</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:42</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-25 08:55:44</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:40</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:16:00</t>
+  </si>
+  <si>
+    <t>Ignored</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-06 07:23:55</t>
+  </si>
+  <si>
+    <t>2015-11-06 07:36:12</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:47</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:34:31</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:21</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:49:33</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-25 08:55:51</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:16:09</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
   </si>
   <si>
     <t>2016-02-24 05:25:27</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf</t>
   </si>
   <si>
@@ -157,73 +275,7 @@
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
   </si>
   <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Ignored</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:23:55</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:36:12</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:47</t>
-  </si>
-  <si>
-    <t>2016-02-23 05:34:31</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:21</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:49:33</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-25 08:55:51</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+    <t>2016-03-01 06:16:16</t>
   </si>
 </sst>
 </file>
@@ -280,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ja-jp" displayName="ja_jp" ref="A1:J1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:J1" headerRowCount="0">
   <tableColumns count="10">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="Status"/>
@@ -316,11 +368,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:C1" headerRowCount="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ja-jp" displayName="ja_jp" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Latest Handoff File"/>
+    <tableColumn id="4" name="Latest Handoff Datetime"/>
+    <tableColumn id="5" name="Latest Target File"/>
+    <tableColumn id="6" name="Latest Handback File"/>
+    <tableColumn id="7" name="Latest Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
+  <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="ja-jp"/>
+    <tableColumn id="2" name="de-de"/>
     <tableColumn id="3" name="zh-cn"/>
+    <tableColumn id="4" name="ja-jp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -328,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -337,6 +408,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -349,170 +421,232 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -522,16 +656,17 @@
     <hyperlink ref="A4" display="Ping.md" r:id="rId4"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId5"/>
     <hyperlink ref="A6" display="test1.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test2.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="workerroletest.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="README.md" r:id="rId13"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="test2.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="workerroletest.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="toc.yml" r:id="rId12"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId13"/>
     <hyperlink ref="A14" display=".localization-config" r:id="rId14"/>
-    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId16"/>
+    <hyperlink ref="A15" display="README.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="testfirstlevel.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="testfirstlevel2.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -542,7 +677,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,353 +696,367 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId3"/>
+    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId5"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId7"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
     <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="README.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.ja-jp.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId26"/>
-    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId27"/>
-    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId28"/>
+    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test2.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="toc.yml" r:id="rId22"/>
+    <hyperlink ref="C12" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId23"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId24"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId25"/>
+    <hyperlink ref="A15" display="README.md" r:id="rId26"/>
+    <hyperlink ref="A16" display="testfirstlevel.md" r:id="rId27"/>
+    <hyperlink ref="A17" display="testfirstlevel2.md" r:id="rId28"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -918,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -937,83 +1086,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -1021,25 +1170,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1050,82 +1199,82 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1133,19 +1282,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1153,19 +1302,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1173,19 +1322,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1193,87 +1342,104 @@
         <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1306,12 +1472,407 @@
     <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId27"/>
     <hyperlink ref="A11" display="testworkerrole.md" r:id="rId28"/>
     <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A12" display="README.md" r:id="rId30"/>
-    <hyperlink ref="C12" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A12" display="toc.yml" r:id="rId30"/>
+    <hyperlink ref="C12" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId31"/>
     <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
     <hyperlink ref="A14" display=".localization-config" r:id="rId33"/>
-    <hyperlink ref="A15" display="testfirstlevel.md" r:id="rId34"/>
-    <hyperlink ref="A16" display="testfirstlevel2.md" r:id="rId35"/>
+    <hyperlink ref="A15" display="README.md" r:id="rId34"/>
+    <hyperlink ref="A16" display="testfirstlevel.md" r:id="rId35"/>
+    <hyperlink ref="A17" display="testfirstlevel2.md" r:id="rId36"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="toc.yml" r:id="rId24"/>
+    <hyperlink ref="C13" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId25"/>
+    <hyperlink ref="A14" display=".localization-config" r:id="rId26"/>
+    <hyperlink ref="A15" display="README.md" r:id="rId27"/>
+    <hyperlink ref="A16" display="testfirstlevel.md" r:id="rId28"/>
+    <hyperlink ref="A17" display="testfirstlevel2.md" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>File Name</t>
   </si>
@@ -65,21 +65,24 @@
     <t>testworkerrole.md</t>
   </si>
   <si>
+    <t>TOC.yml</t>
+  </si>
+  <si>
     <t>workerroletest.md</t>
   </si>
   <si>
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>toc.yml</t>
-  </si>
-  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
   </si>
   <si>
     <t>Handoff transform failed</t>
   </si>
   <si>
+    <t>TOC1.yml</t>
+  </si>
+  <si>
     <t>.localization-config</t>
   </si>
   <si>
@@ -167,15 +170,15 @@
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
   </si>
   <si>
+    <t>b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:46:37</t>
+  </si>
+  <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
   <si>
-    <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
-  </si>
-  <si>
-    <t>2016-03-01 06:16:00</t>
-  </si>
-  <si>
     <t>Ignored</t>
   </si>
   <si>
@@ -233,7 +236,7 @@
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-03-01 06:16:09</t>
+    <t>2016-03-01 06:46:49</t>
   </si>
   <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
@@ -275,7 +278,7 @@
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-03-01 06:16:16</t>
+    <t>2016-03-01 06:46:57</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,24 +562,24 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -598,27 +601,27 @@
         <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -626,13 +629,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -640,13 +643,27 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +677,14 @@
     <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId8"/>
     <hyperlink ref="A9" display="test2.md" r:id="rId9"/>
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="workerroletest.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="toc.yml" r:id="rId12"/>
+    <hyperlink ref="A11" display="TOC.yml" r:id="rId11"/>
+    <hyperlink ref="A12" display="workerroletest.md" r:id="rId12"/>
     <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId13"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId14"/>
-    <hyperlink ref="A15" display="README.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="testfirstlevel.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="testfirstlevel2.md" r:id="rId17"/>
+    <hyperlink ref="A14" display="TOC1.yml" r:id="rId14"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId15"/>
+    <hyperlink ref="A16" display="README.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -677,7 +695,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -696,31 +714,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -731,16 +749,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -751,16 +769,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -771,16 +789,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -791,16 +809,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -811,16 +829,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -831,16 +849,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -851,16 +869,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -871,16 +889,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -891,16 +909,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -911,36 +929,36 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -951,13 +969,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -965,33 +983,33 @@
         <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -999,16 +1017,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -1016,16 +1034,33 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1048,15 +1083,16 @@
     <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId17"/>
     <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
     <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="toc.yml" r:id="rId22"/>
-    <hyperlink ref="C12" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId23"/>
+    <hyperlink ref="A11" display="TOC.yml" r:id="rId20"/>
+    <hyperlink ref="C11" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId21"/>
+    <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId24"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId25"/>
-    <hyperlink ref="A15" display="README.md" r:id="rId26"/>
-    <hyperlink ref="A16" display="testfirstlevel.md" r:id="rId27"/>
-    <hyperlink ref="A17" display="testfirstlevel2.md" r:id="rId28"/>
+    <hyperlink ref="A14" display="TOC1.yml" r:id="rId25"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId26"/>
+    <hyperlink ref="A16" display="README.md" r:id="rId27"/>
+    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId28"/>
+    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1067,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1086,31 +1122,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -1121,22 +1157,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1147,22 +1183,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -1173,42 +1209,42 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1219,16 +1255,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -1239,22 +1275,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -1265,16 +1301,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1285,16 +1321,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -1305,16 +1341,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1325,21 +1361,21 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
@@ -1348,13 +1384,13 @@
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -1365,13 +1401,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1379,33 +1415,33 @@
         <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -1413,16 +1449,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -1430,16 +1466,33 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1472,13 +1525,14 @@
     <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId27"/>
     <hyperlink ref="A11" display="testworkerrole.md" r:id="rId28"/>
     <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A12" display="toc.yml" r:id="rId30"/>
-    <hyperlink ref="C12" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId31"/>
+    <hyperlink ref="A12" display="TOC.yml" r:id="rId30"/>
+    <hyperlink ref="C12" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId31"/>
     <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId33"/>
-    <hyperlink ref="A15" display="README.md" r:id="rId34"/>
-    <hyperlink ref="A16" display="testfirstlevel.md" r:id="rId35"/>
-    <hyperlink ref="A17" display="testfirstlevel2.md" r:id="rId36"/>
+    <hyperlink ref="A14" display="TOC1.yml" r:id="rId33"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId34"/>
+    <hyperlink ref="A16" display="README.md" r:id="rId35"/>
+    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId36"/>
+    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId37"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1489,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1508,31 +1562,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -1543,16 +1597,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1563,16 +1617,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -1583,16 +1637,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -1603,16 +1657,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1623,16 +1677,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -1643,16 +1697,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -1663,16 +1717,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1683,16 +1737,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -1703,16 +1757,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1723,41 +1777,41 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
@@ -1766,13 +1820,13 @@
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -1780,33 +1834,33 @@
         <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -1814,16 +1868,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -1831,16 +1885,33 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1867,12 +1938,13 @@
     <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId21"/>
     <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
     <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="toc.yml" r:id="rId24"/>
-    <hyperlink ref="C13" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId25"/>
-    <hyperlink ref="A14" display=".localization-config" r:id="rId26"/>
-    <hyperlink ref="A15" display="README.md" r:id="rId27"/>
-    <hyperlink ref="A16" display="testfirstlevel.md" r:id="rId28"/>
-    <hyperlink ref="A17" display="testfirstlevel2.md" r:id="rId29"/>
+    <hyperlink ref="A13" display="TOC.yml" r:id="rId24"/>
+    <hyperlink ref="C13" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId25"/>
+    <hyperlink ref="A14" display="TOC1.yml" r:id="rId26"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId27"/>
+    <hyperlink ref="A16" display="README.md" r:id="rId28"/>
+    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId29"/>
+    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId30"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>File Name</t>
   </si>
@@ -203,6 +203,15 @@
     <t>2016-02-23 05:34:31</t>
   </si>
   <si>
+    <t>2016-03-01 06:46:49</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:56:39</t>
+  </si>
+  <si>
+    <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
+  </si>
+  <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
   </si>
   <si>
@@ -234,9 +243,6 @@
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-01 06:46:49</t>
   </si>
   <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
@@ -562,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>5</v>
@@ -604,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>20</v>
@@ -1229,19 +1235,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>39</v>
@@ -1249,45 +1261,42 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>39</v>
@@ -1295,16 +1304,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>38</v>
@@ -1315,19 +1324,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>39</v>
@@ -1335,13 +1350,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>60</v>
@@ -1355,16 +1370,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>38</v>
@@ -1375,16 +1390,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>38</v>
@@ -1395,24 +1410,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>20</v>
@@ -1509,30 +1527,34 @@
     <hyperlink ref="C4" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId11"/>
     <hyperlink ref="E4" display="test2.md" r:id="rId12"/>
     <hyperlink ref="F4" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="workerroletest.md" r:id="rId14"/>
-    <hyperlink ref="C5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId15"/>
-    <hyperlink ref="A6" display="generate-warning&amp;error.md" r:id="rId16"/>
-    <hyperlink ref="C6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId17"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId18"/>
-    <hyperlink ref="C7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId19"/>
-    <hyperlink ref="E7" display="Ping.md" r:id="rId20"/>
-    <hyperlink ref="F7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId21"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId22"/>
-    <hyperlink ref="C8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId23"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId24"/>
-    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId25"/>
-    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId26"/>
-    <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId27"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId28"/>
-    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId29"/>
-    <hyperlink ref="A12" display="TOC.yml" r:id="rId30"/>
-    <hyperlink ref="C12" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId31"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
-    <hyperlink ref="A14" display="TOC1.yml" r:id="rId33"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId34"/>
-    <hyperlink ref="A16" display="README.md" r:id="rId35"/>
-    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId36"/>
-    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId37"/>
+    <hyperlink ref="A5" display="TOC.yml" r:id="rId14"/>
+    <hyperlink ref="C5" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId15"/>
+    <hyperlink ref="E5" display="TOC.yml" r:id="rId16"/>
+    <hyperlink ref="F5" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId17"/>
+    <hyperlink ref="A6" display="TOC1.yml" r:id="rId18"/>
+    <hyperlink ref="E6" display="TOC1.yml" r:id="rId19"/>
+    <hyperlink ref="F6" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId20"/>
+    <hyperlink ref="A7" display="workerroletest.md" r:id="rId21"/>
+    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId22"/>
+    <hyperlink ref="A8" display="generate-warning&amp;error.md" r:id="rId23"/>
+    <hyperlink ref="C8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="A9" display="Ping.md" r:id="rId25"/>
+    <hyperlink ref="C9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="E9" display="Ping.md" r:id="rId27"/>
+    <hyperlink ref="F9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A10" display="test1.md" r:id="rId29"/>
+    <hyperlink ref="C10" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId31"/>
+    <hyperlink ref="C11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="A12" display="keep-the-ui-thread-responsive.md" r:id="rId33"/>
+    <hyperlink ref="C12" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId35"/>
+    <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId36"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId37"/>
+    <hyperlink ref="A15" display=".localization-config" r:id="rId38"/>
+    <hyperlink ref="A16" display="README.md" r:id="rId39"/>
+    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId40"/>
+    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId41"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1597,10 +1619,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>38</v>
@@ -1617,10 +1639,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>38</v>
@@ -1637,10 +1659,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>38</v>
@@ -1657,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>38</v>
@@ -1677,10 +1699,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>38</v>
@@ -1697,10 +1719,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>38</v>
@@ -1717,10 +1739,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>38</v>
@@ -1737,10 +1759,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>38</v>
@@ -1757,10 +1779,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>38</v>
@@ -1777,10 +1799,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>38</v>
@@ -1797,10 +1819,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>38</v>
@@ -1820,7 +1842,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>38</v>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>File Name</t>
   </si>
@@ -38,6 +38,9 @@
     <t>In Translation</t>
   </si>
   <si>
+    <t>github.png</t>
+  </si>
+  <si>
     <t>osmond-test-1.md</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>test2.md</t>
   </si>
   <si>
+    <t>testimage.md</t>
+  </si>
+  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -137,6 +143,18 @@
     <t>Include</t>
   </si>
   <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>2016-03-01 07:36:05</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
   </si>
   <si>
@@ -167,15 +185,15 @@
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
   </si>
   <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
+  </si>
+  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
   </si>
   <si>
     <t>b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml</t>
   </si>
   <si>
-    <t>2016-03-01 06:46:37</t>
-  </si>
-  <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
   <si>
@@ -245,6 +263,12 @@
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-03-01 07:36:15</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
   </si>
   <si>
@@ -284,7 +308,10 @@
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-03-01 06:46:57</t>
+    <t>2016-03-01 07:36:23</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf</t>
   </si>
 </sst>
 </file>
@@ -408,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -456,21 +483,21 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>6</v>
@@ -484,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>6</v>
@@ -498,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>6</v>
@@ -540,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>6</v>
@@ -554,7 +581,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>6</v>
@@ -568,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>5</v>
@@ -582,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>6</v>
@@ -590,72 +617,72 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -663,34 +690,64 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="test1.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="test2.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="TOC.yml" r:id="rId11"/>
-    <hyperlink ref="A12" display="workerroletest.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="TOC1.yml" r:id="rId14"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId15"/>
-    <hyperlink ref="A16" display="README.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId18"/>
+    <hyperlink ref="A3" display="github.png" r:id="rId3"/>
+    <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="test-scenario-1.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="test1.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="test2.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="testimage.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="testworkerrole.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="TOC.yml" r:id="rId13"/>
+    <hyperlink ref="A14" display="workerroletest.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="TOC1.yml" r:id="rId16"/>
+    <hyperlink ref="A17" display=".localization-config" r:id="rId17"/>
+    <hyperlink ref="A18" display="README.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -701,7 +758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -720,31 +777,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -755,16 +812,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -775,36 +832,39 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +875,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -835,16 +895,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -855,16 +915,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -875,16 +935,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -895,16 +955,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
@@ -915,16 +975,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -935,16 +995,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -955,101 +1015,107 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1057,48 +1123,86 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
     <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="test2.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="TOC.yml" r:id="rId20"/>
-    <hyperlink ref="C11" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId21"/>
-    <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId24"/>
-    <hyperlink ref="A14" display="TOC1.yml" r:id="rId25"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId26"/>
-    <hyperlink ref="A16" display="README.md" r:id="rId27"/>
-    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId28"/>
-    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId29"/>
+    <hyperlink ref="A3" display="github.png" r:id="rId4"/>
+    <hyperlink ref="C3" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId5"/>
+    <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="Ping.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="test1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="testimage.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="testworkerrole.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="TOC.yml" r:id="rId24"/>
+    <hyperlink ref="C13" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId25"/>
+    <hyperlink ref="A14" display="workerroletest.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
+    <hyperlink ref="A16" display="TOC1.yml" r:id="rId29"/>
+    <hyperlink ref="A17" display=".localization-config" r:id="rId30"/>
+    <hyperlink ref="A18" display="README.md" r:id="rId31"/>
+    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId32"/>
+    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId33"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1109,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,178 +1232,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -1310,190 +1414,199 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1501,16 +1614,50 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1550,11 +1697,15 @@
     <hyperlink ref="C12" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId34"/>
     <hyperlink ref="A13" display="testworkerrole.md" r:id="rId35"/>
     <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId36"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId37"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId38"/>
-    <hyperlink ref="A16" display="README.md" r:id="rId39"/>
-    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId40"/>
-    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId41"/>
+    <hyperlink ref="A14" display="github.png" r:id="rId37"/>
+    <hyperlink ref="C14" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId38"/>
+    <hyperlink ref="A15" display="testimage.md" r:id="rId39"/>
+    <hyperlink ref="C15" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId40"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId41"/>
+    <hyperlink ref="A17" display=".localization-config" r:id="rId42"/>
+    <hyperlink ref="A18" display="README.md" r:id="rId43"/>
+    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId44"/>
+    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId45"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1565,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1584,31 +1735,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -1619,304 +1770,313 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1924,16 +2084,50 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1960,13 +2154,17 @@
     <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId21"/>
     <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
     <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="TOC.yml" r:id="rId24"/>
-    <hyperlink ref="C13" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId25"/>
-    <hyperlink ref="A14" display="TOC1.yml" r:id="rId26"/>
-    <hyperlink ref="A15" display=".localization-config" r:id="rId27"/>
-    <hyperlink ref="A16" display="README.md" r:id="rId28"/>
-    <hyperlink ref="A17" display="testfirstlevel.md" r:id="rId29"/>
-    <hyperlink ref="A18" display="testfirstlevel2.md" r:id="rId30"/>
+    <hyperlink ref="A13" display="github.png" r:id="rId24"/>
+    <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId25"/>
+    <hyperlink ref="A14" display="testimage.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
+    <hyperlink ref="C15" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
+    <hyperlink ref="A16" display="TOC1.yml" r:id="rId30"/>
+    <hyperlink ref="A17" display=".localization-config" r:id="rId31"/>
+    <hyperlink ref="A18" display="README.md" r:id="rId32"/>
+    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId33"/>
+    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId34"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>File Name</t>
   </si>
@@ -35,18 +35,18 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>osmond-test-1.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
     <t>In Translation</t>
   </si>
   <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>osmond-test-1.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>Ping.md</t>
   </si>
   <si>
@@ -134,7 +134,7 @@
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:49:38</t>
+    <t>2016-03-03 07:29:18</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -146,48 +146,48 @@
     <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
   </si>
   <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:42</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-25 08:55:44</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:40</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-03-01 07:36:05</t>
   </si>
   <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:42</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-25 08:55:44</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:40</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
-  </si>
-  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
   </si>
   <si>
@@ -236,82 +236,85 @@
     <t>2016-01-06 16:02:21</t>
   </si>
   <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-25 08:55:51</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-22 14:49:33</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-25 08:55:51</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+    <t>2016-03-03 07:29:32</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-03-01 07:36:15</t>
   </si>
   <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:25:27</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-25 08:55:58</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
   </si>
   <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-02-24 05:25:27</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-25 08:55:58</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
+    <t>2016-03-03 07:29:43</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf</t>
   </si>
   <si>
     <t>2016-03-01 07:36:23</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf</t>
   </si>
 </sst>
 </file>
@@ -469,15 +472,15 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
@@ -491,16 +494,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -511,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -525,10 +528,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -539,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -553,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -567,10 +570,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -581,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +612,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>5</v>
@@ -640,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -654,7 +657,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -665,7 +668,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>22</v>
@@ -826,7 +829,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
@@ -835,30 +838,30 @@
         <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>40</v>
@@ -875,10 +878,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>40</v>
@@ -895,10 +898,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>40</v>
@@ -915,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>40</v>
@@ -935,10 +938,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>40</v>
@@ -955,10 +958,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>40</v>
@@ -975,10 +978,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>40</v>
@@ -995,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>40</v>
@@ -1018,7 +1021,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>40</v>
@@ -1038,7 +1041,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>40</v>
@@ -1058,7 +1061,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>40</v>
@@ -1261,10 +1264,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
@@ -1273,10 +1276,10 @@
         <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>63</v>
@@ -1290,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>64</v>
@@ -1302,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>63</v>
@@ -1316,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>65</v>
@@ -1342,7 +1345,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -1368,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
@@ -1408,10 +1411,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>73</v>
@@ -1419,8 +1422,14 @@
       <c r="D8" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G8" s="0" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>41</v>
@@ -1428,25 +1437,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>41</v>
@@ -1454,13 +1457,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>66</v>
@@ -1474,13 +1477,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>66</v>
@@ -1494,16 +1497,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>40</v>
@@ -1514,16 +1517,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>40</v>
@@ -1534,7 +1537,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
@@ -1543,16 +1546,16 @@
         <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1563,10 +1566,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>40</v>
@@ -1683,20 +1686,20 @@
     <hyperlink ref="F6" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId20"/>
     <hyperlink ref="A7" display="workerroletest.md" r:id="rId21"/>
     <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId22"/>
-    <hyperlink ref="A8" display="generate-warning&amp;error.md" r:id="rId23"/>
-    <hyperlink ref="C8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="A9" display="Ping.md" r:id="rId25"/>
-    <hyperlink ref="C9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="E9" display="Ping.md" r:id="rId27"/>
-    <hyperlink ref="F9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A10" display="test1.md" r:id="rId29"/>
-    <hyperlink ref="C10" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId31"/>
-    <hyperlink ref="C11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A12" display="keep-the-ui-thread-responsive.md" r:id="rId33"/>
-    <hyperlink ref="C12" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId35"/>
-    <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId36"/>
+    <hyperlink ref="A8" display="Ping.md" r:id="rId23"/>
+    <hyperlink ref="C8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="E8" display="Ping.md" r:id="rId25"/>
+    <hyperlink ref="F8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId27"/>
+    <hyperlink ref="C9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId29"/>
+    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId31"/>
+    <hyperlink ref="C11" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="A12" display="testworkerrole.md" r:id="rId33"/>
+    <hyperlink ref="C12" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A13" display="generate-warning&amp;error.md" r:id="rId35"/>
+    <hyperlink ref="C13" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId36"/>
     <hyperlink ref="A14" display="github.png" r:id="rId37"/>
     <hyperlink ref="C14" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId38"/>
     <hyperlink ref="A15" display="testimage.md" r:id="rId39"/>
@@ -1764,10 +1767,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>84</v>
@@ -1784,16 +1787,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>40</v>
@@ -1804,16 +1807,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>40</v>
@@ -1824,10 +1827,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>89</v>
@@ -1844,10 +1847,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>90</v>
@@ -1864,10 +1867,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>91</v>
@@ -1884,10 +1887,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>92</v>
@@ -1904,10 +1907,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>93</v>
@@ -1924,10 +1927,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>94</v>
@@ -1944,10 +1947,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>95</v>
@@ -1964,16 +1967,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>40</v>
@@ -1984,7 +1987,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>5</v>
@@ -1999,10 +2002,10 @@
         <v>40</v>
       </c>
       <c r="H13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2016,7 +2019,7 @@
         <v>98</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>40</v>
@@ -2132,28 +2135,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
-    <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="osmond-test-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="Ping.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="test1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="workerroletest.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId23"/>
+    <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="Ping.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="test1.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test2.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="generate-warning&amp;error.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="github.png" r:id="rId24"/>
     <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId25"/>
     <hyperlink ref="A14" display="testimage.md" r:id="rId26"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -9,13 +9,14 @@
     <sheet name="de-de" sheetId="2" r:id="rId3"/>
     <sheet name="zh-cn" sheetId="3" r:id="rId4"/>
     <sheet name="ja-jp" sheetId="4" r:id="rId5"/>
+    <sheet name="pl-pl" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>File Name</t>
   </si>
@@ -29,7 +30,10 @@
     <t>ja-jp</t>
   </si>
   <si>
-    <t>generate-warning&amp;error.md</t>
+    <t>pl-pl</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
@@ -95,6 +99,15 @@
     <t>Not to be localized</t>
   </si>
   <si>
+    <t>.openpublishing.build.ps1</t>
+  </si>
+  <si>
+    <t>.openpublishing.publish.config.json</t>
+  </si>
+  <si>
+    <t>docfx.json</t>
+  </si>
+  <si>
     <t>README.md</t>
   </si>
   <si>
@@ -315,6 +328,45 @@
   </si>
   <si>
     <t>2016-03-01 07:36:23</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 02:56:07</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
   </si>
 </sst>
 </file>
@@ -425,12 +477,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="pl-pl" displayName="pl_pl" ref="A1:J1" headerRowCount="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="Latest Handoff File"/>
+    <tableColumn id="4" name="Latest Handoff Datetime"/>
+    <tableColumn id="5" name="Latest Target File"/>
+    <tableColumn id="6" name="Latest Handback File"/>
+    <tableColumn id="7" name="Latest Handback DateTime"/>
+    <tableColumn id="8" name="Handoff Reason"/>
+    <tableColumn id="9" name="Dependency From"/>
+    <tableColumn id="10" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Overview" displayName="Overview" ref="A1:E1" headerRowCount="0">
+  <tableColumns count="5">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="de-de"/>
     <tableColumn id="3" name="zh-cn"/>
     <tableColumn id="4" name="ja-jp"/>
+    <tableColumn id="5" name="pl-pl"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -438,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +519,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,276 +535,387 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="generate-warning and error.md" r:id="rId2"/>
     <hyperlink ref="A3" display="github.png" r:id="rId3"/>
     <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId4"/>
     <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
@@ -748,9 +931,12 @@
     <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId15"/>
     <hyperlink ref="A16" display="TOC1.yml" r:id="rId16"/>
     <hyperlink ref="A17" display=".localization-config" r:id="rId17"/>
-    <hyperlink ref="A18" display="README.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId20"/>
+    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId18"/>
+    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId19"/>
+    <hyperlink ref="A20" display="docfx.json" r:id="rId20"/>
+    <hyperlink ref="A21" display="README.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId23"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -761,7 +947,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -780,401 +966,452 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="generate-warning&amp;error.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="generate-warning and error.md" r:id="rId2"/>
     <hyperlink ref="C2" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="github.png" r:id="rId4"/>
     <hyperlink ref="C3" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId5"/>
@@ -1203,9 +1440,12 @@
     <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
     <hyperlink ref="A16" display="TOC1.yml" r:id="rId29"/>
     <hyperlink ref="A17" display=".localization-config" r:id="rId30"/>
-    <hyperlink ref="A18" display="README.md" r:id="rId31"/>
-    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId32"/>
-    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId33"/>
+    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId31"/>
+    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId32"/>
+    <hyperlink ref="A20" display="docfx.json" r:id="rId33"/>
+    <hyperlink ref="A21" display="README.md" r:id="rId34"/>
+    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId35"/>
+    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId36"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1216,7 +1456,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1235,432 +1475,483 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1989,7 @@
     <hyperlink ref="C11" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId32"/>
     <hyperlink ref="A12" display="testworkerrole.md" r:id="rId33"/>
     <hyperlink ref="C12" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A13" display="generate-warning&amp;error.md" r:id="rId35"/>
+    <hyperlink ref="A13" display="generate-warning and error.md" r:id="rId35"/>
     <hyperlink ref="C13" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId36"/>
     <hyperlink ref="A14" display="github.png" r:id="rId37"/>
     <hyperlink ref="C14" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId38"/>
@@ -1706,9 +1997,12 @@
     <hyperlink ref="C15" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId40"/>
     <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId41"/>
     <hyperlink ref="A17" display=".localization-config" r:id="rId42"/>
-    <hyperlink ref="A18" display="README.md" r:id="rId43"/>
-    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId44"/>
-    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId45"/>
+    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId43"/>
+    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId44"/>
+    <hyperlink ref="A20" display="docfx.json" r:id="rId45"/>
+    <hyperlink ref="A21" display="README.md" r:id="rId46"/>
+    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId47"/>
+    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId48"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1719,7 +2013,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1738,399 +2032,450 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2500,7 @@
     <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId19"/>
     <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
     <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="generate-warning&amp;error.md" r:id="rId22"/>
+    <hyperlink ref="A12" display="generate-warning and error.md" r:id="rId22"/>
     <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="github.png" r:id="rId24"/>
     <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId25"/>
@@ -2165,9 +2510,529 @@
     <hyperlink ref="C15" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
     <hyperlink ref="A16" display="TOC1.yml" r:id="rId30"/>
     <hyperlink ref="A17" display=".localization-config" r:id="rId31"/>
-    <hyperlink ref="A18" display="README.md" r:id="rId32"/>
-    <hyperlink ref="A19" display="testfirstlevel.md" r:id="rId33"/>
-    <hyperlink ref="A20" display="testfirstlevel2.md" r:id="rId34"/>
+    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId32"/>
+    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId33"/>
+    <hyperlink ref="A20" display="docfx.json" r:id="rId34"/>
+    <hyperlink ref="A21" display="README.md" r:id="rId35"/>
+    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId36"/>
+    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId37"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="generate-warning and error.md" r:id="rId2"/>
+    <hyperlink ref="C2" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="github.png" r:id="rId4"/>
+    <hyperlink ref="C3" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId5"/>
+    <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.pl-pl.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="Ping.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="test1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="testimage.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
+    <hyperlink ref="C14" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId27"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
+    <hyperlink ref="C15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="TOC1.yml" r:id="rId30"/>
+    <hyperlink ref="C16" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId31"/>
+    <hyperlink ref="A17" display=".localization-config" r:id="rId32"/>
+    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId33"/>
+    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId34"/>
+    <hyperlink ref="A20" display="docfx.json" r:id="rId35"/>
+    <hyperlink ref="A21" display="README.md" r:id="rId36"/>
+    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId37"/>
+    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId38"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>File Name</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Ping.md</t>
   </si>
   <si>
+    <t>sync.md</t>
+  </si>
+  <si>
     <t>test-scenario-1.md</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
     <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
   </si>
   <si>
+    <t>2016-03-04 03:05:20</t>
+  </si>
+  <si>
     <t>IsDependency</t>
   </si>
   <si>
@@ -177,6 +183,9 @@
     <t>2016-02-25 08:55:44</t>
   </si>
   <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
   </si>
   <si>
@@ -276,6 +285,12 @@
     <t>2016-03-03 07:29:32</t>
   </si>
   <si>
+    <t>2016-03-04 03:05:37</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
   </si>
   <si>
@@ -324,6 +339,12 @@
     <t>2016-03-03 07:29:43</t>
   </si>
   <si>
+    <t>2016-03-04 03:05:53</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf</t>
+  </si>
+  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf</t>
   </si>
   <si>
@@ -336,10 +357,16 @@
     <t>2016-03-04 02:56:07</t>
   </si>
   <si>
+    <t>2016-03-04 03:06:06</t>
+  </si>
+  <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.pl-pl.xlf</t>
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
   </si>
   <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
@@ -509,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -615,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>6</v>
@@ -632,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>10</v>
@@ -683,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>10</v>
@@ -700,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>6</v>
@@ -717,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>6</v>
@@ -734,10 +761,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>6</v>
@@ -751,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>6</v>
@@ -762,13 +789,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>23</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>10</v>
@@ -779,16 +806,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>6</v>
@@ -799,33 +826,33 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -833,16 +860,16 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -850,16 +877,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -867,16 +894,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -884,16 +911,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -901,16 +928,33 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -919,24 +963,25 @@
     <hyperlink ref="A3" display="github.png" r:id="rId3"/>
     <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId4"/>
     <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="test-scenario-1.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="test1.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test2.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="testimage.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="testworkerrole.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="TOC.yml" r:id="rId13"/>
-    <hyperlink ref="A14" display="workerroletest.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="TOC1.yml" r:id="rId16"/>
-    <hyperlink ref="A17" display=".localization-config" r:id="rId17"/>
-    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId18"/>
-    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId19"/>
-    <hyperlink ref="A20" display="docfx.json" r:id="rId20"/>
-    <hyperlink ref="A21" display="README.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId23"/>
+    <hyperlink ref="A6" display="sync.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="test-scenario-1.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="test1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="test2.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="testimage.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId14"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="TOC1.yml" r:id="rId17"/>
+    <hyperlink ref="A18" display=".localization-config" r:id="rId18"/>
+    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId19"/>
+    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId20"/>
+    <hyperlink ref="A21" display="docfx.json" r:id="rId21"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -947,7 +992,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -966,31 +1011,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1001,16 +1046,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1021,19 +1066,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1044,16 +1089,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1064,16 +1109,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1084,16 +1129,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1104,16 +1149,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1124,16 +1169,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1144,16 +1189,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1164,16 +1209,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1184,16 +1229,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -1204,16 +1249,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -1224,16 +1269,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1244,50 +1289,53 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -1295,33 +1343,33 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -1329,16 +1377,16 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1346,16 +1394,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1363,16 +1411,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -1380,16 +1428,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -1397,16 +1445,33 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1419,33 +1484,35 @@
     <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="Ping.md" r:id="rId8"/>
     <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="test1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="testimage.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="testworkerrole.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="TOC.yml" r:id="rId24"/>
-    <hyperlink ref="C13" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId25"/>
-    <hyperlink ref="A14" display="workerroletest.md" r:id="rId26"/>
-    <hyperlink ref="C14" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
-    <hyperlink ref="A16" display="TOC1.yml" r:id="rId29"/>
-    <hyperlink ref="A17" display=".localization-config" r:id="rId30"/>
-    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId31"/>
-    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId32"/>
-    <hyperlink ref="A20" display="docfx.json" r:id="rId33"/>
-    <hyperlink ref="A21" display="README.md" r:id="rId34"/>
-    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId35"/>
-    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId36"/>
+    <hyperlink ref="A6" display="sync.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="test-scenario-1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="testimage.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
+    <hyperlink ref="C14" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId27"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
+    <hyperlink ref="C15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId30"/>
+    <hyperlink ref="A17" display="TOC1.yml" r:id="rId31"/>
+    <hyperlink ref="A18" display=".localization-config" r:id="rId32"/>
+    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId33"/>
+    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId34"/>
+    <hyperlink ref="A21" display="docfx.json" r:id="rId35"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId36"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId37"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId38"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1456,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1475,31 +1542,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1510,143 +1577,143 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1657,102 +1724,102 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -1763,16 +1830,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1783,90 +1850,93 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -1874,16 +1944,16 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -1891,16 +1961,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -1908,16 +1978,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -1925,16 +1995,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -1942,16 +2012,33 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1993,16 +2080,18 @@
     <hyperlink ref="C13" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId36"/>
     <hyperlink ref="A14" display="github.png" r:id="rId37"/>
     <hyperlink ref="C14" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId38"/>
-    <hyperlink ref="A15" display="testimage.md" r:id="rId39"/>
-    <hyperlink ref="C15" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId40"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId41"/>
-    <hyperlink ref="A17" display=".localization-config" r:id="rId42"/>
-    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId43"/>
-    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId44"/>
-    <hyperlink ref="A20" display="docfx.json" r:id="rId45"/>
-    <hyperlink ref="A21" display="README.md" r:id="rId46"/>
-    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId47"/>
-    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId48"/>
+    <hyperlink ref="A15" display="sync.md" r:id="rId39"/>
+    <hyperlink ref="C15" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId40"/>
+    <hyperlink ref="A16" display="testimage.md" r:id="rId41"/>
+    <hyperlink ref="C16" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId42"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId43"/>
+    <hyperlink ref="A18" display=".localization-config" r:id="rId44"/>
+    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId45"/>
+    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId46"/>
+    <hyperlink ref="A21" display="docfx.json" r:id="rId47"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId48"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId49"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId50"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2013,7 +2102,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2032,31 +2121,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -2067,16 +2156,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2087,176 +2176,176 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2267,16 +2356,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2287,76 +2376,79 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2364,33 +2456,33 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -2398,16 +2490,16 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -2415,16 +2507,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -2432,16 +2524,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -2449,16 +2541,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -2466,16 +2558,33 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2504,18 +2613,20 @@
     <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="github.png" r:id="rId24"/>
     <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId25"/>
-    <hyperlink ref="A14" display="testimage.md" r:id="rId26"/>
-    <hyperlink ref="C14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
-    <hyperlink ref="C15" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
-    <hyperlink ref="A16" display="TOC1.yml" r:id="rId30"/>
-    <hyperlink ref="A17" display=".localization-config" r:id="rId31"/>
-    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId32"/>
-    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId33"/>
-    <hyperlink ref="A20" display="docfx.json" r:id="rId34"/>
-    <hyperlink ref="A21" display="README.md" r:id="rId35"/>
-    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId36"/>
-    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId37"/>
+    <hyperlink ref="A14" display="sync.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="testimage.md" r:id="rId28"/>
+    <hyperlink ref="C15" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="TOC.yml" r:id="rId30"/>
+    <hyperlink ref="C16" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId31"/>
+    <hyperlink ref="A17" display="TOC1.yml" r:id="rId32"/>
+    <hyperlink ref="A18" display=".localization-config" r:id="rId33"/>
+    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId34"/>
+    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId35"/>
+    <hyperlink ref="A21" display="docfx.json" r:id="rId36"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId37"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId38"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId39"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2526,7 +2637,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2545,31 +2656,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -2580,16 +2691,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -2600,19 +2711,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2623,16 +2734,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -2643,16 +2754,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -2663,16 +2774,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -2683,56 +2794,56 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -2743,16 +2854,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -2763,16 +2874,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2783,16 +2894,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2803,16 +2914,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -2823,16 +2934,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -2843,36 +2954,36 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2880,33 +2991,36 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -2914,16 +3028,16 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -2931,16 +3045,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -2948,16 +3062,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -2965,16 +3079,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -2982,16 +3096,33 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3004,35 +3135,37 @@
     <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.pl-pl.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="Ping.md" r:id="rId8"/>
     <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="test1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test2.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="testimage.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
-    <hyperlink ref="C14" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId27"/>
-    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
-    <hyperlink ref="C15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="TOC1.yml" r:id="rId30"/>
-    <hyperlink ref="C16" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId31"/>
-    <hyperlink ref="A17" display=".localization-config" r:id="rId32"/>
-    <hyperlink ref="A18" display=".openpublishing.build.ps1" r:id="rId33"/>
-    <hyperlink ref="A19" display=".openpublishing.publish.config.json" r:id="rId34"/>
-    <hyperlink ref="A20" display="docfx.json" r:id="rId35"/>
-    <hyperlink ref="A21" display="README.md" r:id="rId36"/>
-    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId37"/>
-    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId38"/>
+    <hyperlink ref="A6" display="sync.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="test-scenario-1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test2.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="testworkerrole.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
+    <hyperlink ref="C15" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
+    <hyperlink ref="A16" display="workerroletest.md" r:id="rId30"/>
+    <hyperlink ref="C16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="TOC1.yml" r:id="rId32"/>
+    <hyperlink ref="C17" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId33"/>
+    <hyperlink ref="A18" display=".localization-config" r:id="rId34"/>
+    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId35"/>
+    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId36"/>
+    <hyperlink ref="A21" display="docfx.json" r:id="rId37"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId38"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId39"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId40"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>File Name</t>
   </si>
@@ -162,30 +162,33 @@
     <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
   </si>
   <si>
+    <t>2016-03-04 15:48:39</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:42</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-25 08:55:44</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 03:05:20</t>
   </si>
   <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:42</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-25 08:55:44</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
-  </si>
-  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
   </si>
   <si>
@@ -273,24 +276,27 @@
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
   </si>
   <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 07:29:32</t>
+  </si>
+  <si>
+    <t>2016-03-04 15:48:59</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 03:05:37</t>
+  </si>
+  <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 07:29:32</t>
-  </si>
-  <si>
-    <t>2016-03-04 03:05:37</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
   </si>
   <si>
@@ -321,30 +327,33 @@
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
   </si>
   <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 07:29:43</t>
+  </si>
+  <si>
+    <t>2016-03-04 15:49:17</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 03:05:53</t>
+  </si>
+  <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf</t>
   </si>
   <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 07:29:43</t>
-  </si>
-  <si>
-    <t>2016-03-04 03:05:53</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf</t>
-  </si>
-  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf</t>
   </si>
   <si>
@@ -357,16 +366,19 @@
     <t>2016-03-04 02:56:07</t>
   </si>
   <si>
+    <t>2016-03-04 15:49:34</t>
+  </si>
+  <si>
+    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>2016-03-04 03:06:06</t>
-  </si>
-  <si>
-    <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
   </si>
   <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
@@ -710,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>6</v>
@@ -1132,7 +1144,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>45</v>
@@ -1149,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
@@ -1169,10 +1181,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>45</v>
@@ -1189,10 +1201,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>45</v>
@@ -1209,10 +1221,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>45</v>
@@ -1229,10 +1241,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
@@ -1249,10 +1261,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
@@ -1269,7 +1281,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
@@ -1289,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
@@ -1309,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
@@ -1335,7 +1347,7 @@
         <v>45</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -1352,7 +1364,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -1369,7 +1381,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -1386,7 +1398,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -1403,7 +1415,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -1420,7 +1432,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -1437,7 +1449,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -1454,7 +1466,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -1471,7 +1483,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1577,10 +1589,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1589,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>46</v>
@@ -1603,19 +1615,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>46</v>
@@ -1629,19 +1641,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>46</v>
@@ -1655,19 +1667,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>46</v>
@@ -1687,13 +1699,13 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1704,10 +1716,10 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>45</v>
@@ -1724,19 +1736,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>46</v>
@@ -1750,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>45</v>
@@ -1770,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>45</v>
@@ -1784,16 +1796,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
@@ -1804,16 +1816,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
@@ -1824,56 +1836,56 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>89</v>
@@ -1893,10 +1905,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>45</v>
@@ -1919,7 +1931,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -1936,7 +1948,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -1953,7 +1965,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -1970,7 +1982,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -1987,7 +1999,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -2004,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -2021,7 +2033,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -2038,7 +2050,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2072,16 +2084,16 @@
     <hyperlink ref="C9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId28"/>
     <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId29"/>
     <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId31"/>
-    <hyperlink ref="C11" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A12" display="testworkerrole.md" r:id="rId33"/>
-    <hyperlink ref="C12" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A13" display="generate-warning and error.md" r:id="rId35"/>
-    <hyperlink ref="C13" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId36"/>
-    <hyperlink ref="A14" display="github.png" r:id="rId37"/>
-    <hyperlink ref="C14" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId38"/>
-    <hyperlink ref="A15" display="sync.md" r:id="rId39"/>
-    <hyperlink ref="C15" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId40"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId31"/>
+    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="A12" display="generate-warning and error.md" r:id="rId33"/>
+    <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A13" display="github.png" r:id="rId35"/>
+    <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId36"/>
+    <hyperlink ref="A14" display="sync.md" r:id="rId37"/>
+    <hyperlink ref="C14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId38"/>
+    <hyperlink ref="A15" display="keep-the-ui-thread-responsive.md" r:id="rId39"/>
+    <hyperlink ref="C15" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId40"/>
     <hyperlink ref="A16" display="testimage.md" r:id="rId41"/>
     <hyperlink ref="C16" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId42"/>
     <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId43"/>
@@ -2156,10 +2168,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>45</v>
@@ -2176,10 +2188,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>45</v>
@@ -2196,10 +2208,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>45</v>
@@ -2216,10 +2228,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>45</v>
@@ -2236,10 +2248,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>45</v>
@@ -2256,10 +2268,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>45</v>
@@ -2270,16 +2282,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>45</v>
@@ -2290,16 +2302,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>45</v>
@@ -2310,16 +2322,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>45</v>
@@ -2330,16 +2342,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
@@ -2350,59 +2362,59 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>45</v>
@@ -2419,10 +2431,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>45</v>
@@ -2439,10 +2451,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>45</v>
@@ -2465,7 +2477,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -2482,7 +2494,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -2499,7 +2511,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -2516,7 +2528,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -2533,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -2550,7 +2562,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -2567,7 +2579,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -2584,7 +2596,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2601,20 +2613,20 @@
     <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId11"/>
     <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
     <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="keep-the-ui-thread-responsive.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="test2.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="workerroletest.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="generate-warning and error.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="github.png" r:id="rId24"/>
-    <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId25"/>
-    <hyperlink ref="A14" display="sync.md" r:id="rId26"/>
-    <hyperlink ref="C14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="github.png" r:id="rId22"/>
+    <hyperlink ref="C12" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId23"/>
+    <hyperlink ref="A13" display="sync.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="keep-the-ui-thread-responsive.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId27"/>
     <hyperlink ref="A15" display="testimage.md" r:id="rId28"/>
     <hyperlink ref="C15" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf" r:id="rId29"/>
     <hyperlink ref="A16" display="TOC.yml" r:id="rId30"/>
@@ -2691,10 +2703,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>45</v>
@@ -2714,7 +2726,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>45</v>
@@ -2734,10 +2746,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>45</v>
@@ -2754,10 +2766,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>45</v>
@@ -2774,10 +2786,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>45</v>
@@ -2794,10 +2806,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>45</v>
@@ -2814,10 +2826,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>45</v>
@@ -2834,10 +2846,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>45</v>
@@ -2854,10 +2866,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>45</v>
@@ -2874,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
@@ -2894,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
@@ -2914,10 +2926,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>45</v>
@@ -2934,10 +2946,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>45</v>
@@ -2954,10 +2966,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>45</v>
@@ -2974,10 +2986,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>45</v>
@@ -2994,10 +3006,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>45</v>
@@ -3020,7 +3032,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -3037,7 +3049,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -3054,7 +3066,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
@@ -3071,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -3088,7 +3100,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -3105,7 +3117,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -3122,7 +3134,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>File Name</t>
   </si>
@@ -195,12 +195,15 @@
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-03-08 09:26:11</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-02-24 05:24:40</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
-  </si>
-  <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
   </si>
   <si>
@@ -270,28 +273,31 @@
     <t>2016-02-22 14:58:54</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 07:29:32</t>
+  </si>
+  <si>
+    <t>2016-03-04 15:48:59</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 03:05:37</t>
+  </si>
+  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 07:29:32</t>
-  </si>
-  <si>
-    <t>2016-03-04 15:48:59</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 03:05:37</t>
+    <t>2016-03-08 09:26:37</t>
   </si>
   <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
@@ -318,37 +324,40 @@
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 07:29:43</t>
+  </si>
+  <si>
+    <t>2016-03-04 15:49:17</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 03:05:53</t>
+  </si>
+  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 07:29:43</t>
-  </si>
-  <si>
-    <t>2016-03-04 15:49:17</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 03:05:53</t>
+    <t>2016-03-08 09:27:01</t>
   </si>
   <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf</t>
@@ -385,6 +394,9 @@
   </si>
   <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-08 09:27:24</t>
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf</t>
@@ -688,10 +700,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>6</v>
@@ -1204,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>45</v>
@@ -1221,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
@@ -1241,10 +1253,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
@@ -1261,10 +1273,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
@@ -1281,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
@@ -1301,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
@@ -1321,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
@@ -1347,7 +1359,7 @@
         <v>45</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -1364,7 +1376,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -1381,7 +1393,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -1398,7 +1410,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -1415,7 +1427,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -1432,7 +1444,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -1449,7 +1461,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -1466,7 +1478,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -1483,7 +1495,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1589,10 +1601,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1601,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>46</v>
@@ -1615,10 +1627,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -1627,7 +1639,7 @@
         <v>57</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>46</v>
@@ -1641,19 +1653,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>46</v>
@@ -1667,19 +1679,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>46</v>
@@ -1699,13 +1711,13 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1716,10 +1728,10 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>45</v>
@@ -1736,19 +1748,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>46</v>
@@ -1756,16 +1768,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>45</v>
@@ -1776,16 +1788,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>45</v>
@@ -1796,16 +1808,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
@@ -1816,59 +1828,59 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>45</v>
@@ -1885,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>89</v>
@@ -1905,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>45</v>
@@ -1931,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -1948,7 +1960,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -1965,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -1982,7 +1994,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -1999,7 +2011,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -2016,7 +2028,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -2033,7 +2045,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -2050,7 +2062,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2080,18 +2092,18 @@
     <hyperlink ref="C8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
     <hyperlink ref="E8" display="Ping.md" r:id="rId25"/>
     <hyperlink ref="F8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A9" display="test1.md" r:id="rId27"/>
-    <hyperlink ref="C9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId29"/>
-    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId31"/>
-    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A12" display="generate-warning and error.md" r:id="rId33"/>
-    <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A13" display="github.png" r:id="rId35"/>
-    <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId36"/>
-    <hyperlink ref="A14" display="sync.md" r:id="rId37"/>
-    <hyperlink ref="C14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId38"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId27"/>
+    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId29"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId31"/>
+    <hyperlink ref="C11" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="A12" display="github.png" r:id="rId33"/>
+    <hyperlink ref="C12" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId34"/>
+    <hyperlink ref="A13" display="sync.md" r:id="rId35"/>
+    <hyperlink ref="C13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId36"/>
+    <hyperlink ref="A14" display="test1.md" r:id="rId37"/>
+    <hyperlink ref="C14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId38"/>
     <hyperlink ref="A15" display="keep-the-ui-thread-responsive.md" r:id="rId39"/>
     <hyperlink ref="C15" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId40"/>
     <hyperlink ref="A16" display="testimage.md" r:id="rId41"/>
@@ -2168,10 +2180,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>45</v>
@@ -2188,10 +2200,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>45</v>
@@ -2208,10 +2220,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>45</v>
@@ -2222,16 +2234,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>45</v>
@@ -2242,16 +2254,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>45</v>
@@ -2262,16 +2274,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>45</v>
@@ -2282,16 +2294,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>45</v>
@@ -2302,16 +2314,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>45</v>
@@ -2322,16 +2334,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>45</v>
@@ -2342,59 +2354,59 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>45</v>
@@ -2411,10 +2423,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>45</v>
@@ -2431,10 +2443,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>45</v>
@@ -2451,10 +2463,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>45</v>
@@ -2477,7 +2489,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -2494,7 +2506,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -2511,7 +2523,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -2528,7 +2540,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -2545,7 +2557,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -2562,7 +2574,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -2579,7 +2591,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -2596,7 +2608,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2607,24 +2619,24 @@
     <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId5"/>
     <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId6"/>
     <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="test1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="github.png" r:id="rId22"/>
-    <hyperlink ref="C12" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId23"/>
-    <hyperlink ref="A13" display="sync.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId25"/>
+    <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="test2.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="testworkerrole.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="workerroletest.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="generate-warning and error.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="github.png" r:id="rId20"/>
+    <hyperlink ref="C11" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId21"/>
+    <hyperlink ref="A12" display="sync.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId25"/>
     <hyperlink ref="A14" display="keep-the-ui-thread-responsive.md" r:id="rId26"/>
     <hyperlink ref="C14" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId27"/>
     <hyperlink ref="A15" display="testimage.md" r:id="rId28"/>
@@ -2703,10 +2715,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>45</v>
@@ -2726,7 +2738,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>45</v>
@@ -2746,10 +2758,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>45</v>
@@ -2766,10 +2778,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>45</v>
@@ -2786,10 +2798,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>45</v>
@@ -2806,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>45</v>
@@ -2826,10 +2838,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>45</v>
@@ -2846,10 +2858,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>45</v>
@@ -2866,10 +2878,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>45</v>
@@ -2886,10 +2898,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>45</v>
@@ -2906,10 +2918,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>45</v>
@@ -2926,10 +2938,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>45</v>
@@ -2946,10 +2958,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>45</v>
@@ -2966,10 +2978,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>45</v>
@@ -2986,10 +2998,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>45</v>
@@ -3006,10 +3018,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>45</v>
@@ -3032,7 +3044,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -3049,7 +3061,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -3066,7 +3078,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -3083,7 +3095,7 @@
         <v>45</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -3100,7 +3112,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -3117,7 +3129,7 @@
         <v>45</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -3134,7 +3146,7 @@
         <v>45</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Ping.md</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
   </si>
   <si>
     <t>sync.md</t>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,10 +669,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>6</v>
@@ -683,10 +686,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>6</v>
@@ -700,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>6</v>
@@ -717,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>6</v>
@@ -734,10 +737,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>6</v>
@@ -751,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>6</v>
@@ -768,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>6</v>
@@ -785,10 +788,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>6</v>
@@ -802,10 +805,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>6</v>
@@ -819,10 +822,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>6</v>
@@ -830,13 +833,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>10</v>
@@ -847,16 +850,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>6</v>
@@ -867,33 +870,33 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -901,16 +904,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -918,16 +921,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -935,16 +938,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -952,16 +955,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -969,16 +972,33 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -987,25 +1007,26 @@
     <hyperlink ref="A3" display="github.png" r:id="rId3"/>
     <hyperlink ref="A4" display="osmond-test-1.md" r:id="rId4"/>
     <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="sync.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="test-scenario-1.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="test2.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="testimage.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="TOC.yml" r:id="rId14"/>
-    <hyperlink ref="A15" display="workerroletest.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="TOC1.yml" r:id="rId17"/>
-    <hyperlink ref="A18" display=".localization-config" r:id="rId18"/>
-    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId19"/>
-    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId20"/>
-    <hyperlink ref="A21" display="docfx.json" r:id="rId21"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
+    <hyperlink ref="A6" display="Pong.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="sync.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="test2.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="testworkerrole.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="TOC.yml" r:id="rId15"/>
+    <hyperlink ref="A16" display="workerroletest.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="TOC1.yml" r:id="rId18"/>
+    <hyperlink ref="A19" display=".localization-config" r:id="rId19"/>
+    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId20"/>
+    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId21"/>
+    <hyperlink ref="A22" display="docfx.json" r:id="rId22"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1016,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1035,31 +1056,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1070,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1090,19 +1111,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1113,16 +1134,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -1133,16 +1154,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -1153,16 +1174,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -1173,16 +1194,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -1196,13 +1217,13 @@
         <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -1213,16 +1234,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -1233,16 +1254,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1256,13 +1277,13 @@
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1276,13 +1297,13 @@
         <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1293,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1316,13 +1337,13 @@
         <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -1336,47 +1357,50 @@
         <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -1384,33 +1408,33 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -1418,16 +1442,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -1435,16 +1459,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -1452,16 +1476,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -1469,16 +1493,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -1486,16 +1510,33 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1508,35 +1549,37 @@
     <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="Ping.md" r:id="rId8"/>
     <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="sync.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="test-scenario-1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test2.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="testimage.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
-    <hyperlink ref="C14" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId27"/>
-    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
-    <hyperlink ref="C15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId30"/>
-    <hyperlink ref="A17" display="TOC1.yml" r:id="rId31"/>
-    <hyperlink ref="A18" display=".localization-config" r:id="rId32"/>
-    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId33"/>
-    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId34"/>
-    <hyperlink ref="A21" display="docfx.json" r:id="rId35"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId36"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId37"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId38"/>
+    <hyperlink ref="A6" display="Pong.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="sync.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test-scenario-1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test2.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="testworkerrole.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
+    <hyperlink ref="C15" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
+    <hyperlink ref="A16" display="workerroletest.md" r:id="rId30"/>
+    <hyperlink ref="C16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
+    <hyperlink ref="A18" display="TOC1.yml" r:id="rId33"/>
+    <hyperlink ref="A19" display=".localization-config" r:id="rId34"/>
+    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId35"/>
+    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId36"/>
+    <hyperlink ref="A22" display="docfx.json" r:id="rId37"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId38"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId39"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId40"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1547,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1566,31 +1609,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1601,143 +1644,143 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -1748,47 +1791,47 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
@@ -1797,121 +1840,121 @@
         <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
@@ -1920,64 +1963,67 @@
         <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -1985,16 +2031,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -2002,16 +2048,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -2019,16 +2065,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -2036,16 +2082,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -2053,16 +2099,33 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2092,30 +2155,32 @@
     <hyperlink ref="C8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
     <hyperlink ref="E8" display="Ping.md" r:id="rId25"/>
     <hyperlink ref="F8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId27"/>
-    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId29"/>
-    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId31"/>
-    <hyperlink ref="C11" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A12" display="github.png" r:id="rId33"/>
-    <hyperlink ref="C12" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId34"/>
-    <hyperlink ref="A13" display="sync.md" r:id="rId35"/>
-    <hyperlink ref="C13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId36"/>
-    <hyperlink ref="A14" display="test1.md" r:id="rId37"/>
-    <hyperlink ref="C14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId38"/>
-    <hyperlink ref="A15" display="keep-the-ui-thread-responsive.md" r:id="rId39"/>
-    <hyperlink ref="C15" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId40"/>
-    <hyperlink ref="A16" display="testimage.md" r:id="rId41"/>
-    <hyperlink ref="C16" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId42"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId43"/>
-    <hyperlink ref="A18" display=".localization-config" r:id="rId44"/>
-    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId45"/>
-    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId46"/>
-    <hyperlink ref="A21" display="docfx.json" r:id="rId47"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId48"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId49"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId50"/>
+    <hyperlink ref="A9" display="Pong.md" r:id="rId27"/>
+    <hyperlink ref="C9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId29"/>
+    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId31"/>
+    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="A12" display="generate-warning and error.md" r:id="rId33"/>
+    <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A13" display="github.png" r:id="rId35"/>
+    <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId36"/>
+    <hyperlink ref="A14" display="sync.md" r:id="rId37"/>
+    <hyperlink ref="C14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId38"/>
+    <hyperlink ref="A15" display="test1.md" r:id="rId39"/>
+    <hyperlink ref="C15" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId40"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId41"/>
+    <hyperlink ref="C16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId42"/>
+    <hyperlink ref="A17" display="testimage.md" r:id="rId43"/>
+    <hyperlink ref="C17" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId44"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId45"/>
+    <hyperlink ref="A19" display=".localization-config" r:id="rId46"/>
+    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId47"/>
+    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId48"/>
+    <hyperlink ref="A22" display="docfx.json" r:id="rId49"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId50"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId51"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId52"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2126,7 +2191,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2145,31 +2210,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -2180,16 +2245,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -2200,41 +2265,41 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
@@ -2243,18 +2308,18 @@
         <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -2263,18 +2328,18 @@
         <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
@@ -2283,18 +2348,18 @@
         <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
@@ -2303,18 +2368,18 @@
         <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
@@ -2323,121 +2388,121 @@
         <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>109</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
@@ -2446,50 +2511,53 @@
         <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -2497,33 +2565,33 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -2531,16 +2599,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -2548,16 +2616,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -2565,16 +2633,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -2582,16 +2650,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -2599,16 +2667,33 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2617,40 +2702,42 @@
     <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="Ping.md" r:id="rId4"/>
     <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="test-scenario-1.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="test2.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="testworkerrole.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="workerroletest.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="generate-warning and error.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="github.png" r:id="rId20"/>
-    <hyperlink ref="C11" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId21"/>
-    <hyperlink ref="A12" display="sync.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="keep-the-ui-thread-responsive.md" r:id="rId26"/>
-    <hyperlink ref="C14" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="testimage.md" r:id="rId28"/>
-    <hyperlink ref="C15" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="TOC.yml" r:id="rId30"/>
-    <hyperlink ref="C16" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId31"/>
-    <hyperlink ref="A17" display="TOC1.yml" r:id="rId32"/>
-    <hyperlink ref="A18" display=".localization-config" r:id="rId33"/>
-    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId34"/>
-    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId35"/>
-    <hyperlink ref="A21" display="docfx.json" r:id="rId36"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId37"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId38"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId39"/>
+    <hyperlink ref="A4" display="Pong.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="github.png" r:id="rId22"/>
+    <hyperlink ref="C12" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId23"/>
+    <hyperlink ref="A13" display="sync.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="test1.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="keep-the-ui-thread-responsive.md" r:id="rId28"/>
+    <hyperlink ref="C15" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="testimage.md" r:id="rId30"/>
+    <hyperlink ref="C16" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="TOC.yml" r:id="rId32"/>
+    <hyperlink ref="C17" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId33"/>
+    <hyperlink ref="A18" display="TOC1.yml" r:id="rId34"/>
+    <hyperlink ref="A19" display=".localization-config" r:id="rId35"/>
+    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId36"/>
+    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId37"/>
+    <hyperlink ref="A22" display="docfx.json" r:id="rId38"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId39"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId40"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId41"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2661,7 +2748,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2680,31 +2767,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -2715,16 +2802,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -2735,19 +2822,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -2758,16 +2845,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -2778,16 +2865,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -2801,13 +2888,13 @@
         <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -2818,16 +2905,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -2841,38 +2928,38 @@
         <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -2881,13 +2968,13 @@
         <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -2904,10 +2991,10 @@
         <v>119</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -2921,13 +3008,13 @@
         <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -2941,13 +3028,13 @@
         <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -2961,13 +3048,13 @@
         <v>132</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -2978,16 +3065,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -2998,36 +3085,36 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -3035,33 +3122,36 @@
         <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -3069,16 +3159,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -3086,16 +3176,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3103,16 +3193,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -3120,16 +3210,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -3137,16 +3227,33 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3159,37 +3266,39 @@
     <hyperlink ref="C4" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.pl-pl.xlf" r:id="rId7"/>
     <hyperlink ref="A5" display="Ping.md" r:id="rId8"/>
     <hyperlink ref="C5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="sync.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="test-scenario-1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test2.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="testimage.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="testworkerrole.md" r:id="rId26"/>
-    <hyperlink ref="C14" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
-    <hyperlink ref="C15" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
-    <hyperlink ref="A16" display="workerroletest.md" r:id="rId30"/>
-    <hyperlink ref="C16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="TOC1.yml" r:id="rId32"/>
-    <hyperlink ref="C17" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId33"/>
-    <hyperlink ref="A18" display=".localization-config" r:id="rId34"/>
-    <hyperlink ref="A19" display=".openpublishing.build.ps1" r:id="rId35"/>
-    <hyperlink ref="A20" display=".openpublishing.publish.config.json" r:id="rId36"/>
-    <hyperlink ref="A21" display="docfx.json" r:id="rId37"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId38"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId39"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId40"/>
+    <hyperlink ref="A6" display="Pong.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="sync.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test-scenario-1.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="keep-the-ui-thread-responsive.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test2.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="testimage.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="testworkerrole.md" r:id="rId28"/>
+    <hyperlink ref="C15" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="TOC.yml" r:id="rId30"/>
+    <hyperlink ref="C16" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId31"/>
+    <hyperlink ref="A17" display="workerroletest.md" r:id="rId32"/>
+    <hyperlink ref="C17" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="TOC1.yml" r:id="rId34"/>
+    <hyperlink ref="C18" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId35"/>
+    <hyperlink ref="A19" display=".localization-config" r:id="rId36"/>
+    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId37"/>
+    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId38"/>
+    <hyperlink ref="A22" display="docfx.json" r:id="rId39"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId40"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId41"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId42"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>File Name</t>
   </si>
@@ -183,7 +183,7 @@
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-02-25 08:55:44</t>
+    <t>2016-03-11 03:52:21</t>
   </si>
   <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
@@ -267,30 +267,30 @@
     <t>2016-01-06 16:02:21</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 07:29:32</t>
+  </si>
+  <si>
+    <t>2016-03-04 15:48:59</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-02-25 08:55:51</t>
+    <t>2016-03-11 03:53:32</t>
   </si>
   <si>
     <t>2016-02-22 14:58:54</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 07:29:32</t>
-  </si>
-  <si>
-    <t>2016-03-04 15:48:59</t>
-  </si>
-  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
   </si>
   <si>
@@ -318,37 +318,37 @@
     <t>2016-02-24 05:25:27</t>
   </si>
   <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 07:29:43</t>
+  </si>
+  <si>
+    <t>2016-03-04 15:49:17</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2016-02-25 08:55:58</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 07:29:43</t>
-  </si>
-  <si>
-    <t>2016-03-04 15:49:17</t>
+    <t>2016-03-11 03:54:37</t>
   </si>
   <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf</t>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 03:55:35</t>
   </si>
   <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
@@ -652,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>6</v>
@@ -669,10 +672,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>6</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
@@ -1794,16 +1797,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>47</v>
@@ -1811,16 +1808,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>46</v>
@@ -1831,16 +1828,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>46</v>
@@ -1851,27 +1848,30 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="G11" s="0" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -1882,8 +1882,14 @@
       <c r="D12" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G12" s="0" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>47</v>
@@ -1891,25 +1897,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1963,7 +1966,7 @@
         <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>46</v>
@@ -2151,20 +2154,20 @@
     <hyperlink ref="F6" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId20"/>
     <hyperlink ref="A7" display="workerroletest.md" r:id="rId21"/>
     <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId22"/>
-    <hyperlink ref="A8" display="Ping.md" r:id="rId23"/>
-    <hyperlink ref="C8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="E8" display="Ping.md" r:id="rId25"/>
-    <hyperlink ref="F8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A9" display="Pong.md" r:id="rId27"/>
-    <hyperlink ref="C9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId29"/>
-    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId31"/>
-    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A12" display="generate-warning and error.md" r:id="rId33"/>
-    <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A13" display="github.png" r:id="rId35"/>
-    <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId36"/>
+    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId23"/>
+    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId25"/>
+    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="A10" display="generate-warning and error.md" r:id="rId27"/>
+    <hyperlink ref="C10" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A11" display="github.png" r:id="rId29"/>
+    <hyperlink ref="C11" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId30"/>
+    <hyperlink ref="A12" display="Ping.md" r:id="rId31"/>
+    <hyperlink ref="C12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="E12" display="Ping.md" r:id="rId33"/>
+    <hyperlink ref="F12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A13" display="Pong.md" r:id="rId35"/>
+    <hyperlink ref="C13" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId36"/>
     <hyperlink ref="A14" display="sync.md" r:id="rId37"/>
     <hyperlink ref="C14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId38"/>
     <hyperlink ref="A15" display="test1.md" r:id="rId39"/>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
@@ -2268,7 +2271,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>46</v>
@@ -2279,16 +2282,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>46</v>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
@@ -2359,7 +2362,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
@@ -2379,16 +2382,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>46</v>
@@ -2399,36 +2402,39 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>46</v>
@@ -2439,13 +2445,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>110</v>
@@ -2454,10 +2460,7 @@
         <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2514,7 @@
         <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>46</v>
@@ -2551,7 +2554,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>46</v>
@@ -2700,26 +2703,26 @@
   <hyperlinks>
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
     <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="Ping.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="Pong.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="workerroletest.md" r:id="rId18"/>
-    <hyperlink ref="C10" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId20"/>
-    <hyperlink ref="C11" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="github.png" r:id="rId22"/>
-    <hyperlink ref="C12" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId23"/>
+    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="test2.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="workerroletest.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId16"/>
+    <hyperlink ref="C9" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="github.png" r:id="rId18"/>
+    <hyperlink ref="C10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId19"/>
+    <hyperlink ref="A11" display="Ping.md" r:id="rId20"/>
+    <hyperlink ref="C11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="Pong.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="sync.md" r:id="rId24"/>
     <hyperlink ref="C13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId25"/>
     <hyperlink ref="A14" display="test1.md" r:id="rId26"/>
@@ -2868,7 +2871,7 @@
         <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>46</v>
@@ -2888,7 +2891,7 @@
         <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>46</v>
@@ -2905,10 +2908,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>46</v>
@@ -2925,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>119</v>
@@ -2945,10 +2948,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>46</v>
@@ -2965,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>119</v>
@@ -2985,7 +2988,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>119</v>
@@ -3005,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>120</v>
@@ -3025,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>119</v>
@@ -3045,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>119</v>
@@ -3065,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>119</v>
@@ -3105,7 +3108,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>119</v>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -267,6 +267,15 @@
     <t>2016-01-06 16:02:21</t>
   </si>
   <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 03:53:32</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
   </si>
   <si>
@@ -280,15 +289,6 @@
   </si>
   <si>
     <t>2016-03-04 15:48:59</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-11 03:53:32</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
   </si>
   <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
@@ -655,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>6</v>
@@ -672,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>6</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
@@ -1797,10 +1797,16 @@
         <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>47</v>
@@ -1808,16 +1814,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>46</v>
@@ -1828,16 +1834,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>46</v>
@@ -1848,30 +1854,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -1882,14 +1885,8 @@
       <c r="D12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>47</v>
@@ -1897,22 +1894,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -1966,7 +1966,7 @@
         <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>46</v>
@@ -2154,20 +2154,20 @@
     <hyperlink ref="F6" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId20"/>
     <hyperlink ref="A7" display="workerroletest.md" r:id="rId21"/>
     <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId22"/>
-    <hyperlink ref="A8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId23"/>
-    <hyperlink ref="C8" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="A9" display="testworkerrole.md" r:id="rId25"/>
-    <hyperlink ref="C9" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A10" display="generate-warning and error.md" r:id="rId27"/>
-    <hyperlink ref="C10" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A11" display="github.png" r:id="rId29"/>
-    <hyperlink ref="C11" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId30"/>
-    <hyperlink ref="A12" display="Ping.md" r:id="rId31"/>
-    <hyperlink ref="C12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="E12" display="Ping.md" r:id="rId33"/>
-    <hyperlink ref="F12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A13" display="Pong.md" r:id="rId35"/>
-    <hyperlink ref="C13" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId36"/>
+    <hyperlink ref="A8" display="Ping.md" r:id="rId23"/>
+    <hyperlink ref="C8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="E8" display="Ping.md" r:id="rId25"/>
+    <hyperlink ref="F8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="A9" display="Pong.md" r:id="rId27"/>
+    <hyperlink ref="C9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId29"/>
+    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId31"/>
+    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="A12" display="generate-warning and error.md" r:id="rId33"/>
+    <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A13" display="github.png" r:id="rId35"/>
+    <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId36"/>
     <hyperlink ref="A14" display="sync.md" r:id="rId37"/>
     <hyperlink ref="C14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId38"/>
     <hyperlink ref="A15" display="test1.md" r:id="rId39"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>File Name</t>
   </si>
@@ -78,6 +78,9 @@
     <t>testimage.md</t>
   </si>
   <si>
+    <t>testmove.md</t>
+  </si>
+  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
@@ -219,6 +222,12 @@
     <t>2016-03-01 07:36:05</t>
   </si>
   <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 05:12:30</t>
+  </si>
+  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
   </si>
   <si>
@@ -312,6 +321,12 @@
     <t>2016-03-01 07:36:15</t>
   </si>
   <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 05:13:45</t>
+  </si>
+  <si>
     <t>osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf</t>
   </si>
   <si>
@@ -372,6 +387,12 @@
     <t>2016-03-01 07:36:23</t>
   </si>
   <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 05:14:53</t>
+  </si>
+  <si>
     <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf</t>
   </si>
   <si>
@@ -418,6 +439,12 @@
   </si>
   <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 05:15:52</t>
   </si>
   <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
@@ -566,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -808,10 +835,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>6</v>
@@ -825,10 +852,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>6</v>
@@ -842,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>6</v>
@@ -853,13 +880,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>10</v>
@@ -870,16 +897,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>6</v>
@@ -890,33 +917,33 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -924,16 +951,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -941,16 +968,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -958,16 +985,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -975,16 +1002,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -992,16 +1019,33 @@
         <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1018,18 +1062,19 @@
     <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId11"/>
     <hyperlink ref="A12" display="test2.md" r:id="rId12"/>
     <hyperlink ref="A13" display="testimage.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="testworkerrole.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="TOC.yml" r:id="rId15"/>
-    <hyperlink ref="A16" display="workerroletest.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="TOC1.yml" r:id="rId18"/>
-    <hyperlink ref="A19" display=".localization-config" r:id="rId19"/>
-    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId20"/>
-    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId21"/>
-    <hyperlink ref="A22" display="docfx.json" r:id="rId22"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="testmove.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="testworkerrole.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="TOC.yml" r:id="rId16"/>
+    <hyperlink ref="A17" display="workerroletest.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="TOC1.yml" r:id="rId19"/>
+    <hyperlink ref="A20" display=".localization-config" r:id="rId20"/>
+    <hyperlink ref="A21" display=".openpublishing.build.ps1" r:id="rId21"/>
+    <hyperlink ref="A22" display=".openpublishing.publish.config.json" r:id="rId22"/>
+    <hyperlink ref="A23" display="docfx.json" r:id="rId23"/>
+    <hyperlink ref="A24" display="README.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1040,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1059,31 +1104,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1094,16 +1139,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1114,19 +1159,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1137,16 +1182,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -1157,16 +1202,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -1177,16 +1222,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -1197,16 +1242,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1217,16 +1262,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1237,16 +1282,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1257,16 +1302,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1277,16 +1322,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1297,16 +1342,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1317,16 +1362,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1337,16 +1382,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -1357,16 +1402,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -1377,50 +1422,53 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -1428,33 +1476,33 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -1462,16 +1510,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -1479,16 +1527,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1496,16 +1544,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -1513,16 +1561,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -1530,16 +1578,33 @@
         <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1568,21 +1633,23 @@
     <hyperlink ref="C12" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="testimage.md" r:id="rId24"/>
     <hyperlink ref="C13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="testworkerrole.md" r:id="rId26"/>
-    <hyperlink ref="C14" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
-    <hyperlink ref="C15" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
-    <hyperlink ref="A16" display="workerroletest.md" r:id="rId30"/>
-    <hyperlink ref="C16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
-    <hyperlink ref="A18" display="TOC1.yml" r:id="rId33"/>
-    <hyperlink ref="A19" display=".localization-config" r:id="rId34"/>
-    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId35"/>
-    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId36"/>
-    <hyperlink ref="A22" display="docfx.json" r:id="rId37"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId38"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId39"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId40"/>
+    <hyperlink ref="A14" display="testmove.md" r:id="rId26"/>
+    <hyperlink ref="C14" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="testworkerrole.md" r:id="rId28"/>
+    <hyperlink ref="C15" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="TOC.yml" r:id="rId30"/>
+    <hyperlink ref="C16" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId31"/>
+    <hyperlink ref="A17" display="workerroletest.md" r:id="rId32"/>
+    <hyperlink ref="C17" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId34"/>
+    <hyperlink ref="A19" display="TOC1.yml" r:id="rId35"/>
+    <hyperlink ref="A20" display=".localization-config" r:id="rId36"/>
+    <hyperlink ref="A21" display=".openpublishing.build.ps1" r:id="rId37"/>
+    <hyperlink ref="A22" display=".openpublishing.publish.config.json" r:id="rId38"/>
+    <hyperlink ref="A23" display="docfx.json" r:id="rId39"/>
+    <hyperlink ref="A24" display="README.md" r:id="rId40"/>
+    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId41"/>
+    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId42"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1593,7 +1660,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1612,31 +1679,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1647,22 +1714,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1673,22 +1740,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1699,91 +1766,91 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1794,22 +1861,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1820,16 +1887,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1840,36 +1907,36 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1880,16 +1947,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1900,19 +1967,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -1923,16 +1990,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -1943,16 +2010,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -1963,16 +2030,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1983,67 +2050,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -2051,16 +2121,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -2068,16 +2138,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -2085,16 +2155,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -2102,16 +2172,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -2119,16 +2189,33 @@
         <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2176,14 +2263,16 @@
     <hyperlink ref="C16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId42"/>
     <hyperlink ref="A17" display="testimage.md" r:id="rId43"/>
     <hyperlink ref="C17" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId44"/>
-    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId45"/>
-    <hyperlink ref="A19" display=".localization-config" r:id="rId46"/>
-    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId47"/>
-    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId48"/>
-    <hyperlink ref="A22" display="docfx.json" r:id="rId49"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId50"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId51"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId52"/>
+    <hyperlink ref="A18" display="testmove.md" r:id="rId45"/>
+    <hyperlink ref="C18" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId46"/>
+    <hyperlink ref="A19" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId47"/>
+    <hyperlink ref="A20" display=".localization-config" r:id="rId48"/>
+    <hyperlink ref="A21" display=".openpublishing.build.ps1" r:id="rId49"/>
+    <hyperlink ref="A22" display=".openpublishing.publish.config.json" r:id="rId50"/>
+    <hyperlink ref="A23" display="docfx.json" r:id="rId51"/>
+    <hyperlink ref="A24" display="README.md" r:id="rId52"/>
+    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId53"/>
+    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId54"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2194,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2213,31 +2302,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -2248,16 +2337,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2268,36 +2357,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -2308,16 +2397,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -2328,56 +2417,56 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -2388,16 +2477,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -2408,19 +2497,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -2431,16 +2520,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2451,16 +2540,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -2471,16 +2560,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -2491,16 +2580,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -2511,16 +2600,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -2531,53 +2620,56 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2585,33 +2677,33 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -2619,16 +2711,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -2636,16 +2728,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -2653,16 +2745,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -2670,16 +2762,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -2687,16 +2779,33 @@
         <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2731,16 +2840,18 @@
     <hyperlink ref="C15" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.ja-jp.xlf" r:id="rId29"/>
     <hyperlink ref="A16" display="testimage.md" r:id="rId30"/>
     <hyperlink ref="C16" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.ja-jp.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="TOC.yml" r:id="rId32"/>
-    <hyperlink ref="C17" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId33"/>
-    <hyperlink ref="A18" display="TOC1.yml" r:id="rId34"/>
-    <hyperlink ref="A19" display=".localization-config" r:id="rId35"/>
-    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId36"/>
-    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId37"/>
-    <hyperlink ref="A22" display="docfx.json" r:id="rId38"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId39"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId40"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId41"/>
+    <hyperlink ref="A17" display="testmove.md" r:id="rId32"/>
+    <hyperlink ref="C17" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.ja-jp.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="TOC.yml" r:id="rId34"/>
+    <hyperlink ref="C18" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId35"/>
+    <hyperlink ref="A19" display="TOC1.yml" r:id="rId36"/>
+    <hyperlink ref="A20" display=".localization-config" r:id="rId37"/>
+    <hyperlink ref="A21" display=".openpublishing.build.ps1" r:id="rId38"/>
+    <hyperlink ref="A22" display=".openpublishing.publish.config.json" r:id="rId39"/>
+    <hyperlink ref="A23" display="docfx.json" r:id="rId40"/>
+    <hyperlink ref="A24" display="README.md" r:id="rId41"/>
+    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId42"/>
+    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId43"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2751,7 +2862,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2770,31 +2881,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -2805,16 +2916,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -2825,19 +2936,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -2848,16 +2959,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -2868,16 +2979,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -2888,16 +2999,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -2908,16 +3019,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -2928,16 +3039,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -2948,36 +3059,36 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -2988,16 +3099,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -3008,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -3028,16 +3139,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -3048,16 +3159,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -3068,16 +3179,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -3088,16 +3199,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -3108,36 +3219,36 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -3145,33 +3256,36 @@
         <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -3179,16 +3293,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -3196,16 +3310,16 @@
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -3213,16 +3327,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -3230,16 +3344,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -3247,16 +3361,33 @@
         <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3287,21 +3418,23 @@
     <hyperlink ref="C13" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId25"/>
     <hyperlink ref="A14" display="testimage.md" r:id="rId26"/>
     <hyperlink ref="C14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="testworkerrole.md" r:id="rId28"/>
-    <hyperlink ref="C15" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="TOC.yml" r:id="rId30"/>
-    <hyperlink ref="C16" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId31"/>
-    <hyperlink ref="A17" display="workerroletest.md" r:id="rId32"/>
-    <hyperlink ref="C17" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="TOC1.yml" r:id="rId34"/>
-    <hyperlink ref="C18" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId35"/>
-    <hyperlink ref="A19" display=".localization-config" r:id="rId36"/>
-    <hyperlink ref="A20" display=".openpublishing.build.ps1" r:id="rId37"/>
-    <hyperlink ref="A21" display=".openpublishing.publish.config.json" r:id="rId38"/>
-    <hyperlink ref="A22" display="docfx.json" r:id="rId39"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId40"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId41"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId42"/>
+    <hyperlink ref="A15" display="testmove.md" r:id="rId28"/>
+    <hyperlink ref="C15" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="testworkerrole.md" r:id="rId30"/>
+    <hyperlink ref="C16" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="TOC.yml" r:id="rId32"/>
+    <hyperlink ref="C17" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId33"/>
+    <hyperlink ref="A18" display="workerroletest.md" r:id="rId34"/>
+    <hyperlink ref="C18" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="TOC1.yml" r:id="rId36"/>
+    <hyperlink ref="C19" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId37"/>
+    <hyperlink ref="A20" display=".localization-config" r:id="rId38"/>
+    <hyperlink ref="A21" display=".openpublishing.build.ps1" r:id="rId39"/>
+    <hyperlink ref="A22" display=".openpublishing.publish.config.json" r:id="rId40"/>
+    <hyperlink ref="A23" display="docfx.json" r:id="rId41"/>
+    <hyperlink ref="A24" display="README.md" r:id="rId42"/>
+    <hyperlink ref="A25" display="testfirstlevel.md" r:id="rId43"/>
+    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId44"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>File Name</t>
   </si>
@@ -198,6 +198,9 @@
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-03-11 09:11:59</t>
+  </si>
+  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
   </si>
   <si>
@@ -249,61 +252,64 @@
     <t>2015-11-06 07:36:12</t>
   </si>
   <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:47</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:34:31</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:46:49</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:56:39</t>
+  </si>
+  <si>
+    <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:21</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 03:53:32</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 07:29:32</t>
+  </si>
+  <si>
+    <t>2016-03-04 15:48:59</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 03:05:37</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:47</t>
-  </si>
-  <si>
-    <t>2016-02-23 05:34:31</t>
-  </si>
-  <si>
-    <t>2016-03-01 06:46:49</t>
-  </si>
-  <si>
-    <t>2016-03-01 06:56:39</t>
-  </si>
-  <si>
-    <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:21</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-11 03:53:32</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 07:29:32</t>
-  </si>
-  <si>
-    <t>2016-03-04 15:48:59</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 03:05:37</t>
+    <t>2016-03-11 09:13:15</t>
   </si>
   <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
@@ -333,43 +339,46 @@
     <t>2016-02-24 05:25:27</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-03 07:29:43</t>
+  </si>
+  <si>
+    <t>2016-03-04 15:49:17</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 03:54:37</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-04 03:05:53</t>
+  </si>
+  <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-03 07:29:43</t>
-  </si>
-  <si>
-    <t>2016-03-04 15:49:17</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-11 03:54:37</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-04 03:05:53</t>
+    <t>2016-03-11 09:14:29</t>
   </si>
   <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf</t>
@@ -418,6 +427,9 @@
   </si>
   <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-11 09:15:36</t>
   </si>
   <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
@@ -733,10 +745,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>6</v>
@@ -1265,7 +1277,7 @@
         <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>47</v>
@@ -1282,10 +1294,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>47</v>
@@ -1302,10 +1314,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>47</v>
@@ -1322,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -1342,10 +1354,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>47</v>
@@ -1362,10 +1374,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>47</v>
@@ -1382,10 +1394,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>47</v>
@@ -1402,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
@@ -1422,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>50</v>
@@ -1442,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>54</v>
@@ -1468,7 +1480,7 @@
         <v>47</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -1485,7 +1497,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -1502,7 +1514,7 @@
         <v>47</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -1519,7 +1531,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -1536,7 +1548,7 @@
         <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -1553,7 +1565,7 @@
         <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -1570,7 +1582,7 @@
         <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -1587,7 +1599,7 @@
         <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -1604,7 +1616,7 @@
         <v>47</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1714,10 +1726,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1726,7 +1738,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>48</v>
@@ -1734,25 +1746,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>48</v>
@@ -1760,25 +1772,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>48</v>
@@ -1786,68 +1798,68 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>48</v>
@@ -1855,7 +1867,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
@@ -1866,14 +1878,8 @@
       <c r="D8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>48</v>
@@ -1881,16 +1887,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>47</v>
@@ -1901,16 +1907,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>47</v>
@@ -1921,16 +1927,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>47</v>
@@ -1941,62 +1947,68 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>48</v>
@@ -2010,10 +2022,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>47</v>
@@ -2030,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>93</v>
@@ -2050,10 +2062,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>47</v>
@@ -2070,10 +2082,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>47</v>
@@ -2096,7 +2108,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -2113,7 +2125,7 @@
         <v>47</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2142,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -2147,7 +2159,7 @@
         <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -2164,7 +2176,7 @@
         <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -2181,7 +2193,7 @@
         <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2210,7 @@
         <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -2215,7 +2227,7 @@
         <v>47</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2224,39 +2236,39 @@
     <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.zh-cn.xlf" r:id="rId3"/>
     <hyperlink ref="E2" display="osmond-test-1.md" r:id="rId4"/>
     <hyperlink ref="F2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId6"/>
-    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId7"/>
-    <hyperlink ref="E3" display="test-scenario-1.md" r:id="rId8"/>
-    <hyperlink ref="F3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="test2.md" r:id="rId10"/>
-    <hyperlink ref="C4" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId11"/>
-    <hyperlink ref="E4" display="test2.md" r:id="rId12"/>
-    <hyperlink ref="F4" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="TOC.yml" r:id="rId14"/>
-    <hyperlink ref="C5" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId15"/>
-    <hyperlink ref="E5" display="TOC.yml" r:id="rId16"/>
-    <hyperlink ref="F5" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId17"/>
-    <hyperlink ref="A6" display="TOC1.yml" r:id="rId18"/>
-    <hyperlink ref="E6" display="TOC1.yml" r:id="rId19"/>
-    <hyperlink ref="F6" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId20"/>
-    <hyperlink ref="A7" display="workerroletest.md" r:id="rId21"/>
-    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId22"/>
-    <hyperlink ref="A8" display="Ping.md" r:id="rId23"/>
+    <hyperlink ref="A3" display="test2.md" r:id="rId6"/>
+    <hyperlink ref="C3" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="E3" display="test2.md" r:id="rId8"/>
+    <hyperlink ref="F3" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="TOC.yml" r:id="rId10"/>
+    <hyperlink ref="C4" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId11"/>
+    <hyperlink ref="E4" display="TOC.yml" r:id="rId12"/>
+    <hyperlink ref="F4" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId13"/>
+    <hyperlink ref="A5" display="TOC1.yml" r:id="rId14"/>
+    <hyperlink ref="E5" display="TOC1.yml" r:id="rId15"/>
+    <hyperlink ref="F5" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId16"/>
+    <hyperlink ref="A6" display="workerroletest.md" r:id="rId17"/>
+    <hyperlink ref="C6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId18"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId19"/>
+    <hyperlink ref="C7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId20"/>
+    <hyperlink ref="E7" display="Ping.md" r:id="rId21"/>
+    <hyperlink ref="F7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId22"/>
+    <hyperlink ref="A8" display="Pong.md" r:id="rId23"/>
     <hyperlink ref="C8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="E8" display="Ping.md" r:id="rId25"/>
-    <hyperlink ref="F8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A9" display="Pong.md" r:id="rId27"/>
-    <hyperlink ref="C9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId29"/>
-    <hyperlink ref="C10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A11" display="testworkerrole.md" r:id="rId31"/>
-    <hyperlink ref="C11" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A12" display="generate-warning and error.md" r:id="rId33"/>
-    <hyperlink ref="C12" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A13" display="github.png" r:id="rId35"/>
-    <hyperlink ref="C13" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId36"/>
-    <hyperlink ref="A14" display="sync.md" r:id="rId37"/>
-    <hyperlink ref="C14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId38"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId25"/>
+    <hyperlink ref="C9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="A10" display="testworkerrole.md" r:id="rId27"/>
+    <hyperlink ref="C10" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A11" display="generate-warning and error.md" r:id="rId29"/>
+    <hyperlink ref="C11" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A12" display="github.png" r:id="rId31"/>
+    <hyperlink ref="C12" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId32"/>
+    <hyperlink ref="A13" display="sync.md" r:id="rId33"/>
+    <hyperlink ref="C13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A14" display="test-scenario-1.md" r:id="rId35"/>
+    <hyperlink ref="C14" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId36"/>
+    <hyperlink ref="E14" display="test-scenario-1.md" r:id="rId37"/>
+    <hyperlink ref="F14" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId38"/>
     <hyperlink ref="A15" display="test1.md" r:id="rId39"/>
     <hyperlink ref="C15" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId40"/>
     <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId41"/>
@@ -2337,10 +2349,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>47</v>
@@ -2351,16 +2363,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>47</v>
@@ -2371,16 +2383,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>47</v>
@@ -2391,16 +2403,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>47</v>
@@ -2411,16 +2423,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>47</v>
@@ -2431,16 +2443,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>47</v>
@@ -2451,16 +2463,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>47</v>
@@ -2471,59 +2483,59 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>47</v>
@@ -2534,16 +2546,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>47</v>
@@ -2554,16 +2566,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>47</v>
@@ -2580,10 +2592,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>47</v>
@@ -2600,10 +2612,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>47</v>
@@ -2620,10 +2632,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>47</v>
@@ -2640,10 +2652,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>47</v>
@@ -2660,10 +2672,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>47</v>
@@ -2686,7 +2698,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -2703,7 +2715,7 @@
         <v>47</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -2720,7 +2732,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -2737,7 +2749,7 @@
         <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -2754,7 +2766,7 @@
         <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -2771,7 +2783,7 @@
         <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -2788,7 +2800,7 @@
         <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -2805,35 +2817,35 @@
         <v>47</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="osmond-test-1.md" r:id="rId2"/>
     <hyperlink ref="C2" display="osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.ja-jp.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="test-scenario-1.md" r:id="rId4"/>
-    <hyperlink ref="C3" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId6"/>
-    <hyperlink ref="C4" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId8"/>
-    <hyperlink ref="C5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="test2.md" r:id="rId10"/>
-    <hyperlink ref="C6" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId12"/>
-    <hyperlink ref="C7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="workerroletest.md" r:id="rId14"/>
-    <hyperlink ref="C8" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId16"/>
-    <hyperlink ref="C9" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="github.png" r:id="rId18"/>
-    <hyperlink ref="C10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId19"/>
-    <hyperlink ref="A11" display="Ping.md" r:id="rId20"/>
+    <hyperlink ref="A3" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId4"/>
+    <hyperlink ref="C3" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.ja-jp.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId6"/>
+    <hyperlink ref="C4" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.ja-jp.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="test2.md" r:id="rId8"/>
+    <hyperlink ref="C5" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.ja-jp.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId10"/>
+    <hyperlink ref="C6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.ja-jp.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="workerroletest.md" r:id="rId12"/>
+    <hyperlink ref="C7" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.ja-jp.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId14"/>
+    <hyperlink ref="C8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.ja-jp.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="github.png" r:id="rId16"/>
+    <hyperlink ref="C9" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId17"/>
+    <hyperlink ref="A10" display="Ping.md" r:id="rId18"/>
+    <hyperlink ref="C10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="Pong.md" r:id="rId20"/>
     <hyperlink ref="C11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="Pong.md" r:id="rId22"/>
-    <hyperlink ref="C12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.ja-jp.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="sync.md" r:id="rId24"/>
-    <hyperlink ref="C13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId25"/>
+    <hyperlink ref="A12" display="sync.md" r:id="rId22"/>
+    <hyperlink ref="C12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.ja-jp.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId24"/>
+    <hyperlink ref="C13" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.ja-jp.xlf" r:id="rId25"/>
     <hyperlink ref="A14" display="test1.md" r:id="rId26"/>
     <hyperlink ref="C14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.ja-jp.xlf" r:id="rId27"/>
     <hyperlink ref="A15" display="keep-the-ui-thread-responsive.md" r:id="rId28"/>
@@ -2916,10 +2928,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>47</v>
@@ -2939,7 +2951,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>47</v>
@@ -2959,10 +2971,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>47</v>
@@ -2979,10 +2991,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>47</v>
@@ -2999,10 +3011,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>47</v>
@@ -3019,10 +3031,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>47</v>
@@ -3039,10 +3051,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>47</v>
@@ -3059,10 +3071,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>47</v>
@@ -3079,10 +3091,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>47</v>
@@ -3099,10 +3111,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>47</v>
@@ -3119,10 +3131,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>47</v>
@@ -3139,10 +3151,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>47</v>
@@ -3159,10 +3171,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>47</v>
@@ -3179,10 +3191,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>47</v>
@@ -3199,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>47</v>
@@ -3219,10 +3231,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>47</v>
@@ -3239,10 +3251,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>47</v>
@@ -3262,7 +3274,7 @@
         <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>47</v>
@@ -3285,7 +3297,7 @@
         <v>47</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -3302,7 +3314,7 @@
         <v>47</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -3319,7 +3331,7 @@
         <v>47</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -3336,7 +3348,7 @@
         <v>47</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -3353,7 +3365,7 @@
         <v>47</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -3370,7 +3382,7 @@
         <v>47</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -3387,7 +3399,7 @@
         <v>47</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -274,6 +274,12 @@
     <t>2016-03-11 03:52:21</t>
   </si>
   <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-01 07:36:05</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
   </si>
   <si>
@@ -302,12 +308,6 @@
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-01 07:36:05</t>
   </si>
   <si>
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf</t>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -1369,13 +1369,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>86</v>
@@ -1392,56 +1392,56 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>58</v>
@@ -1450,10 +1450,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>58</v>
@@ -1473,7 +1473,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>92</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>58</v>
@@ -1499,7 +1499,7 @@
         <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>58</v>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>58</v>
@@ -1542,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>58</v>
@@ -1565,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
@@ -1721,24 +1721,24 @@
     <hyperlink ref="D2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="Pong.md" r:id="rId4"/>
     <hyperlink ref="D3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="github.png" r:id="rId8"/>
-    <hyperlink ref="D5" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="sync.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="test-scenario-1.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test2.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="testimage.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A4" display="testimage.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="github.png" r:id="rId10"/>
+    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId11"/>
+    <hyperlink ref="A7" display="sync.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test-scenario-1.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test2.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="testmove.md" r:id="rId24"/>
     <hyperlink ref="D13" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId25"/>
     <hyperlink ref="A14" display="testworkerrole.md" r:id="rId26"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -274,6 +274,9 @@
     <t>2016-03-11 03:52:21</t>
   </si>
   <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
+  </si>
+  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
   </si>
   <si>
@@ -302,9 +305,6 @@
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
   </si>
   <si>
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
@@ -633,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>58</v>
@@ -1381,7 +1381,7 @@
         <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
@@ -1392,19 +1392,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1415,56 +1415,56 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>58</v>
@@ -1473,7 +1473,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>92</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>58</v>
@@ -1496,10 +1496,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>58</v>
@@ -1519,10 +1519,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>58</v>
@@ -1721,22 +1721,22 @@
     <hyperlink ref="D2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId3"/>
     <hyperlink ref="A3" display="Pong.md" r:id="rId4"/>
     <hyperlink ref="D3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="testimage.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="github.png" r:id="rId10"/>
-    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId11"/>
-    <hyperlink ref="A7" display="sync.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test-scenario-1.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="test1.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="keep-the-ui-thread-responsive.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A4" display="keep-the-ui-thread-responsive.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="testimage.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="github.png" r:id="rId12"/>
+    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
+    <hyperlink ref="A8" display="sync.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test1.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A12" display="test2.md" r:id="rId22"/>
     <hyperlink ref="D12" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A13" display="testmove.md" r:id="rId24"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>File Name</t>
   </si>
@@ -97,12 +97,6 @@
     <t>2016-03-04 03:05:37</t>
   </si>
   <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>2016-03-11 09:13:15</t>
-  </si>
-  <si>
     <t>test1.md</t>
   </si>
   <si>
@@ -235,15 +229,6 @@
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
   </si>
   <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:36:12</t>
-  </si>
-  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
   </si>
   <si>
@@ -293,9 +278,6 @@
   </si>
   <si>
     <t>2016-03-04 03:05:20</t>
-  </si>
-  <si>
-    <t>2016-03-11 09:11:59</t>
   </si>
   <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
@@ -431,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,21 +601,21 @@
         <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -641,16 +623,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -661,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -672,26 +654,12 @@
         <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -707,13 +675,12 @@
     <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId9"/>
     <hyperlink ref="A10" display="github.png" r:id="rId10"/>
     <hyperlink ref="A11" display="sync.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="test-scenario-1.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="keep-the-ui-thread-responsive.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="test2.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="testimage.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="testmove.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId18"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="keep-the-ui-thread-responsive.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="test2.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="testimage.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="testmove.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -724,7 +691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -746,40 +713,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -787,28 +754,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="J2" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -828,16 +795,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -845,25 +812,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -871,13 +838,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -886,13 +853,13 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -900,13 +867,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
@@ -915,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -923,22 +890,22 @@
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -946,22 +913,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -969,13 +936,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -984,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -992,13 +959,13 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
@@ -1007,10 +974,10 @@
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1018,13 +985,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1033,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -1041,28 +1008,22 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1070,74 +1031,74 @@
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -1145,13 +1106,13 @@
         <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -1160,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -1168,16 +1129,13 @@
         <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
@@ -1185,28 +1143,8 @@
       <c r="J17" s="0" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>83</v>
+      <c r="L17" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1236,23 +1174,19 @@
     <hyperlink ref="D10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId24"/>
     <hyperlink ref="A11" display="sync.md" r:id="rId25"/>
     <hyperlink ref="D11" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A12" display="test-scenario-1.md" r:id="rId27"/>
-    <hyperlink ref="D12" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="F12" display="test-scenario-1.md" r:id="rId29"/>
-    <hyperlink ref="G12" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId30"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId31"/>
-    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A14" display="keep-the-ui-thread-responsive.md" r:id="rId33"/>
-    <hyperlink ref="D14" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A15" display="test2.md" r:id="rId35"/>
-    <hyperlink ref="D15" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId36"/>
-    <hyperlink ref="F15" display="test2.md" r:id="rId37"/>
-    <hyperlink ref="G15" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId38"/>
-    <hyperlink ref="A16" display="testimage.md" r:id="rId39"/>
-    <hyperlink ref="D16" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId40"/>
-    <hyperlink ref="A17" display="testmove.md" r:id="rId41"/>
-    <hyperlink ref="D17" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId42"/>
-    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId43"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId27"/>
+    <hyperlink ref="D12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A13" display="keep-the-ui-thread-responsive.md" r:id="rId29"/>
+    <hyperlink ref="D13" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A14" display="test2.md" r:id="rId31"/>
+    <hyperlink ref="D14" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="F14" display="test2.md" r:id="rId33"/>
+    <hyperlink ref="G14" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A15" display="testimage.md" r:id="rId35"/>
+    <hyperlink ref="D15" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId36"/>
+    <hyperlink ref="A16" display="testmove.md" r:id="rId37"/>
+    <hyperlink ref="D16" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId38"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId39"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1263,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1285,40 +1219,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1326,22 +1260,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1349,36 +1283,36 @@
         <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1387,30 +1321,30 @@
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -1418,22 +1352,22 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1441,13 +1375,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1456,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1467,22 +1401,22 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1490,59 +1424,59 @@
         <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -1551,116 +1485,113 @@
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
@@ -1668,13 +1599,16 @@
       <c r="J16" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="L16" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>9</v>
@@ -1686,33 +1620,10 @@
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1731,24 +1642,22 @@
     <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
     <hyperlink ref="A8" display="sync.md" r:id="rId14"/>
     <hyperlink ref="D8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test1.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test2.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="testmove.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="testworkerrole.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="TOC.yml" r:id="rId28"/>
-    <hyperlink ref="D15" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId29"/>
-    <hyperlink ref="A16" display="workerroletest.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
-    <hyperlink ref="A18" display="TOC1.yml" r:id="rId33"/>
+    <hyperlink ref="A9" display="test1.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="testmove.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
+    <hyperlink ref="D14" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId27"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId30"/>
+    <hyperlink ref="A17" display="TOC1.yml" r:id="rId31"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>File Name</t>
   </si>
@@ -58,7 +58,7 @@
     <t>2016-01-06 16:02:42</t>
   </si>
   <si>
-    <t>Ping.md</t>
+    <t>Pong.md</t>
   </si>
   <si>
     <t>In Translation</t>
@@ -67,9 +67,6 @@
     <t>2016-03-11 03:53:32</t>
   </si>
   <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
@@ -413,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,15 +497,15 @@
         <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>15</v>
@@ -520,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -528,18 +522,18 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -548,12 +542,12 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -562,12 +556,12 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -576,21 +570,21 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -601,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -615,51 +609,37 @@
         <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -668,19 +648,18 @@
     <hyperlink ref="A2" display="TOC.yml" r:id="rId2"/>
     <hyperlink ref="A3" display="TOC1.yml" r:id="rId3"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="Ping.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="Pong.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="testworkerrole.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="github.png" r:id="rId10"/>
-    <hyperlink ref="A11" display="sync.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="keep-the-ui-thread-responsive.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="test2.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="testimage.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="testmove.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId17"/>
+    <hyperlink ref="A5" display="Pong.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="github.png" r:id="rId9"/>
+    <hyperlink ref="A10" display="sync.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="test1.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="keep-the-ui-thread-responsive.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="test2.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="testimage.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="testmove.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -691,7 +670,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -713,40 +692,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -754,28 +733,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -795,16 +774,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -812,25 +791,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -838,28 +817,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -867,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
@@ -876,21 +849,21 @@
         <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
@@ -899,13 +872,13 @@
         <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -913,30 +886,30 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
@@ -945,85 +918,85 @@
         <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -1031,7 +1004,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
@@ -1040,13 +1013,19 @@
         <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -1054,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
@@ -1063,88 +1042,59 @@
         <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1158,35 +1108,31 @@
     <hyperlink ref="G3" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId8"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId9"/>
     <hyperlink ref="D4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId10"/>
-    <hyperlink ref="A5" display="Ping.md" r:id="rId11"/>
+    <hyperlink ref="A5" display="Pong.md" r:id="rId11"/>
     <hyperlink ref="D5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId12"/>
-    <hyperlink ref="F5" display="Ping.md" r:id="rId13"/>
-    <hyperlink ref="G5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId14"/>
-    <hyperlink ref="A6" display="Pong.md" r:id="rId15"/>
-    <hyperlink ref="D6" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId16"/>
-    <hyperlink ref="A7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId17"/>
-    <hyperlink ref="D7" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId18"/>
-    <hyperlink ref="A8" display="testworkerrole.md" r:id="rId19"/>
-    <hyperlink ref="D8" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId20"/>
-    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId21"/>
-    <hyperlink ref="D9" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId22"/>
-    <hyperlink ref="A10" display="github.png" r:id="rId23"/>
-    <hyperlink ref="D10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId24"/>
-    <hyperlink ref="A11" display="sync.md" r:id="rId25"/>
-    <hyperlink ref="D11" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId27"/>
-    <hyperlink ref="D12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A13" display="keep-the-ui-thread-responsive.md" r:id="rId29"/>
-    <hyperlink ref="D13" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A14" display="test2.md" r:id="rId31"/>
-    <hyperlink ref="D14" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="F14" display="test2.md" r:id="rId33"/>
-    <hyperlink ref="G14" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A15" display="testimage.md" r:id="rId35"/>
-    <hyperlink ref="D15" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId36"/>
-    <hyperlink ref="A16" display="testmove.md" r:id="rId37"/>
-    <hyperlink ref="D16" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId38"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId39"/>
+    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId13"/>
+    <hyperlink ref="D6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId14"/>
+    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId15"/>
+    <hyperlink ref="D7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId16"/>
+    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId17"/>
+    <hyperlink ref="D8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId18"/>
+    <hyperlink ref="A9" display="github.png" r:id="rId19"/>
+    <hyperlink ref="D9" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId20"/>
+    <hyperlink ref="A10" display="sync.md" r:id="rId21"/>
+    <hyperlink ref="D10" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId22"/>
+    <hyperlink ref="A11" display="test1.md" r:id="rId23"/>
+    <hyperlink ref="D11" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="A12" display="keep-the-ui-thread-responsive.md" r:id="rId25"/>
+    <hyperlink ref="D12" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="A13" display="test2.md" r:id="rId27"/>
+    <hyperlink ref="D13" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="F13" display="test2.md" r:id="rId29"/>
+    <hyperlink ref="G13" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A14" display="testimage.md" r:id="rId31"/>
+    <hyperlink ref="D14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="A15" display="testmove.md" r:id="rId33"/>
+    <hyperlink ref="D15" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId35"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1197,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1219,40 +1165,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1260,30 +1206,30 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
@@ -1292,47 +1238,47 @@
         <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>82</v>
@@ -1344,64 +1290,64 @@
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
@@ -1416,15 +1362,15 @@
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
@@ -1433,67 +1379,67 @@
         <v>88</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
@@ -1502,90 +1448,90 @@
         <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>9</v>
@@ -1597,67 +1543,42 @@
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="Ping.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="Pong.md" r:id="rId2"/>
     <hyperlink ref="D2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="Pong.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="keep-the-ui-thread-responsive.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="testimage.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="github.png" r:id="rId12"/>
-    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
-    <hyperlink ref="A8" display="sync.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="test1.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test2.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="testmove.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="testworkerrole.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
-    <hyperlink ref="D14" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId27"/>
-    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId30"/>
-    <hyperlink ref="A17" display="TOC1.yml" r:id="rId31"/>
+    <hyperlink ref="A3" display="keep-the-ui-thread-responsive.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="testimage.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="github.png" r:id="rId10"/>
+    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId11"/>
+    <hyperlink ref="A7" display="sync.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="testmove.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="testworkerrole.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="TOC.yml" r:id="rId24"/>
+    <hyperlink ref="D13" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId25"/>
+    <hyperlink ref="A14" display="workerroletest.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
+    <hyperlink ref="A16" display="TOC1.yml" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>File Name</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>2016-01-06 16:02:42</t>
+    <t>2016-03-30 05:39:21</t>
   </si>
   <si>
     <t>Pong.md</t>
@@ -76,30 +76,30 @@
     <t>testworkerrole.md</t>
   </si>
   <si>
+    <t>a1111.md</t>
+  </si>
+  <si>
     <t>generate-warning and error.md</t>
   </si>
   <si>
-    <t>2016-03-03 07:29:32</t>
-  </si>
-  <si>
     <t>github.png</t>
   </si>
   <si>
-    <t>2016-03-04 15:48:59</t>
+    <t>Ping.md</t>
   </si>
   <si>
     <t>sync.md</t>
   </si>
   <si>
-    <t>2016-03-04 03:05:37</t>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test1-aaa.md</t>
   </si>
   <si>
     <t>test1.md</t>
   </si>
   <si>
-    <t>2016-03-08 09:26:37</t>
-  </si>
-  <si>
     <t>keep-the-ui-thread-responsive.md</t>
   </si>
   <si>
@@ -109,13 +109,19 @@
     <t>testimage.md</t>
   </si>
   <si>
-    <t>2016-03-01 07:36:15</t>
+    <t>2016-03-30 05:39:13</t>
   </si>
   <si>
     <t>testmove.md</t>
   </si>
   <si>
-    <t>2016-03-11 05:13:45</t>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.md</t>
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
@@ -205,6 +211,9 @@
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
   </si>
   <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
@@ -220,9 +229,24 @@
     <t>e2e\testimage.md</t>
   </si>
   <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
   </si>
   <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-06 07:36:12</t>
+  </si>
+  <si>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
   </si>
   <si>
@@ -244,6 +268,15 @@
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf</t>
   </si>
   <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>e2e\test1\test1.md file with commit id 01f2fddae1e18474afcc560659a69389b391670c can not be found</t>
   </si>
   <si>
@@ -262,24 +295,21 @@
     <t>2016-03-01 07:36:05</t>
   </si>
   <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-03 07:29:18</t>
-  </si>
-  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-04 03:05:20</t>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf</t>
   </si>
   <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-08 09:26:11</t>
-  </si>
-  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
   </si>
   <si>
@@ -289,13 +319,19 @@
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 05:12:30</t>
-  </si>
-  <si>
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
   </si>
   <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -407,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,12 +564,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -542,12 +578,12 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -556,12 +592,12 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -570,26 +606,26 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -598,26 +634,26 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
@@ -626,20 +662,118 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -651,15 +785,22 @@
     <hyperlink ref="A5" display="Pong.md" r:id="rId5"/>
     <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId6"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="github.png" r:id="rId9"/>
-    <hyperlink ref="A10" display="sync.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="test1.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="keep-the-ui-thread-responsive.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="test2.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="testimage.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="testmove.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId16"/>
+    <hyperlink ref="A8" display="a1111.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="github.png" r:id="rId10"/>
+    <hyperlink ref="A11" display="Ping.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="sync.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="test1-aaa.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="test1.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="testimage.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="testmove.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="README.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="testfirstlevel.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="testfirstlevel2.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId23"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -670,7 +811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -692,40 +833,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -733,28 +874,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -774,16 +915,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="J3" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -791,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -817,13 +958,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
@@ -832,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -840,22 +981,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -863,22 +1004,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -886,56 +1027,53 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
@@ -944,102 +1082,111 @@
         <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -1048,53 +1195,220 @@
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>76</v>
+      <c r="L23" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1114,25 +1428,43 @@
     <hyperlink ref="D6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId14"/>
     <hyperlink ref="A7" display="testworkerrole.md" r:id="rId15"/>
     <hyperlink ref="D7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId16"/>
-    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId17"/>
-    <hyperlink ref="D8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId18"/>
-    <hyperlink ref="A9" display="github.png" r:id="rId19"/>
-    <hyperlink ref="D9" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId20"/>
-    <hyperlink ref="A10" display="sync.md" r:id="rId21"/>
-    <hyperlink ref="D10" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId22"/>
-    <hyperlink ref="A11" display="test1.md" r:id="rId23"/>
-    <hyperlink ref="D11" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="A12" display="keep-the-ui-thread-responsive.md" r:id="rId25"/>
-    <hyperlink ref="D12" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A13" display="test2.md" r:id="rId27"/>
-    <hyperlink ref="D13" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="F13" display="test2.md" r:id="rId29"/>
-    <hyperlink ref="G13" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A14" display="testimage.md" r:id="rId31"/>
-    <hyperlink ref="D14" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A15" display="testmove.md" r:id="rId33"/>
-    <hyperlink ref="D15" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId35"/>
+    <hyperlink ref="A8" display="a1111.md" r:id="rId17"/>
+    <hyperlink ref="D8" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId18"/>
+    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId19"/>
+    <hyperlink ref="D9" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId20"/>
+    <hyperlink ref="A10" display="github.png" r:id="rId21"/>
+    <hyperlink ref="D10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId22"/>
+    <hyperlink ref="A11" display="Ping.md" r:id="rId23"/>
+    <hyperlink ref="D11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="F11" display="Ping.md" r:id="rId25"/>
+    <hyperlink ref="G11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="A12" display="sync.md" r:id="rId27"/>
+    <hyperlink ref="D12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId29"/>
+    <hyperlink ref="D13" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="F13" display="test-scenario-1.md" r:id="rId31"/>
+    <hyperlink ref="G13" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId32"/>
+    <hyperlink ref="A14" display="test1-aaa.md" r:id="rId33"/>
+    <hyperlink ref="D14" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="A15" display="test1.md" r:id="rId35"/>
+    <hyperlink ref="D15" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId36"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId37"/>
+    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId38"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId39"/>
+    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId40"/>
+    <hyperlink ref="F17" display="test2.md" r:id="rId41"/>
+    <hyperlink ref="G17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId42"/>
+    <hyperlink ref="A18" display="testimage.md" r:id="rId43"/>
+    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId44"/>
+    <hyperlink ref="A19" display="testmove.md" r:id="rId45"/>
+    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId46"/>
+    <hyperlink ref="A20" display="README.md" r:id="rId47"/>
+    <hyperlink ref="D20" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId48"/>
+    <hyperlink ref="A21" display="testfirstlevel.md" r:id="rId49"/>
+    <hyperlink ref="D21" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId50"/>
+    <hyperlink ref="A22" display="testfirstlevel2.md" r:id="rId51"/>
+    <hyperlink ref="D22" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId52"/>
+    <hyperlink ref="A23" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId53"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1143,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1165,40 +1497,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -1206,22 +1538,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1229,13 +1561,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1244,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1252,22 +1584,22 @@
         <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -1275,177 +1607,177 @@
         <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -1454,44 +1786,44 @@
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1500,53 +1832,214 @@
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>54</v>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1557,28 +2050,42 @@
     <hyperlink ref="D3" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A4" display="testimage.md" r:id="rId6"/>
     <hyperlink ref="D4" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="github.png" r:id="rId10"/>
-    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId11"/>
-    <hyperlink ref="A7" display="sync.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="test1.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test2.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="testmove.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="testworkerrole.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="TOC.yml" r:id="rId24"/>
-    <hyperlink ref="D13" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId25"/>
-    <hyperlink ref="A14" display="workerroletest.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
-    <hyperlink ref="A16" display="TOC1.yml" r:id="rId29"/>
+    <hyperlink ref="A5" display="a1111.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="github.png" r:id="rId12"/>
+    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
+    <hyperlink ref="A8" display="Ping.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="test2.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="testmove.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="testworkerrole.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="TOC.yml" r:id="rId32"/>
+    <hyperlink ref="D17" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId33"/>
+    <hyperlink ref="A18" display="workerroletest.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="README.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="testfirstlevel.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="testfirstlevel2.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId42"/>
+    <hyperlink ref="A23" display="TOC1.yml" r:id="rId43"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>File Name</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-03-04 15:48:39</t>
+    <t>2016-04-01 07:28:09</t>
   </si>
   <si>
     <t>TOC1.yml</t>
@@ -58,36 +58,33 @@
     <t>2016-03-30 05:39:21</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-03-29 06:17:26</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
+    <t>a1111.md</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
     <t>Pong.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-03-11 03:53:32</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>2016-03-29 06:17:26</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>a1111.md</t>
-  </si>
-  <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
     <t>sync.md</t>
   </si>
   <si>
@@ -199,39 +196,42 @@
     <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
   </si>
   <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:47</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:47</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
     <t>2016-02-22 14:58:54</t>
   </si>
   <si>
+    <t>2016-04-01 07:28:00</t>
+  </si>
+  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
   </si>
   <si>
@@ -280,27 +280,24 @@
     <t>e2e\test1\test1.md file with commit id 01f2fddae1e18474afcc560659a69389b391670c can not be found</t>
   </si>
   <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-01 07:36:05</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-11 03:52:21</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-01 07:36:05</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
-  </si>
-  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
   </si>
   <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf</t>
+  </si>
+  <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
   <si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf</t>
+  </si>
+  <si>
+    <t>toc.yml file with commit id 428973b76b259a803a23257dc5eda2007a915f43 can not be found</t>
   </si>
 </sst>
 </file>
@@ -388,8 +391,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:M1" headerRowCount="0">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L23" headerRowCount="1">
+  <autoFilter ref="A1:L23"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
     <tableColumn id="3" name="Status"/>
@@ -402,15 +406,15 @@
     <tableColumn id="10" name="Handoff Reason"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
-    <tableColumn id="13" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:M1" headerRowCount="0">
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:L23" headerRowCount="1">
+  <autoFilter ref="A1:L23"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
     <tableColumn id="3" name="Status"/>
@@ -423,14 +427,14 @@
     <tableColumn id="10" name="Handoff Reason"/>
     <tableColumn id="11" name="Dependency From"/>
     <tableColumn id="12" name="Error Detail"/>
-    <tableColumn id="13" name="Column13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D23" headerRowCount="1">
+  <autoFilter ref="A1:D23"/>
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
@@ -519,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -536,15 +540,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
@@ -555,7 +559,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -569,7 +573,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -583,7 +587,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -597,7 +601,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -606,12 +610,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -625,7 +629,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -639,7 +643,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -653,7 +657,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
@@ -667,7 +671,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
@@ -676,12 +680,12 @@
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
@@ -695,7 +699,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
@@ -704,12 +708,12 @@
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -723,7 +727,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>6</v>
@@ -737,7 +741,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>6</v>
@@ -751,7 +755,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>6</v>
@@ -765,7 +769,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>9</v>
@@ -782,13 +786,13 @@
     <hyperlink ref="A2" display="TOC.yml" r:id="rId2"/>
     <hyperlink ref="A3" display="TOC1.yml" r:id="rId3"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="Pong.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="a1111.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="github.png" r:id="rId10"/>
-    <hyperlink ref="A11" display="Ping.md" r:id="rId11"/>
+    <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="a1111.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="github.png" r:id="rId9"/>
+    <hyperlink ref="A10" display="Ping.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="Pong.md" r:id="rId11"/>
     <hyperlink ref="A12" display="sync.md" r:id="rId12"/>
     <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId13"/>
     <hyperlink ref="A14" display="test1-aaa.md" r:id="rId14"/>
@@ -833,40 +837,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -874,28 +878,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -903,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -915,16 +919,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -932,25 +936,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -958,22 +962,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
@@ -990,67 +994,67 @@
         <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
@@ -1059,76 +1063,76 @@
         <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
@@ -1137,21 +1141,21 @@
         <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
@@ -1160,10 +1164,10 @@
         <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>74</v>
@@ -1172,15 +1176,15 @@
         <v>75</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
@@ -1189,21 +1193,21 @@
         <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
@@ -1212,21 +1216,21 @@
         <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
@@ -1241,15 +1245,15 @@
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
@@ -1258,10 +1262,10 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>80</v>
@@ -1270,15 +1274,15 @@
         <v>81</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
@@ -1287,21 +1291,21 @@
         <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
@@ -1310,21 +1314,21 @@
         <v>83</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
@@ -1333,21 +1337,21 @@
         <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
@@ -1356,21 +1360,21 @@
         <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
@@ -1379,21 +1383,21 @@
         <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>9</v>
@@ -1405,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>87</v>
@@ -1422,22 +1426,22 @@
     <hyperlink ref="G3" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId8"/>
     <hyperlink ref="A4" display="workerroletest.md" r:id="rId9"/>
     <hyperlink ref="D4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId10"/>
-    <hyperlink ref="A5" display="Pong.md" r:id="rId11"/>
-    <hyperlink ref="D5" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId12"/>
-    <hyperlink ref="A6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId13"/>
-    <hyperlink ref="D6" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId14"/>
-    <hyperlink ref="A7" display="testworkerrole.md" r:id="rId15"/>
-    <hyperlink ref="D7" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId16"/>
-    <hyperlink ref="A8" display="a1111.md" r:id="rId17"/>
-    <hyperlink ref="D8" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId18"/>
-    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId19"/>
-    <hyperlink ref="D9" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId20"/>
-    <hyperlink ref="A10" display="github.png" r:id="rId21"/>
-    <hyperlink ref="D10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId22"/>
-    <hyperlink ref="A11" display="Ping.md" r:id="rId23"/>
-    <hyperlink ref="D11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="F11" display="Ping.md" r:id="rId25"/>
-    <hyperlink ref="G11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId11"/>
+    <hyperlink ref="D5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId12"/>
+    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId13"/>
+    <hyperlink ref="D6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId14"/>
+    <hyperlink ref="A7" display="a1111.md" r:id="rId15"/>
+    <hyperlink ref="D7" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId16"/>
+    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId17"/>
+    <hyperlink ref="D8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId18"/>
+    <hyperlink ref="A9" display="github.png" r:id="rId19"/>
+    <hyperlink ref="D9" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId20"/>
+    <hyperlink ref="A10" display="Ping.md" r:id="rId21"/>
+    <hyperlink ref="D10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId22"/>
+    <hyperlink ref="F10" display="Ping.md" r:id="rId23"/>
+    <hyperlink ref="G10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="A11" display="Pong.md" r:id="rId25"/>
+    <hyperlink ref="D11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
     <hyperlink ref="A12" display="sync.md" r:id="rId27"/>
     <hyperlink ref="D12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId28"/>
     <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId29"/>
@@ -1497,48 +1501,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
@@ -1547,73 +1551,73 @@
         <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
@@ -1622,21 +1626,21 @@
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -1645,21 +1649,24 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1668,47 +1675,44 @@
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -1717,15 +1721,15 @@
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
@@ -1740,21 +1744,21 @@
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1763,21 +1767,21 @@
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -1786,44 +1790,44 @@
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1832,21 +1836,21 @@
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -1855,21 +1859,21 @@
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -1878,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -1886,13 +1890,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -1901,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1909,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
@@ -1924,15 +1928,15 @@
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
@@ -1947,15 +1951,15 @@
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
@@ -1970,15 +1974,15 @@
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
@@ -1993,15 +1997,15 @@
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>9</v>
@@ -2013,7 +2017,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>87</v>
@@ -2024,7 +2028,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>9</v>
@@ -2036,27 +2040,27 @@
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="Pong.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="keep-the-ui-thread-responsive.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="testimage.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="a1111.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="github.png" r:id="rId12"/>
-    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
-    <hyperlink ref="A8" display="Ping.md" r:id="rId14"/>
+    <hyperlink ref="A2" display="keep-the-ui-thread-responsive.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="testimage.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="a1111.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="github.png" r:id="rId10"/>
+    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId11"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Pong.md" r:id="rId14"/>
     <hyperlink ref="D8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId15"/>
     <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
     <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId17"/>
@@ -2075,7 +2079,7 @@
     <hyperlink ref="A16" display="testworkerrole.md" r:id="rId30"/>
     <hyperlink ref="D16" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId31"/>
     <hyperlink ref="A17" display="TOC.yml" r:id="rId32"/>
-    <hyperlink ref="D17" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId33"/>
+    <hyperlink ref="D17" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId33"/>
     <hyperlink ref="A18" display="workerroletest.md" r:id="rId34"/>
     <hyperlink ref="D18" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId35"/>
     <hyperlink ref="A19" display="README.md" r:id="rId36"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>File Name</t>
   </si>
@@ -73,6 +73,12 @@
     <t>a1111.md</t>
   </si>
   <si>
+    <t>empty.yml</t>
+  </si>
+  <si>
+    <t>2016-04-01 07:38:22</t>
+  </si>
+  <si>
     <t>generate-warning and error.md</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>test-scenario-1.md</t>
   </si>
   <si>
+    <t>test.yml</t>
+  </si>
+  <si>
     <t>test1-aaa.md</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-04-01 07:38:13</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
   </si>
   <si>
@@ -244,6 +256,9 @@
     <t>2015-11-06 07:36:12</t>
   </si>
   <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf</t>
   </si>
   <si>
@@ -292,6 +307,9 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
   </si>
   <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
+  </si>
+  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
   </si>
   <si>
@@ -301,6 +319,9 @@
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
   </si>
   <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf</t>
+  </si>
+  <si>
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf</t>
   </si>
   <si>
@@ -320,9 +341,6 @@
   </si>
   <si>
     <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
   <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
@@ -391,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L23" headerRowCount="1">
-  <autoFilter ref="A1:L23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L25" headerRowCount="1">
+  <autoFilter ref="A1:L25"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -412,8 +430,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:L23" headerRowCount="1">
-  <autoFilter ref="A1:L23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:L25" headerRowCount="1">
+  <autoFilter ref="A1:L25"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -433,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D23" headerRowCount="1">
-  <autoFilter ref="A1:D23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D25" headerRowCount="1">
+  <autoFilter ref="A1:D25"/>
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
@@ -447,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,12 +586,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -587,7 +605,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -601,7 +619,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -610,12 +628,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -624,12 +642,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -643,7 +661,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -657,7 +675,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
@@ -666,26 +684,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
@@ -699,7 +717,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
@@ -708,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -733,15 +751,15 @@
         <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>6</v>
@@ -755,7 +773,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>6</v>
@@ -769,15 +787,43 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -789,22 +835,24 @@
     <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId5"/>
     <hyperlink ref="A6" display="testworkerrole.md" r:id="rId6"/>
     <hyperlink ref="A7" display="a1111.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="github.png" r:id="rId9"/>
-    <hyperlink ref="A10" display="Ping.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="Pong.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="sync.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="test1-aaa.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="test1.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="testimage.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="testmove.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="README.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="testfirstlevel.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="testfirstlevel2.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId23"/>
+    <hyperlink ref="A8" display="empty.yml" r:id="rId8"/>
+    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="github.png" r:id="rId10"/>
+    <hyperlink ref="A11" display="Ping.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="Pong.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="sync.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="test-scenario-1.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="test.yml" r:id="rId15"/>
+    <hyperlink ref="A16" display="test1-aaa.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="test1.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="test2.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="testimage.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="testmove.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -815,7 +863,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -837,40 +885,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -878,28 +926,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -907,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -919,16 +967,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -936,25 +984,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -962,22 +1010,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -985,22 +1033,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1008,22 +1056,22 @@
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1031,273 +1079,267 @@
         <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -1305,22 +1347,28 @@
         <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -1328,91 +1376,137 @@
         <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>87</v>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1432,43 +1526,47 @@
     <hyperlink ref="D6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId14"/>
     <hyperlink ref="A7" display="a1111.md" r:id="rId15"/>
     <hyperlink ref="D7" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId16"/>
-    <hyperlink ref="A8" display="generate-warning and error.md" r:id="rId17"/>
-    <hyperlink ref="D8" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId18"/>
-    <hyperlink ref="A9" display="github.png" r:id="rId19"/>
-    <hyperlink ref="D9" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId20"/>
-    <hyperlink ref="A10" display="Ping.md" r:id="rId21"/>
-    <hyperlink ref="D10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId22"/>
-    <hyperlink ref="F10" display="Ping.md" r:id="rId23"/>
-    <hyperlink ref="G10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="A11" display="Pong.md" r:id="rId25"/>
-    <hyperlink ref="D11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A12" display="sync.md" r:id="rId27"/>
-    <hyperlink ref="D12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId29"/>
-    <hyperlink ref="D13" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="F13" display="test-scenario-1.md" r:id="rId31"/>
-    <hyperlink ref="G13" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId32"/>
-    <hyperlink ref="A14" display="test1-aaa.md" r:id="rId33"/>
-    <hyperlink ref="D14" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="A15" display="test1.md" r:id="rId35"/>
-    <hyperlink ref="D15" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId36"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId37"/>
-    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId38"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId39"/>
-    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId40"/>
-    <hyperlink ref="F17" display="test2.md" r:id="rId41"/>
-    <hyperlink ref="G17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId42"/>
-    <hyperlink ref="A18" display="testimage.md" r:id="rId43"/>
-    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId44"/>
-    <hyperlink ref="A19" display="testmove.md" r:id="rId45"/>
-    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId46"/>
-    <hyperlink ref="A20" display="README.md" r:id="rId47"/>
-    <hyperlink ref="D20" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId48"/>
-    <hyperlink ref="A21" display="testfirstlevel.md" r:id="rId49"/>
-    <hyperlink ref="D21" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId50"/>
-    <hyperlink ref="A22" display="testfirstlevel2.md" r:id="rId51"/>
-    <hyperlink ref="D22" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId52"/>
-    <hyperlink ref="A23" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId53"/>
+    <hyperlink ref="A8" display="empty.yml" r:id="rId17"/>
+    <hyperlink ref="D8" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId18"/>
+    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId19"/>
+    <hyperlink ref="D9" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId20"/>
+    <hyperlink ref="A10" display="github.png" r:id="rId21"/>
+    <hyperlink ref="D10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId22"/>
+    <hyperlink ref="A11" display="Ping.md" r:id="rId23"/>
+    <hyperlink ref="D11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="F11" display="Ping.md" r:id="rId25"/>
+    <hyperlink ref="G11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="A12" display="Pong.md" r:id="rId27"/>
+    <hyperlink ref="D12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A13" display="sync.md" r:id="rId29"/>
+    <hyperlink ref="D13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A14" display="test-scenario-1.md" r:id="rId31"/>
+    <hyperlink ref="D14" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="F14" display="test-scenario-1.md" r:id="rId33"/>
+    <hyperlink ref="G14" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId34"/>
+    <hyperlink ref="A15" display="test.yml" r:id="rId35"/>
+    <hyperlink ref="D15" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf" r:id="rId36"/>
+    <hyperlink ref="A16" display="test1-aaa.md" r:id="rId37"/>
+    <hyperlink ref="D16" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId38"/>
+    <hyperlink ref="A17" display="test1.md" r:id="rId39"/>
+    <hyperlink ref="D17" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId40"/>
+    <hyperlink ref="A18" display="keep-the-ui-thread-responsive.md" r:id="rId41"/>
+    <hyperlink ref="D18" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId42"/>
+    <hyperlink ref="A19" display="test2.md" r:id="rId43"/>
+    <hyperlink ref="D19" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId44"/>
+    <hyperlink ref="F19" display="test2.md" r:id="rId45"/>
+    <hyperlink ref="G19" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId46"/>
+    <hyperlink ref="A20" display="testimage.md" r:id="rId47"/>
+    <hyperlink ref="D20" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId48"/>
+    <hyperlink ref="A21" display="testmove.md" r:id="rId49"/>
+    <hyperlink ref="D21" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId50"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId51"/>
+    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId52"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId53"/>
+    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId54"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId55"/>
+    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId56"/>
+    <hyperlink ref="A25" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId57"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1479,7 +1577,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1501,54 +1599,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1557,30 +1655,30 @@
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1588,13 +1686,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -1603,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1611,36 +1709,36 @@
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -1649,24 +1747,21 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -1675,67 +1770,70 @@
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1744,21 +1842,21 @@
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1767,67 +1865,67 @@
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -1836,44 +1934,44 @@
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -1882,44 +1980,44 @@
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -1928,44 +2026,44 @@
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
@@ -1974,21 +2072,21 @@
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -1997,53 +2095,99 @@
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>106</v>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2054,42 +2198,46 @@
     <hyperlink ref="D3" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId5"/>
     <hyperlink ref="A4" display="a1111.md" r:id="rId6"/>
     <hyperlink ref="D4" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="github.png" r:id="rId10"/>
-    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId11"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId14"/>
+    <hyperlink ref="A5" display="empty.yml" r:id="rId8"/>
+    <hyperlink ref="D5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="github.png" r:id="rId12"/>
+    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
+    <hyperlink ref="A8" display="Ping.md" r:id="rId14"/>
     <hyperlink ref="D8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test1.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="test2.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="testmove.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="testworkerrole.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="TOC.yml" r:id="rId32"/>
-    <hyperlink ref="D17" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="workerroletest.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="README.md" r:id="rId36"/>
-    <hyperlink ref="D19" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="testfirstlevel.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="testfirstlevel2.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId42"/>
-    <hyperlink ref="A23" display="TOC1.yml" r:id="rId43"/>
+    <hyperlink ref="A9" display="Pong.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="sync.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test-scenario-1.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test.yml" r:id="rId22"/>
+    <hyperlink ref="D12" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test1-aaa.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="test1.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="test2.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="testmove.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="testworkerrole.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="TOC.yml" r:id="rId36"/>
+    <hyperlink ref="D19" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="workerroletest.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="README.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId46"/>
+    <hyperlink ref="A25" display="TOC1.yml" r:id="rId47"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>File Name</t>
   </si>
@@ -55,21 +55,24 @@
     <t>Handback transform failed</t>
   </si>
   <si>
+    <t>2016-04-01 07:47:32</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2016-03-29 06:17:26</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
     <t>2016-03-30 05:39:21</t>
   </si>
   <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-03-29 06:17:26</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
     <t>a1111.md</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>github.png</t>
   </si>
   <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
     <t>Ping.md</t>
   </si>
   <si>
@@ -199,21 +205,24 @@
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-04-01 07:47:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:47</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-06 16:02:21</t>
   </si>
   <si>
-    <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:47</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
   </si>
   <si>
@@ -235,15 +244,15 @@
     <t>e2e\testimage.md</t>
   </si>
   <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-02-22 14:58:54</t>
   </si>
   <si>
-    <t>2016-04-01 07:28:00</t>
-  </si>
-  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
   </si>
   <si>
@@ -311,6 +320,9 @@
   </si>
   <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf</t>
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
@@ -409,8 +421,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L25" headerRowCount="1">
-  <autoFilter ref="A1:L25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L26" headerRowCount="1">
+  <autoFilter ref="A1:L26"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -430,8 +442,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:L25" headerRowCount="1">
-  <autoFilter ref="A1:L25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:L26" headerRowCount="1">
+  <autoFilter ref="A1:L26"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -451,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D25" headerRowCount="1">
-  <autoFilter ref="A1:D25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D26" headerRowCount="1">
+  <autoFilter ref="A1:D26"/>
   <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
@@ -465,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -558,12 +570,12 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -572,12 +584,12 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -586,12 +598,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>6</v>
@@ -600,12 +612,12 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>6</v>
@@ -614,12 +626,12 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -628,12 +640,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -642,12 +654,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -661,7 +673,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -670,12 +682,12 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
@@ -684,12 +696,12 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
@@ -698,12 +710,12 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
@@ -712,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -765,15 +777,15 @@
         <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>6</v>
@@ -782,12 +794,12 @@
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
@@ -796,12 +808,12 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>6</v>
@@ -810,20 +822,34 @@
         <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -838,21 +864,22 @@
     <hyperlink ref="A8" display="empty.yml" r:id="rId8"/>
     <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId9"/>
     <hyperlink ref="A10" display="github.png" r:id="rId10"/>
-    <hyperlink ref="A11" display="Ping.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="Pong.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="sync.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="test-scenario-1.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="test.yml" r:id="rId15"/>
-    <hyperlink ref="A16" display="test1-aaa.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="test1.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="test2.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="testimage.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="testmove.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId25"/>
+    <hyperlink ref="A11" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="Pong.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="sync.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="test-scenario-1.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="test.yml" r:id="rId16"/>
+    <hyperlink ref="A17" display="test1-aaa.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="test1.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="testimage.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="testmove.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId25"/>
+    <hyperlink ref="A26" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -863,7 +890,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -885,40 +912,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -926,28 +953,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -955,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -967,16 +994,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J3" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -984,25 +1011,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1010,22 +1037,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1033,229 +1060,223 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
@@ -1264,134 +1285,140 @@
         <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -1399,114 +1426,137 @@
         <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>92</v>
+      <c r="L26" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1532,41 +1582,43 @@
     <hyperlink ref="D9" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId20"/>
     <hyperlink ref="A10" display="github.png" r:id="rId21"/>
     <hyperlink ref="D10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId22"/>
-    <hyperlink ref="A11" display="Ping.md" r:id="rId23"/>
-    <hyperlink ref="D11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="F11" display="Ping.md" r:id="rId25"/>
-    <hyperlink ref="G11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="A12" display="Pong.md" r:id="rId27"/>
-    <hyperlink ref="D12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A13" display="sync.md" r:id="rId29"/>
-    <hyperlink ref="D13" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A14" display="test-scenario-1.md" r:id="rId31"/>
-    <hyperlink ref="D14" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="F14" display="test-scenario-1.md" r:id="rId33"/>
-    <hyperlink ref="G14" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId34"/>
-    <hyperlink ref="A15" display="test.yml" r:id="rId35"/>
-    <hyperlink ref="D15" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf" r:id="rId36"/>
-    <hyperlink ref="A16" display="test1-aaa.md" r:id="rId37"/>
-    <hyperlink ref="D16" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId38"/>
-    <hyperlink ref="A17" display="test1.md" r:id="rId39"/>
-    <hyperlink ref="D17" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId40"/>
-    <hyperlink ref="A18" display="keep-the-ui-thread-responsive.md" r:id="rId41"/>
-    <hyperlink ref="D18" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId42"/>
-    <hyperlink ref="A19" display="test2.md" r:id="rId43"/>
-    <hyperlink ref="D19" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId44"/>
-    <hyperlink ref="F19" display="test2.md" r:id="rId45"/>
-    <hyperlink ref="G19" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId46"/>
-    <hyperlink ref="A20" display="testimage.md" r:id="rId47"/>
-    <hyperlink ref="D20" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId48"/>
-    <hyperlink ref="A21" display="testmove.md" r:id="rId49"/>
-    <hyperlink ref="D21" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId50"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId51"/>
-    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId52"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId53"/>
-    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId54"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId55"/>
-    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId56"/>
-    <hyperlink ref="A25" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId57"/>
+    <hyperlink ref="A11" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId23"/>
+    <hyperlink ref="D11" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="A12" display="Ping.md" r:id="rId25"/>
+    <hyperlink ref="D12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
+    <hyperlink ref="F12" display="Ping.md" r:id="rId27"/>
+    <hyperlink ref="G12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
+    <hyperlink ref="A13" display="Pong.md" r:id="rId29"/>
+    <hyperlink ref="D13" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="A14" display="sync.md" r:id="rId31"/>
+    <hyperlink ref="D14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId32"/>
+    <hyperlink ref="A15" display="test-scenario-1.md" r:id="rId33"/>
+    <hyperlink ref="D15" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId34"/>
+    <hyperlink ref="F15" display="test-scenario-1.md" r:id="rId35"/>
+    <hyperlink ref="G15" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId36"/>
+    <hyperlink ref="A16" display="test.yml" r:id="rId37"/>
+    <hyperlink ref="D16" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf" r:id="rId38"/>
+    <hyperlink ref="A17" display="test1-aaa.md" r:id="rId39"/>
+    <hyperlink ref="D17" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId40"/>
+    <hyperlink ref="A18" display="test1.md" r:id="rId41"/>
+    <hyperlink ref="D18" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId42"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId43"/>
+    <hyperlink ref="D19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId44"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId45"/>
+    <hyperlink ref="D20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId46"/>
+    <hyperlink ref="F20" display="test2.md" r:id="rId47"/>
+    <hyperlink ref="G20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId48"/>
+    <hyperlink ref="A21" display="testimage.md" r:id="rId49"/>
+    <hyperlink ref="D21" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId50"/>
+    <hyperlink ref="A22" display="testmove.md" r:id="rId51"/>
+    <hyperlink ref="D22" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId52"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId53"/>
+    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId54"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId55"/>
+    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId56"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId57"/>
+    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId58"/>
+    <hyperlink ref="A26" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId59"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1577,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1599,54 +1651,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1655,185 +1707,185 @@
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -1842,251 +1894,251 @@
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2095,84 +2147,84 @@
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>9</v>
@@ -2184,10 +2236,33 @@
         <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2204,40 +2279,42 @@
     <hyperlink ref="D6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId11"/>
     <hyperlink ref="A7" display="github.png" r:id="rId12"/>
     <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
-    <hyperlink ref="A8" display="Ping.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Pong.md" r:id="rId16"/>
+    <hyperlink ref="A8" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="Ping.md" r:id="rId16"/>
     <hyperlink ref="D9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="sync.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test-scenario-1.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test.yml" r:id="rId22"/>
-    <hyperlink ref="D12" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="test1-aaa.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="test1.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="test2.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="testmove.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="testworkerrole.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="TOC.yml" r:id="rId36"/>
-    <hyperlink ref="D19" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="workerroletest.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="README.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="testfirstlevel2.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId46"/>
-    <hyperlink ref="A25" display="TOC1.yml" r:id="rId47"/>
+    <hyperlink ref="A10" display="Pong.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="sync.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test-scenario-1.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test.yml" r:id="rId24"/>
+    <hyperlink ref="D13" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="test1-aaa.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="test1.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="testmove.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="testworkerrole.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="TOC.yml" r:id="rId38"/>
+    <hyperlink ref="D20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="workerroletest.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId48"/>
+    <hyperlink ref="A26" display="TOC1.yml" r:id="rId49"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>File Name</t>
   </si>
@@ -304,6 +304,12 @@
     <t>e2e\test1\test1.md file with commit id 01f2fddae1e18474afcc560659a69389b391670c can not be found</t>
   </si>
   <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 08:37:54</t>
+  </si>
+  <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
   </si>
   <si>
@@ -329,9 +335,6 @@
   </si>
   <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf</t>
   </si>
   <si>
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf</t>
@@ -707,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
@@ -1689,22 +1692,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>57</v>
@@ -1712,7 +1721,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>61</v>
@@ -1721,10 +1730,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1744,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1767,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1790,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
@@ -1804,16 +1813,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1822,38 +1831,38 @@
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>61</v>
@@ -1862,10 +1871,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
@@ -1876,7 +1885,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>61</v>
@@ -1885,10 +1894,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
@@ -1899,7 +1908,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>61</v>
@@ -1908,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -1922,7 +1931,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>61</v>
@@ -1931,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1945,19 +1954,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
@@ -1977,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -2000,7 +2009,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -2023,7 +2032,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -2046,7 +2055,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -2069,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -2092,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -2115,7 +2124,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -2138,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2161,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -2184,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -2207,7 +2216,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
@@ -2262,59 +2271,61 @@
         <v>59</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="keep-the-ui-thread-responsive.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="testimage.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="a1111.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="empty.yml" r:id="rId8"/>
-    <hyperlink ref="D5" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="github.png" r:id="rId12"/>
-    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId13"/>
-    <hyperlink ref="A8" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Ping.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="Pong.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="sync.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test-scenario-1.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="test.yml" r:id="rId24"/>
-    <hyperlink ref="D13" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="test1-aaa.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="test1.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="testmove.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="testworkerrole.md" r:id="rId36"/>
-    <hyperlink ref="D19" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="TOC.yml" r:id="rId38"/>
-    <hyperlink ref="D20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="workerroletest.md" r:id="rId40"/>
-    <hyperlink ref="D21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId48"/>
-    <hyperlink ref="A26" display="TOC1.yml" r:id="rId49"/>
+    <hyperlink ref="A2" display="test.yml" r:id="rId2"/>
+    <hyperlink ref="D2" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="F2" display="test.yml" r:id="rId4"/>
+    <hyperlink ref="G2" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="keep-the-ui-thread-responsive.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A4" display="testimage.md" r:id="rId8"/>
+    <hyperlink ref="D4" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId9"/>
+    <hyperlink ref="A5" display="a1111.md" r:id="rId10"/>
+    <hyperlink ref="D5" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A6" display="empty.yml" r:id="rId12"/>
+    <hyperlink ref="D6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A7" display="generate-warning and error.md" r:id="rId14"/>
+    <hyperlink ref="D7" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A8" display="github.png" r:id="rId16"/>
+    <hyperlink ref="D8" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId17"/>
+    <hyperlink ref="A9" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId18"/>
+    <hyperlink ref="D9" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A10" display="Ping.md" r:id="rId20"/>
+    <hyperlink ref="D10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A11" display="Pong.md" r:id="rId22"/>
+    <hyperlink ref="D11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A12" display="sync.md" r:id="rId24"/>
+    <hyperlink ref="D12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId26"/>
+    <hyperlink ref="D13" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A14" display="test1-aaa.md" r:id="rId28"/>
+    <hyperlink ref="D14" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A15" display="test1.md" r:id="rId30"/>
+    <hyperlink ref="D15" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId32"/>
+    <hyperlink ref="D16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId34"/>
+    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="A18" display="testmove.md" r:id="rId36"/>
+    <hyperlink ref="D18" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId37"/>
+    <hyperlink ref="A19" display="testworkerrole.md" r:id="rId38"/>
+    <hyperlink ref="D19" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="A20" display="TOC.yml" r:id="rId40"/>
+    <hyperlink ref="D20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="A21" display="workerroletest.md" r:id="rId42"/>
+    <hyperlink ref="D21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId43"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId44"/>
+    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId46"/>
+    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId47"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId48"/>
+    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId49"/>
+    <hyperlink ref="A25" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId50"/>
+    <hyperlink ref="A26" display="TOC1.yml" r:id="rId51"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>File Name</t>
   </si>
@@ -79,33 +79,36 @@
     <t>empty.yml</t>
   </si>
   <si>
+    <t>2016-04-01 09:36:08</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
+  </si>
+  <si>
+    <t>sync.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test.yml</t>
+  </si>
+  <si>
     <t>2016-04-01 07:38:22</t>
   </si>
   <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
-    <t>sync.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>test.yml</t>
-  </si>
-  <si>
     <t>test1-aaa.md</t>
   </si>
   <si>
@@ -226,48 +229,51 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-04-01 09:35:58</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-06 07:36:12</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-04-01 07:38:13</t>
   </si>
   <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:36:12</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf</t>
   </si>
   <si>
@@ -328,7 +334,7 @@
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
   </si>
   <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf</t>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf</t>
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
@@ -643,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -713,12 +719,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
@@ -732,7 +738,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
@@ -746,7 +752,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -760,7 +766,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>6</v>
@@ -774,7 +780,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>6</v>
@@ -783,12 +789,12 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>6</v>
@@ -802,7 +808,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
@@ -816,7 +822,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>6</v>
@@ -830,7 +836,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -844,7 +850,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>9</v>
@@ -915,40 +921,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -956,28 +962,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -985,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -997,16 +1003,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1014,25 +1020,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1040,22 +1046,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1063,22 +1069,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1086,22 +1092,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1109,22 +1115,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -1132,22 +1138,22 @@
         <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1155,25 +1161,25 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -1181,22 +1187,22 @@
         <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -1204,28 +1210,28 @@
         <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1233,22 +1239,22 @@
         <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1256,22 +1262,22 @@
         <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1279,28 +1285,28 @@
         <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -1308,243 +1314,243 @@
         <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>9</v>
@@ -1556,10 +1562,10 @@
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1592,7 @@
     <hyperlink ref="A10" display="github.png" r:id="rId21"/>
     <hyperlink ref="D10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId22"/>
     <hyperlink ref="A11" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId23"/>
-    <hyperlink ref="D11" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId24"/>
+    <hyperlink ref="D11" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId24"/>
     <hyperlink ref="A12" display="Ping.md" r:id="rId25"/>
     <hyperlink ref="D12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
     <hyperlink ref="F12" display="Ping.md" r:id="rId27"/>
@@ -1654,40 +1660,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -1695,42 +1701,42 @@
         <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -1739,30 +1745,30 @@
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -1770,13 +1776,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1785,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1793,13 +1799,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1808,7 +1814,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -1816,13 +1822,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1831,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1839,13 +1845,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1854,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1865,22 +1871,22 @@
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1888,13 +1894,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1903,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -1911,13 +1917,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1926,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -1934,13 +1940,13 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1949,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1957,13 +1963,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1972,21 +1978,21 @@
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1995,21 +2001,21 @@
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -2018,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -2026,13 +2032,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -2041,21 +2047,21 @@
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -2064,21 +2070,21 @@
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -2087,7 +2093,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -2095,13 +2101,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -2110,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -2118,13 +2124,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -2133,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -2141,13 +2147,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2156,21 +2162,21 @@
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>18</v>
@@ -2179,21 +2185,21 @@
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -2202,21 +2208,21 @@
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
@@ -2225,15 +2231,15 @@
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>9</v>
@@ -2245,10 +2251,10 @@
         <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -2256,7 +2262,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>9</v>
@@ -2268,10 +2274,10 @@
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2299,7 @@
     <hyperlink ref="A8" display="github.png" r:id="rId16"/>
     <hyperlink ref="D8" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId17"/>
     <hyperlink ref="A9" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId18"/>
-    <hyperlink ref="D9" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="D9" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf" r:id="rId19"/>
     <hyperlink ref="A10" display="Ping.md" r:id="rId20"/>
     <hyperlink ref="D10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A11" display="Pong.md" r:id="rId22"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -55,7 +55,7 @@
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>2016-04-01 07:47:32</t>
+    <t>2016-04-01 09:45:49</t>
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
@@ -208,7 +208,7 @@
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-01 07:47:25</t>
+    <t>2016-04-01 09:45:39</t>
   </si>
   <si>
     <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>File Name</t>
   </si>
@@ -79,18 +79,21 @@
     <t>empty.yml</t>
   </si>
   <si>
+    <t>2016-04-04 03:36:20</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
     <t>2016-04-01 09:36:08</t>
   </si>
   <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
     <t>Ping.md</t>
   </si>
   <si>
@@ -229,25 +232,28 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-04-04 03:36:13</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-04-01 09:35:58</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
@@ -649,12 +655,12 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
@@ -668,7 +674,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -682,7 +688,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -696,7 +702,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
@@ -710,7 +716,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
@@ -719,12 +725,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
@@ -738,7 +744,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
@@ -752,7 +758,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -766,7 +772,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>6</v>
@@ -780,7 +786,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>6</v>
@@ -789,12 +795,12 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>6</v>
@@ -808,7 +814,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
@@ -817,12 +823,12 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>6</v>
@@ -836,7 +842,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -850,7 +856,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>9</v>
@@ -921,40 +927,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -962,28 +968,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -991,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -1003,16 +1009,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1020,25 +1026,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1046,22 +1052,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1069,22 +1075,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1092,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1115,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1138,22 +1144,22 @@
         <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1161,25 +1167,25 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1187,370 +1193,370 @@
         <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>9</v>
@@ -1562,10 +1568,10 @@
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1660,83 +1666,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -1745,30 +1751,30 @@
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1776,13 +1782,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1791,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1799,13 +1805,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1814,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1822,13 +1828,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1837,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1845,13 +1851,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1860,10 +1866,10 @@
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1871,36 +1877,36 @@
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1909,21 +1915,21 @@
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1932,21 +1938,21 @@
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1955,21 +1961,21 @@
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1978,21 +1984,21 @@
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -2001,21 +2007,21 @@
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -2024,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -2032,13 +2038,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -2047,21 +2053,21 @@
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -2070,21 +2076,21 @@
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -2093,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -2101,13 +2107,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -2116,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -2124,13 +2130,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -2139,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -2147,13 +2153,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2162,44 +2168,44 @@
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -2208,21 +2214,21 @@
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
@@ -2231,15 +2237,15 @@
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>9</v>
@@ -2251,10 +2257,10 @@
         <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -2262,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>9</v>
@@ -2274,10 +2280,10 @@
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>File Name</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Handback transform failed</t>
   </si>
   <si>
-    <t>2016-04-01 09:45:49</t>
+    <t>2016-04-04 03:46:26</t>
   </si>
   <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
@@ -211,7 +211,7 @@
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-01 09:45:39</t>
+    <t>2016-04-04 03:46:19</t>
   </si>
   <si>
     <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
@@ -262,6 +262,9 @@
     <t>2016-02-22 14:58:54</t>
   </si>
   <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
   </si>
   <si>
@@ -344,6 +347,9 @@
   </si>
   <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf</t>
   </si>
   <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
@@ -1251,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>65</v>
@@ -1274,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -1297,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>37</v>
@@ -1306,10 +1312,10 @@
         <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>59</v>
@@ -1326,10 +1332,10 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
@@ -1349,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
@@ -1372,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>37</v>
@@ -1395,10 +1401,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
@@ -1418,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>37</v>
@@ -1427,10 +1433,10 @@
         <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>59</v>
@@ -1447,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>37</v>
@@ -1470,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>37</v>
@@ -1493,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>72</v>
@@ -1516,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>37</v>
@@ -1539,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>37</v>
@@ -1571,7 +1577,7 @@
         <v>61</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1610,7 @@
     <hyperlink ref="F12" display="Ping.md" r:id="rId27"/>
     <hyperlink ref="G12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
     <hyperlink ref="A13" display="Pong.md" r:id="rId29"/>
-    <hyperlink ref="D13" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId30"/>
+    <hyperlink ref="D13" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf" r:id="rId30"/>
     <hyperlink ref="A14" display="sync.md" r:id="rId31"/>
     <hyperlink ref="D14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId32"/>
     <hyperlink ref="A15" display="test-scenario-1.md" r:id="rId33"/>
@@ -1713,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1722,10 +1728,10 @@
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>59</v>
@@ -1742,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -1765,10 +1771,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
@@ -1788,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1811,7 +1817,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1834,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1883,7 +1889,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1906,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
@@ -1929,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1952,7 +1958,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1975,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1998,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -2021,7 +2027,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -2044,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -2067,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -2090,7 +2096,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -2113,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -2136,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -2159,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2182,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -2205,7 +2211,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -2228,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
@@ -2260,7 +2266,7 @@
         <v>61</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -2283,7 +2289,7 @@
         <v>61</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2315,7 @@
     <hyperlink ref="A10" display="Ping.md" r:id="rId20"/>
     <hyperlink ref="D10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId21"/>
     <hyperlink ref="A11" display="Pong.md" r:id="rId22"/>
-    <hyperlink ref="D11" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="D11" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf" r:id="rId23"/>
     <hyperlink ref="A12" display="sync.md" r:id="rId24"/>
     <hyperlink ref="D12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId25"/>
     <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId26"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>File Name</t>
   </si>
@@ -79,24 +79,27 @@
     <t>empty.yml</t>
   </si>
   <si>
+    <t>2016-04-08 03:36:11</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
+    <t>2016-04-01 09:36:08</t>
+  </si>
+  <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
     <t>2016-04-04 03:36:20</t>
   </si>
   <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>2016-04-01 09:36:08</t>
-  </si>
-  <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
     <t>Pong.md</t>
   </si>
   <si>
@@ -232,31 +235,34 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-04-08 03:36:02</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 09:35:58</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-04-04 03:36:13</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 09:35:58</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
   </si>
   <si>
     <t>2016-02-22 14:58:54</t>
@@ -675,12 +681,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>6</v>
@@ -694,7 +700,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>6</v>
@@ -708,7 +714,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>6</v>
@@ -722,7 +728,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>6</v>
@@ -731,12 +737,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>6</v>
@@ -750,7 +756,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>6</v>
@@ -764,7 +770,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>6</v>
@@ -778,7 +784,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>6</v>
@@ -792,7 +798,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>6</v>
@@ -801,12 +807,12 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>6</v>
@@ -820,7 +826,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
@@ -829,12 +835,12 @@
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>6</v>
@@ -848,7 +854,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>6</v>
@@ -862,7 +868,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>9</v>
@@ -933,40 +939,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -974,28 +980,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1003,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -1015,16 +1021,16 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1032,25 +1038,25 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1058,22 +1064,22 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1081,22 +1087,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1104,22 +1110,22 @@
         <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1127,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1150,22 +1156,22 @@
         <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1173,25 +1179,25 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1199,22 +1205,22 @@
         <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1222,347 +1228,347 @@
         <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>9</v>
@@ -1574,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1672,83 +1678,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -1757,30 +1763,30 @@
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1788,13 +1794,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1803,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1811,13 +1817,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1826,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1834,13 +1840,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1849,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1857,13 +1863,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1872,10 +1878,10 @@
         <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1883,13 +1889,13 @@
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -1898,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1906,36 +1912,36 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1944,21 +1950,21 @@
         <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1967,21 +1973,21 @@
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1990,21 +1996,21 @@
         <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -2013,21 +2019,21 @@
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -2036,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -2044,13 +2050,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -2059,21 +2065,21 @@
         <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -2082,21 +2088,21 @@
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -2105,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2113,13 +2119,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -2128,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -2136,13 +2142,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -2151,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2165,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2174,44 +2180,44 @@
         <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>18</v>
@@ -2220,21 +2226,21 @@
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>18</v>
@@ -2243,15 +2249,15 @@
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>9</v>
@@ -2263,10 +2269,10 @@
         <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -2274,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>9</v>
@@ -2286,10 +2292,10 @@
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -8,13 +8,14 @@
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
     <sheet name="de-de" sheetId="3" r:id="rId4"/>
+    <sheet name="fr-fr" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>File Name</t>
   </si>
@@ -25,6 +26,9 @@
     <t>de-de</t>
   </si>
   <si>
+    <t>fr-fr</t>
+  </si>
+  <si>
     <t>Latest Handoff Date</t>
   </si>
   <si>
@@ -37,351 +41,354 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2016-04-08 03:49:28</t>
+  </si>
+  <si>
+    <t>TOC1.yml</t>
+  </si>
+  <si>
+    <t>Handoff transform failed</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
+    <t>a1111.md</t>
+  </si>
+  <si>
+    <t>empty.yml</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
+  </si>
+  <si>
+    <t>sync.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test.yml</t>
+  </si>
+  <si>
+    <t>test1-aaa.md</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>test2.md</t>
+  </si>
+  <si>
+    <t>testimage.md</t>
+  </si>
+  <si>
+    <t>testmove.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Latest Handoff File</t>
+  </si>
+  <si>
+    <t>Latest Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Latest Target File</t>
+  </si>
+  <si>
+    <t>Latest Handback File</t>
+  </si>
+  <si>
+    <t>Latest Handback DateTime</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>Handoff Reason</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>.yml</t>
+  </si>
+  <si>
+    <t>b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:46:49</t>
+  </si>
+  <si>
+    <t>2016-03-01 06:56:39</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
+  </si>
+  <si>
+    <t>Ignored</t>
+  </si>
+  <si>
+    <t>Could not find file 'C:\gittest\master\OpenLocalizationTest\oltest\toc.yml'.</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-04 03:46:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:47</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:21</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-30 05:39:13</t>
+  </si>
+  <si>
+    <t>2016-04-08 03:36:02</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 09:35:58</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-04 03:36:13</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2015-11-06 07:36:12</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 07:38:13</t>
+  </si>
+  <si>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-29 06:17:00</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-23 05:34:31</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>e2e\test1\test1.md file with commit id 01f2fddae1e18474afcc560659a69389b391670c can not be found</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 07:38:22</t>
+  </si>
+  <si>
+    <t>2016-04-01 08:37:54</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-29 06:17:26</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-01 07:36:05</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-03-30 05:39:21</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-08 03:36:11</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 09:36:08</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-04 03:36:20</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-04 03:46:26</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-04-01 07:28:09</t>
   </si>
   <si>
-    <t>TOC1.yml</t>
-  </si>
-  <si>
-    <t>Handoff transform failed</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>Handback transform failed</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:46:26</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-03-29 06:17:26</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>2016-03-30 05:39:21</t>
-  </si>
-  <si>
-    <t>a1111.md</t>
-  </si>
-  <si>
-    <t>empty.yml</t>
-  </si>
-  <si>
-    <t>2016-04-08 03:36:11</t>
-  </si>
-  <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>2016-04-01 09:36:08</t>
-  </si>
-  <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:36:20</t>
-  </si>
-  <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
-    <t>sync.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>test.yml</t>
-  </si>
-  <si>
-    <t>2016-04-01 07:38:22</t>
-  </si>
-  <si>
-    <t>test1-aaa.md</t>
-  </si>
-  <si>
-    <t>test1.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
-    <t>test2.md</t>
-  </si>
-  <si>
-    <t>testimage.md</t>
-  </si>
-  <si>
-    <t>2016-03-30 05:39:13</t>
-  </si>
-  <si>
-    <t>testmove.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>Handoff Reason</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>.yml</t>
-  </si>
-  <si>
-    <t>b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml</t>
-  </si>
-  <si>
-    <t>2016-03-01 06:46:49</t>
-  </si>
-  <si>
-    <t>2016-03-01 06:56:39</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
-  </si>
-  <si>
-    <t>Ignored</t>
-  </si>
-  <si>
-    <t>Could not find file 'C:\gittest\master\OpenLocalizationTest\oltest\toc.yml'.</t>
-  </si>
-  <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:46:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:47</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:21</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-08 03:36:02</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 09:35:58</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:36:13</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
-  </si>
-  <si>
-    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2015-11-06 07:36:12</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 07:38:13</t>
-  </si>
-  <si>
-    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-29 06:17:00</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 05:34:31</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>e2e\test1\test1.md file with commit id 01f2fddae1e18474afcc560659a69389b391670c can not be found</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 08:37:54</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-01 07:36:05</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf</t>
-  </si>
-  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
   </si>
   <si>
@@ -392,6 +399,78 @@
   </si>
   <si>
     <t>toc.yml file with commit id 428973b76b259a803a23257dc5eda2007a915f43 can not be found</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.fr-fr.xlf</t>
   </si>
 </sst>
 </file>
@@ -490,13 +569,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D26" headerRowCount="1">
-  <autoFilter ref="A1:D26"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="fr-fr" displayName="fr_fr" ref="A1:L26" headerRowCount="1">
+  <autoFilter ref="A1:L26"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Latest Handoff File"/>
+    <tableColumn id="5" name="Latest Handoff Datetime"/>
+    <tableColumn id="6" name="Latest Target File"/>
+    <tableColumn id="7" name="Latest Handback File"/>
+    <tableColumn id="8" name="Latest Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:E26" headerRowCount="1">
+  <autoFilter ref="A1:E26"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
     <tableColumn id="3" name="de-de"/>
-    <tableColumn id="4" name="Latest Handoff Date"/>
+    <tableColumn id="4" name="fr-fr"/>
+    <tableColumn id="5" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +615,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,33 +631,42 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -566,318 +677,387 @@
         <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -939,98 +1119,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1038,552 +1218,552 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1678,486 +1858,486 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -2165,137 +2345,137 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2356,4 +2536,702 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.fr-fr.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="empty.yml" r:id="rId4"/>
+    <hyperlink ref="D3" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.fr-fr.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.fr-fr.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="github.png" r:id="rId8"/>
+    <hyperlink ref="D5" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId9"/>
+    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.fr-fr.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.fr-fr.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Pong.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.fr-fr.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.fr-fr.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.fr-fr.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId20"/>
+    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.fr-fr.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.fr-fr.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.fr-fr.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.fr-fr.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.fr-fr.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.fr-fr.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.fr-fr.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="testimage.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.fr-fr.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="testmove.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.fr-fr.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.fr-fr.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="TOC.yml" r:id="rId40"/>
+    <hyperlink ref="D21" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.fr-fr.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="workerroletest.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.fr-fr.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.fr-fr.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.fr-fr.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.fr-fr.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="TOC1.yml" r:id="rId50"/>
+    <hyperlink ref="D26" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.fr-fr.xlf" r:id="rId51"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -8,14 +8,13 @@
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
     <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
     <sheet name="de-de" sheetId="3" r:id="rId4"/>
-    <sheet name="fr-fr" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>File Name</t>
   </si>
@@ -26,9 +25,6 @@
     <t>de-de</t>
   </si>
   <si>
-    <t>fr-fr</t>
-  </si>
-  <si>
     <t>Latest Handoff Date</t>
   </si>
   <si>
@@ -41,7 +37,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-04-08 03:49:28</t>
+    <t>2016-04-01 07:28:09</t>
   </si>
   <si>
     <t>TOC1.yml</t>
@@ -50,27 +46,42 @@
     <t>Handoff transform failed</t>
   </si>
   <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>workerroletest.md</t>
   </si>
   <si>
     <t>Handback transform failed</t>
   </si>
   <si>
+    <t>2016-04-08 04:07:45</t>
+  </si>
+  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
   </si>
   <si>
     <t>In Translation</t>
   </si>
   <si>
+    <t>2016-03-29 06:17:26</t>
+  </si>
+  <si>
     <t>testworkerrole.md</t>
   </si>
   <si>
+    <t>2016-03-30 05:39:21</t>
+  </si>
+  <si>
     <t>a1111.md</t>
   </si>
   <si>
     <t>empty.yml</t>
   </si>
   <si>
+    <t>2016-04-08 03:36:11</t>
+  </si>
+  <si>
     <t>generate-warning and error.md</t>
   </si>
   <si>
@@ -80,12 +91,21 @@
     <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
   </si>
   <si>
+    <t>2016-04-01 09:36:08</t>
+  </si>
+  <si>
     <t>Ping.md</t>
   </si>
   <si>
+    <t>2016-04-04 03:36:20</t>
+  </si>
+  <si>
     <t>Pong.md</t>
   </si>
   <si>
+    <t>2016-04-04 03:46:26</t>
+  </si>
+  <si>
     <t>sync.md</t>
   </si>
   <si>
@@ -95,6 +115,9 @@
     <t>test.yml</t>
   </si>
   <si>
+    <t>2016-04-01 07:38:22</t>
+  </si>
+  <si>
     <t>test1-aaa.md</t>
   </si>
   <si>
@@ -110,6 +133,9 @@
     <t>testimage.md</t>
   </si>
   <si>
+    <t>2016-03-30 05:39:13</t>
+  </si>
+  <si>
     <t>testmove.md</t>
   </si>
   <si>
@@ -176,9 +202,6 @@
     <t>Include</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
   </si>
   <si>
@@ -194,66 +217,66 @@
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-04-08 04:07:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-02-24 05:24:47</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-06 16:02:21</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-08 03:36:02</t>
+  </si>
+  <si>
+    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-01 09:35:58</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-04 03:36:13</t>
+  </si>
+  <si>
+    <t>2016-02-22 14:58:54</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-04-04 03:46:19</t>
   </si>
   <si>
-    <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:47</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:21</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-30 05:39:13</t>
-  </si>
-  <si>
-    <t>2016-04-08 03:36:02</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 09:35:58</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:36:13</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
-  </si>
-  <si>
-    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
   </si>
   <si>
@@ -311,18 +334,12 @@
     <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-01 07:38:22</t>
-  </si>
-  <si>
     <t>2016-04-01 08:37:54</t>
   </si>
   <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-29 06:17:26</t>
-  </si>
-  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
   </si>
   <si>
@@ -332,36 +349,21 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-30 05:39:21</t>
-  </si>
-  <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-08 03:36:11</t>
-  </si>
-  <si>
     <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
   </si>
   <si>
     <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-01 09:36:08</t>
-  </si>
-  <si>
     <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-04 03:36:20</t>
-  </si>
-  <si>
     <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-04 03:46:26</t>
-  </si>
-  <si>
     <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
   </si>
   <si>
@@ -386,9 +388,6 @@
     <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-01 07:28:09</t>
-  </si>
-  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
   </si>
   <si>
@@ -399,78 +398,6 @@
   </si>
   <si>
     <t>toc.yml file with commit id 428973b76b259a803a23257dc5eda2007a915f43 can not be found</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.fr-fr.xlf</t>
-  </si>
-  <si>
-    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.fr-fr.xlf</t>
   </si>
 </sst>
 </file>
@@ -569,35 +496,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="fr-fr" displayName="fr_fr" ref="A1:L26" headerRowCount="1">
-  <autoFilter ref="A1:L26"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Source File Name"/>
-    <tableColumn id="2" name="File Extension"/>
-    <tableColumn id="3" name="Status"/>
-    <tableColumn id="4" name="Latest Handoff File"/>
-    <tableColumn id="5" name="Latest Handoff Datetime"/>
-    <tableColumn id="6" name="Latest Target File"/>
-    <tableColumn id="7" name="Latest Handback File"/>
-    <tableColumn id="8" name="Latest Handback DateTime"/>
-    <tableColumn id="9" name="Reference Tokens"/>
-    <tableColumn id="10" name="Handoff Reason"/>
-    <tableColumn id="11" name="Dependency From"/>
-    <tableColumn id="12" name="Error Detail"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Overview" displayName="Overview" ref="A1:E26" headerRowCount="1">
-  <autoFilter ref="A1:E26"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D26" headerRowCount="1">
+  <autoFilter ref="A1:D26"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="zh-cn"/>
     <tableColumn id="3" name="de-de"/>
-    <tableColumn id="4" name="fr-fr"/>
-    <tableColumn id="5" name="Latest Handoff Date"/>
+    <tableColumn id="4" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +520,6 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -631,42 +535,33 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -677,387 +572,318 @@
         <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1119,98 +945,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1218,552 +1044,552 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1858,486 +1684,486 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -2345,134 +2171,134 @@
         <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>127</v>
@@ -2536,702 +2362,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
-    <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.fr-fr.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="empty.yml" r:id="rId4"/>
-    <hyperlink ref="D3" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.fr-fr.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.fr-fr.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="github.png" r:id="rId8"/>
-    <hyperlink ref="D5" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.fr-fr.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.fr-fr.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.fr-fr.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.fr-fr.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.fr-fr.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId20"/>
-    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.fr-fr.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.fr-fr.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.fr-fr.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.fr-fr.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.fr-fr.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.fr-fr.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.fr-fr.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="testimage.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.fr-fr.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="testmove.md" r:id="rId36"/>
-    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.fr-fr.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.fr-fr.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="TOC.yml" r:id="rId40"/>
-    <hyperlink ref="D21" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.fr-fr.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="workerroletest.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.fr-fr.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.fr-fr.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.fr-fr.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.fr-fr.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="TOC1.yml" r:id="rId50"/>
-    <hyperlink ref="D26" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.fr-fr.xlf" r:id="rId51"/>
-  </hyperlinks>
-  <headerFooter/>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>File Name</t>
   </si>
@@ -28,366 +28,282 @@
     <t>Latest Handoff Date</t>
   </si>
   <si>
+    <t>a1111.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2016-04-14 02:38:22</t>
+  </si>
+  <si>
+    <t>empty.yml</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
+  </si>
+  <si>
+    <t>sync.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test.yml</t>
+  </si>
+  <si>
+    <t>test1-aaa.md</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>test2.md</t>
+  </si>
+  <si>
+    <t>testimage.md</t>
+  </si>
+  <si>
+    <t>testmove.md</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
     <t>TOC.yml</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2016-04-01 07:28:09</t>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.md</t>
   </si>
   <si>
     <t>TOC1.yml</t>
   </si>
   <si>
-    <t>Handoff transform failed</t>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Latest Handoff File</t>
+  </si>
+  <si>
+    <t>Latest Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Latest Target File</t>
+  </si>
+  <si>
+    <t>Latest Handback File</t>
+  </si>
+  <si>
+    <t>Latest Handback DateTime</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>Handoff Reason</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-14 02:38:12</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>Handback transform failed</t>
-  </si>
-  <si>
-    <t>2016-04-08 04:07:45</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2016-03-29 06:17:26</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>2016-03-30 05:39:21</t>
-  </si>
-  <si>
-    <t>a1111.md</t>
-  </si>
-  <si>
-    <t>empty.yml</t>
-  </si>
-  <si>
-    <t>2016-04-08 03:36:11</t>
-  </si>
-  <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>2016-04-01 09:36:08</t>
-  </si>
-  <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:36:20</t>
-  </si>
-  <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:46:26</t>
-  </si>
-  <si>
-    <t>sync.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>test.yml</t>
-  </si>
-  <si>
-    <t>2016-04-01 07:38:22</t>
-  </si>
-  <si>
-    <t>test1-aaa.md</t>
-  </si>
-  <si>
-    <t>test1.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
-    <t>test2.md</t>
-  </si>
-  <si>
-    <t>testimage.md</t>
-  </si>
-  <si>
-    <t>2016-03-30 05:39:13</t>
-  </si>
-  <si>
-    <t>testmove.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>Handoff Reason</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
+    <t>Include</t>
   </si>
   <si>
     <t>.yml</t>
   </si>
   <si>
-    <t>b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml</t>
-  </si>
-  <si>
-    <t>2016-03-01 06:46:49</t>
-  </si>
-  <si>
-    <t>2016-03-01 06:56:39</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml</t>
-  </si>
-  <si>
-    <t>Ignored</t>
-  </si>
-  <si>
-    <t>Could not find file 'C:\gittest\master\OpenLocalizationTest\oltest\toc.yml'.</t>
-  </si>
-  <si>
-    <t>.md</t>
+    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.zh-cn.xlf</t>
   </si>
   <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-04-08 04:07:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handback file name:  osmond-test-1.f11b754a5dfc36a6a88309daf550f7387cc99a9b.de-de is different with handoff file name: workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-24 05:24:47</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-01-06 16:02:21</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-08 03:36:02</t>
-  </si>
-  <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 09:35:58</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:36:13</t>
-  </si>
-  <si>
-    <t>2016-02-22 14:58:54</t>
-  </si>
-  <si>
-    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-04 03:46:19</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf</t>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
+  </si>
+  <si>
+    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.de-de.xlf</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
   </si>
   <si>
     <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf</t>
   </si>
   <si>
-    <t>2015-11-06 07:36:12</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-01 07:38:13</t>
-  </si>
-  <si>
-    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-03-29 06:17:00</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2016-02-23 05:34:31</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>e2e\test1\test1.md file with commit id 01f2fddae1e18474afcc560659a69389b391670c can not be found</t>
-  </si>
-  <si>
     <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-04-01 08:37:54</t>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
   </si>
   <si>
     <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf</t>
   </si>
   <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
+  </si>
+  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-03-01 07:36:05</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf</t>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
+  </si>
+  <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf</t>
   </si>
   <si>
     <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf</t>
   </si>
   <si>
-    <t>generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf</t>
-  </si>
-  <si>
-    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf</t>
-  </si>
-  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf</t>
   </si>
   <si>
@@ -397,7 +313,7 @@
     <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf</t>
   </si>
   <si>
-    <t>toc.yml file with commit id 428973b76b259a803a23257dc5eda2007a915f43 can not be found</t>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -544,375 +460,375 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="TOC.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="TOC1.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="workerroletest.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="a1111.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="empty.yml" r:id="rId8"/>
-    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="github.png" r:id="rId10"/>
-    <hyperlink ref="A11" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="Pong.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="sync.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="test-scenario-1.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="test.yml" r:id="rId16"/>
-    <hyperlink ref="A17" display="test1-aaa.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="test1.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="testimage.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="testmove.md" r:id="rId22"/>
+    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="empty.yml" r:id="rId3"/>
+    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="github.png" r:id="rId5"/>
+    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="Pong.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId11"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="testimage.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="testmove.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="TOC.yml" r:id="rId21"/>
+    <hyperlink ref="A22" display="workerroletest.md" r:id="rId22"/>
     <hyperlink ref="A23" display="README.md" r:id="rId23"/>
     <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId24"/>
     <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
+    <hyperlink ref="A26" display="TOC1.yml" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -945,40 +861,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -986,672 +902,631 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="TOC.yml" r:id="rId2"/>
-    <hyperlink ref="D2" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId3"/>
-    <hyperlink ref="F2" display="TOC.yml" r:id="rId4"/>
-    <hyperlink ref="G2" display="b12aecafbe61fff90f5d3f42398ed637c5ac7794.yml" r:id="rId5"/>
-    <hyperlink ref="A3" display="TOC1.yml" r:id="rId6"/>
-    <hyperlink ref="F3" display="TOC1.yml" r:id="rId7"/>
-    <hyperlink ref="G3" display="c8c9fd77f97aa1c89dd17f9bcc82ee38de3dd806.yml" r:id="rId8"/>
-    <hyperlink ref="A4" display="workerroletest.md" r:id="rId9"/>
-    <hyperlink ref="D4" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId10"/>
-    <hyperlink ref="A5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId11"/>
-    <hyperlink ref="D5" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId12"/>
-    <hyperlink ref="A6" display="testworkerrole.md" r:id="rId13"/>
-    <hyperlink ref="D6" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId14"/>
-    <hyperlink ref="A7" display="a1111.md" r:id="rId15"/>
-    <hyperlink ref="D7" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId16"/>
-    <hyperlink ref="A8" display="empty.yml" r:id="rId17"/>
-    <hyperlink ref="D8" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId18"/>
-    <hyperlink ref="A9" display="generate-warning and error.md" r:id="rId19"/>
-    <hyperlink ref="D9" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.zh-cn.xlf" r:id="rId20"/>
-    <hyperlink ref="A10" display="github.png" r:id="rId21"/>
-    <hyperlink ref="D10" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId22"/>
-    <hyperlink ref="A11" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId23"/>
-    <hyperlink ref="D11" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId24"/>
-    <hyperlink ref="A12" display="Ping.md" r:id="rId25"/>
-    <hyperlink ref="D12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId26"/>
-    <hyperlink ref="F12" display="Ping.md" r:id="rId27"/>
-    <hyperlink ref="G12" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId28"/>
-    <hyperlink ref="A13" display="Pong.md" r:id="rId29"/>
-    <hyperlink ref="D13" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf" r:id="rId30"/>
-    <hyperlink ref="A14" display="sync.md" r:id="rId31"/>
-    <hyperlink ref="D14" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId32"/>
-    <hyperlink ref="A15" display="test-scenario-1.md" r:id="rId33"/>
-    <hyperlink ref="D15" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId34"/>
-    <hyperlink ref="F15" display="test-scenario-1.md" r:id="rId35"/>
-    <hyperlink ref="G15" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId36"/>
-    <hyperlink ref="A16" display="test.yml" r:id="rId37"/>
-    <hyperlink ref="D16" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf" r:id="rId38"/>
-    <hyperlink ref="A17" display="test1-aaa.md" r:id="rId39"/>
-    <hyperlink ref="D17" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId40"/>
-    <hyperlink ref="A18" display="test1.md" r:id="rId41"/>
-    <hyperlink ref="D18" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId42"/>
-    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId43"/>
-    <hyperlink ref="D19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId44"/>
-    <hyperlink ref="A20" display="test2.md" r:id="rId45"/>
-    <hyperlink ref="D20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId46"/>
-    <hyperlink ref="F20" display="test2.md" r:id="rId47"/>
-    <hyperlink ref="G20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId48"/>
-    <hyperlink ref="A21" display="testimage.md" r:id="rId49"/>
-    <hyperlink ref="D21" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId50"/>
-    <hyperlink ref="A22" display="testmove.md" r:id="rId51"/>
-    <hyperlink ref="D22" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId52"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId53"/>
-    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId54"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId55"/>
-    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId56"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId57"/>
-    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId58"/>
-    <hyperlink ref="A26" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId59"/>
+    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="empty.yml" r:id="rId4"/>
+    <hyperlink ref="D3" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="github.png" r:id="rId8"/>
+    <hyperlink ref="D5" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId9"/>
+    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Pong.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId20"/>
+    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="testimage.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="testmove.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="TOC.yml" r:id="rId40"/>
+    <hyperlink ref="D21" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="workerroletest.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="TOC1.yml" r:id="rId50"/>
+    <hyperlink ref="D26" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf" r:id="rId51"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1684,678 +1559,672 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test.yml" r:id="rId2"/>
-    <hyperlink ref="D2" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId3"/>
-    <hyperlink ref="F2" display="test.yml" r:id="rId4"/>
-    <hyperlink ref="G2" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId5"/>
-    <hyperlink ref="A3" display="keep-the-ui-thread-responsive.md" r:id="rId6"/>
-    <hyperlink ref="D3" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId7"/>
-    <hyperlink ref="A4" display="testimage.md" r:id="rId8"/>
-    <hyperlink ref="D4" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId9"/>
-    <hyperlink ref="A5" display="a1111.md" r:id="rId10"/>
-    <hyperlink ref="D5" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf" r:id="rId11"/>
-    <hyperlink ref="A6" display="empty.yml" r:id="rId12"/>
-    <hyperlink ref="D6" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId13"/>
-    <hyperlink ref="A7" display="generate-warning and error.md" r:id="rId14"/>
-    <hyperlink ref="D7" display="generate-warning&amp;error.2eda3fc349b1c4e695c8f4aec97de83671e3c92e.de-de.xlf" r:id="rId15"/>
-    <hyperlink ref="A8" display="github.png" r:id="rId16"/>
-    <hyperlink ref="D8" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId17"/>
-    <hyperlink ref="A9" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId18"/>
-    <hyperlink ref="D9" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf" r:id="rId19"/>
-    <hyperlink ref="A10" display="Ping.md" r:id="rId20"/>
-    <hyperlink ref="D10" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId21"/>
-    <hyperlink ref="A11" display="Pong.md" r:id="rId22"/>
-    <hyperlink ref="D11" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf" r:id="rId23"/>
-    <hyperlink ref="A12" display="sync.md" r:id="rId24"/>
-    <hyperlink ref="D12" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId25"/>
-    <hyperlink ref="A13" display="test-scenario-1.md" r:id="rId26"/>
-    <hyperlink ref="D13" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId27"/>
-    <hyperlink ref="A14" display="test1-aaa.md" r:id="rId28"/>
-    <hyperlink ref="D14" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId29"/>
-    <hyperlink ref="A15" display="test1.md" r:id="rId30"/>
-    <hyperlink ref="D15" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId31"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId32"/>
-    <hyperlink ref="D16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId33"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId34"/>
-    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId35"/>
-    <hyperlink ref="A18" display="testmove.md" r:id="rId36"/>
-    <hyperlink ref="D18" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId37"/>
-    <hyperlink ref="A19" display="testworkerrole.md" r:id="rId38"/>
-    <hyperlink ref="D19" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId39"/>
-    <hyperlink ref="A20" display="TOC.yml" r:id="rId40"/>
-    <hyperlink ref="D20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId41"/>
-    <hyperlink ref="A21" display="workerroletest.md" r:id="rId42"/>
-    <hyperlink ref="D21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId43"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId44"/>
-    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId45"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId46"/>
-    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId47"/>
-    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId48"/>
-    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId49"/>
-    <hyperlink ref="A25" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId50"/>
-    <hyperlink ref="A26" display="TOC1.yml" r:id="rId51"/>
+    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="empty.yml" r:id="rId4"/>
+    <hyperlink ref="D3" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.de-de.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.de-de.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="github.png" r:id="rId8"/>
+    <hyperlink ref="D5" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId9"/>
+    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.de-de.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.de-de.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Pong.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.de-de.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.de-de.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.de-de.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId20"/>
+    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.de-de.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.de-de.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.de-de.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.de-de.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.de-de.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.de-de.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.de-de.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="testimage.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.de-de.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="testmove.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.de-de.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.de-de.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="TOC.yml" r:id="rId40"/>
+    <hyperlink ref="D21" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.de-de.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="workerroletest.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.de-de.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="README.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.de-de.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.de-de.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId48"/>
+    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.de-de.xlf" r:id="rId49"/>
+    <hyperlink ref="A26" display="TOC1.yml" r:id="rId50"/>
+    <hyperlink ref="D26" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.de-de.xlf" r:id="rId51"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>File Name</t>
   </si>
@@ -33,6 +33,9 @@
     <t>2016-04-14 03:11:29</t>
   </si>
   <si>
+    <t>1111111111111111.md</t>
+  </si>
+  <si>
     <t>empty.yml</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>test1-aaa.md</t>
   </si>
   <si>
+    <t>2016-04-14 03:27:11</t>
+  </si>
+  <si>
     <t>test1.md</t>
   </si>
   <si>
@@ -78,15 +84,12 @@
     <t>test2.md</t>
   </si>
   <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
     <t>testimage.md</t>
   </si>
   <si>
-    <t>testmove.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
     <t>TOC.yml</t>
   </si>
   <si>
@@ -153,6 +156,9 @@
     <t>Include</t>
   </si>
   <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>.yml</t>
   </si>
   <si>
@@ -210,13 +216,10 @@
     <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf</t>
   </si>
   <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
   </si>
   <si>
     <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
@@ -476,12 +479,12 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>4</v>
@@ -492,7 +495,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>4</v>
@@ -503,7 +506,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>4</v>
@@ -514,7 +517,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>4</v>
@@ -525,7 +528,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>4</v>
@@ -536,7 +539,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>4</v>
@@ -547,7 +550,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>4</v>
@@ -558,7 +561,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>4</v>
@@ -569,7 +572,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>4</v>
@@ -580,7 +583,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>4</v>
@@ -591,7 +594,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>4</v>
@@ -602,7 +605,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>4</v>
@@ -613,7 +616,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>4</v>
@@ -625,24 +628,24 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="empty.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="github.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId11"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="testimage.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="testmove.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId20"/>
+    <hyperlink ref="A3" display="1111111111111111.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="empty.yml" r:id="rId4"/>
+    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="github.png" r:id="rId6"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="Ping.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="Pong.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="sync.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="test-scenario-1.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="test.yml" r:id="rId12"/>
+    <hyperlink ref="A13" display="test1-aaa.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="test1.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="keep-the-ui-thread-responsive.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="test2.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="testworkerrole.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="testimage.md" r:id="rId20"/>
     <hyperlink ref="A21" display="TOC.yml" r:id="rId21"/>
     <hyperlink ref="A22" display="workerroletest.md" r:id="rId22"/>
     <hyperlink ref="A23" display="README.md" r:id="rId23"/>
@@ -681,40 +684,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -722,22 +725,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -745,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
@@ -757,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -768,22 +771,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -791,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
@@ -803,13 +806,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -817,22 +817,25 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>45</v>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -840,22 +843,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -863,22 +866,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -886,22 +889,22 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -909,22 +912,22 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -932,22 +935,22 @@
         <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -955,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -978,363 +981,363 @@
         <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
     <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="empty.yml" r:id="rId4"/>
-    <hyperlink ref="D3" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="generate-warning and error.md" r:id="rId6"/>
-    <hyperlink ref="D4" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="github.png" r:id="rId8"/>
-    <hyperlink ref="D5" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId10"/>
-    <hyperlink ref="D6" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf" r:id="rId11"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId20"/>
-    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId22"/>
-    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="testimage.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="testmove.md" r:id="rId36"/>
-    <hyperlink ref="D19" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId39"/>
+    <hyperlink ref="A3" display="1111111111111111.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="empty.yml" r:id="rId6"/>
+    <hyperlink ref="D4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId8"/>
+    <hyperlink ref="D5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="github.png" r:id="rId10"/>
+    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId11"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="Ping.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="Pong.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="sync.md" r:id="rId18"/>
+    <hyperlink ref="D10" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test-scenario-1.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test.yml" r:id="rId22"/>
+    <hyperlink ref="D12" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="test1-aaa.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="test1.md" r:id="rId26"/>
+    <hyperlink ref="D14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="keep-the-ui-thread-responsive.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="test2.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="testworkerrole.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="testimage.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId39"/>
     <hyperlink ref="A21" display="TOC.yml" r:id="rId40"/>
     <hyperlink ref="D21" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId41"/>
     <hyperlink ref="A22" display="workerroletest.md" r:id="rId42"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>File Name</t>
   </si>
@@ -27,87 +27,90 @@
     <t>a1111.md</t>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2016-04-14 03:11:29</t>
+  </si>
+  <si>
+    <t>1111111111111111.md</t>
+  </si>
+  <si>
+    <t>empty.yml</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>Ping.md</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
+  </si>
+  <si>
+    <t>sync.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test.yml</t>
+  </si>
+  <si>
+    <t>test1-aaa.md</t>
+  </si>
+  <si>
+    <t>2016-04-14 03:27:11</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>test2.md</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
+    <t>testimage.md</t>
+  </si>
+  <si>
+    <t>TOC.yml</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.md</t>
+  </si>
+  <si>
+    <t>TOC1.yml</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2016-04-14 03:11:29</t>
-  </si>
-  <si>
-    <t>1111111111111111.md</t>
-  </si>
-  <si>
-    <t>empty.yml</t>
-  </si>
-  <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>Ping.md</t>
-  </si>
-  <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
-    <t>sync.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>test.yml</t>
-  </si>
-  <si>
-    <t>test1-aaa.md</t>
-  </si>
-  <si>
-    <t>2016-04-14 03:27:11</t>
-  </si>
-  <si>
-    <t>test1.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
-    <t>test2.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>testimage.md</t>
-  </si>
-  <si>
-    <t>TOC.yml</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.md</t>
-  </si>
-  <si>
-    <t>TOC1.yml</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -150,94 +153,97 @@
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
+    <t>2016-04-14 04:17:28</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>.yml</t>
+  </si>
+  <si>
+    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>.yml</t>
-  </si>
-  <si>
-    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf</t>
   </si>
 </sst>
 </file>
@@ -468,18 +474,18 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -619,7 +625,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -632,26 +638,26 @@
     <hyperlink ref="A4" display="empty.yml" r:id="rId4"/>
     <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId5"/>
     <hyperlink ref="A6" display="github.png" r:id="rId6"/>
-    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Ping.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="Pong.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="sync.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="test-scenario-1.md" r:id="rId11"/>
-    <hyperlink ref="A12" display="test.yml" r:id="rId12"/>
-    <hyperlink ref="A13" display="test1-aaa.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="test1.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="keep-the-ui-thread-responsive.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="test2.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="testworkerrole.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="testimage.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="TOC.yml" r:id="rId21"/>
-    <hyperlink ref="A22" display="workerroletest.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="TOC1.yml" r:id="rId26"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="Pong.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId10"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId11"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="testworkerrole.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="testimage.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="TOC.yml" r:id="rId20"/>
+    <hyperlink ref="A21" display="workerroletest.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="TOC1.yml" r:id="rId25"/>
+    <hyperlink ref="A26" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -684,40 +690,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -725,22 +731,28 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -748,22 +760,28 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -771,22 +789,28 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -794,22 +818,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -817,25 +847,31 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -843,22 +879,28 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -866,22 +908,28 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -889,22 +937,28 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -912,22 +966,28 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -935,22 +995,28 @@
         <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -958,45 +1024,57 @@
         <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1004,22 +1082,28 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -1027,22 +1111,28 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -1050,22 +1140,28 @@
         <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
@@ -1073,22 +1169,28 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1096,22 +1198,28 @@
         <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1119,22 +1227,28 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -1142,22 +1256,28 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
@@ -1165,22 +1285,28 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1188,22 +1314,28 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1211,22 +1343,28 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -1234,22 +1372,28 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -1257,22 +1401,28 @@
         <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="H25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -1280,76 +1430,124 @@
         <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
     <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId3"/>
-    <hyperlink ref="A3" display="1111111111111111.md" r:id="rId4"/>
-    <hyperlink ref="D3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId5"/>
-    <hyperlink ref="A4" display="empty.yml" r:id="rId6"/>
-    <hyperlink ref="D4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId7"/>
-    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId8"/>
-    <hyperlink ref="D5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId9"/>
-    <hyperlink ref="A6" display="github.png" r:id="rId10"/>
-    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId11"/>
-    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId12"/>
-    <hyperlink ref="D7" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf" r:id="rId13"/>
-    <hyperlink ref="A8" display="Ping.md" r:id="rId14"/>
-    <hyperlink ref="D8" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId15"/>
-    <hyperlink ref="A9" display="Pong.md" r:id="rId16"/>
-    <hyperlink ref="D9" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId17"/>
-    <hyperlink ref="A10" display="sync.md" r:id="rId18"/>
-    <hyperlink ref="D10" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId19"/>
-    <hyperlink ref="A11" display="test-scenario-1.md" r:id="rId20"/>
-    <hyperlink ref="D11" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId21"/>
-    <hyperlink ref="A12" display="test.yml" r:id="rId22"/>
-    <hyperlink ref="D12" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId23"/>
-    <hyperlink ref="A13" display="test1-aaa.md" r:id="rId24"/>
-    <hyperlink ref="D13" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId25"/>
-    <hyperlink ref="A14" display="test1.md" r:id="rId26"/>
-    <hyperlink ref="D14" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId27"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId28"/>
-    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId29"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId30"/>
-    <hyperlink ref="D16" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId31"/>
-    <hyperlink ref="A17" display="keep-the-ui-thread-responsive.md" r:id="rId32"/>
-    <hyperlink ref="D17" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId33"/>
-    <hyperlink ref="A18" display="test2.md" r:id="rId34"/>
-    <hyperlink ref="D18" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId35"/>
-    <hyperlink ref="A19" display="testworkerrole.md" r:id="rId36"/>
-    <hyperlink ref="D19" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId37"/>
-    <hyperlink ref="A20" display="testimage.md" r:id="rId38"/>
-    <hyperlink ref="D20" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId39"/>
-    <hyperlink ref="A21" display="TOC.yml" r:id="rId40"/>
-    <hyperlink ref="D21" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId41"/>
-    <hyperlink ref="A22" display="workerroletest.md" r:id="rId42"/>
-    <hyperlink ref="D22" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId43"/>
-    <hyperlink ref="A23" display="README.md" r:id="rId44"/>
-    <hyperlink ref="D23" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId45"/>
-    <hyperlink ref="A24" display="testfirstlevel.md" r:id="rId46"/>
-    <hyperlink ref="D24" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId47"/>
-    <hyperlink ref="A25" display="testfirstlevel2.md" r:id="rId48"/>
-    <hyperlink ref="D25" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId49"/>
-    <hyperlink ref="A26" display="TOC1.yml" r:id="rId50"/>
-    <hyperlink ref="D26" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId51"/>
+    <hyperlink ref="F2" display="a1111.md" r:id="rId4"/>
+    <hyperlink ref="G2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf" r:id="rId5"/>
+    <hyperlink ref="A3" display="1111111111111111.md" r:id="rId6"/>
+    <hyperlink ref="D3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId7"/>
+    <hyperlink ref="F3" display="1111111111111111.md" r:id="rId8"/>
+    <hyperlink ref="G3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId9"/>
+    <hyperlink ref="A4" display="empty.yml" r:id="rId10"/>
+    <hyperlink ref="D4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="empty.yml" r:id="rId12"/>
+    <hyperlink ref="G4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId14"/>
+    <hyperlink ref="D5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="generate-warning and error.md" r:id="rId16"/>
+    <hyperlink ref="G5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="github.png" r:id="rId18"/>
+    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId19"/>
+    <hyperlink ref="F6" display="github.png" r:id="rId20"/>
+    <hyperlink ref="G6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId21"/>
+    <hyperlink ref="A7" display="Ping.md" r:id="rId22"/>
+    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId23"/>
+    <hyperlink ref="F7" display="Ping.md" r:id="rId24"/>
+    <hyperlink ref="G7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId25"/>
+    <hyperlink ref="A8" display="Pong.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="Pong.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="sync.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="sync.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId34"/>
+    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="test-scenario-1.md" r:id="rId36"/>
+    <hyperlink ref="G10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="test.yml" r:id="rId38"/>
+    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="test.yml" r:id="rId40"/>
+    <hyperlink ref="G11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="test1-aaa.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="test1.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="test1.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId50"/>
+    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId52"/>
+    <hyperlink ref="G14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="keep-the-ui-thread-responsive.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="test2.md" r:id="rId62"/>
+    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId63"/>
+    <hyperlink ref="F17" display="test2.md" r:id="rId64"/>
+    <hyperlink ref="G17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="testworkerrole.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="testworkerrole.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="testimage.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="testimage.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="TOC.yml" r:id="rId74"/>
+    <hyperlink ref="D20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="TOC.yml" r:id="rId76"/>
+    <hyperlink ref="G20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="workerroletest.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="workerroletest.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId81"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="README.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId86"/>
+    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="testfirstlevel.md" r:id="rId88"/>
+    <hyperlink ref="G23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId91"/>
+    <hyperlink ref="F24" display="testfirstlevel2.md" r:id="rId92"/>
+    <hyperlink ref="G24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId93"/>
+    <hyperlink ref="A25" display="TOC1.yml" r:id="rId94"/>
+    <hyperlink ref="D25" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId95"/>
+    <hyperlink ref="F25" display="TOC1.yml" r:id="rId96"/>
+    <hyperlink ref="G25" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId97"/>
+    <hyperlink ref="A26" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId98"/>
+    <hyperlink ref="D26" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf" r:id="rId99"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -6,18 +6,22 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="pl-pl" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="pl-pl" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
     <t>pl-pl</t>
   </si>
   <si>
@@ -27,183 +31,277 @@
     <t>a1111.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-04-14 08:22:06</t>
+  </si>
+  <si>
+    <t>1111111111111111.md</t>
+  </si>
+  <si>
+    <t>aaaaalllllladnasfhaskdf.md</t>
+  </si>
+  <si>
+    <t>empty.yml</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
+    <t>sync.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test.yml</t>
+  </si>
+  <si>
+    <t>test1-aaa.md</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>testimage.md</t>
+  </si>
+  <si>
+    <t>TOC.yml</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>test2.md</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.md</t>
+  </si>
+  <si>
+    <t>TOC1.yml</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
     <t>2016-04-14 03:11:29</t>
   </si>
   <si>
-    <t>1111111111111111.md</t>
-  </si>
-  <si>
-    <t>empty.yml</t>
-  </si>
-  <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Latest Handoff File</t>
+  </si>
+  <si>
+    <t>Latest Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Latest Target File</t>
+  </si>
+  <si>
+    <t>Latest Handback File</t>
+  </si>
+  <si>
+    <t>Latest Handback DateTime</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>Handoff Reason</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>aaaaalllllladnasfhaskdf.b712132d6bc9ac235759eabf0c713565d8caf4f5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.yml</t>
+  </si>
+  <si>
+    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>sync.44dca3b39987ac4b23775a64e99fefda5e04cd9a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.739f4fcaaf5f2b717808eb786e1fca559e71a38a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test.01982eb1a1c91b42b2583d594f9a1dd2c617d011.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.b411795040929dbbaf3f33c27a402c62b2fe36f6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1.c9599a0c11b2b514a282fe034f5f19637133e96e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testimage.cc8aa6daa73b9c3c601469290ea85d73a6be066f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.bbdc8b4a7868aa8c7af6d531b2eecc2cfad98724.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.78f57a3d2c18a5cf64cdff8dfa96e56546fb8f0a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.6a85a19fefa00cfb5437c78feb49e19cda9e290e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-14 04:17:28</t>
+  </si>
+  <si>
+    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
   </si>
   <si>
     <t>Ping.md</t>
   </si>
   <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
-    <t>sync.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>test.yml</t>
-  </si>
-  <si>
-    <t>test1-aaa.md</t>
+    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
+  </si>
+  <si>
+    <t>IsDependency</t>
+  </si>
+  <si>
+    <t>e2e\testimage.md,
+e2e\move\testimage.md</t>
+  </si>
+  <si>
+    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
   </si>
   <si>
     <t>2016-04-14 03:27:11</t>
   </si>
   <si>
-    <t>test1.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
-    <t>test2.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>testimage.md</t>
-  </si>
-  <si>
-    <t>TOC.yml</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.md</t>
-  </si>
-  <si>
-    <t>TOC1.yml</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>Handoff Reason</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>2016-04-14 04:17:28</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>.yml</t>
-  </si>
-  <si>
-    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>c842d8537f73ae67d662c3d33c5d93a0b069dada.png</t>
-  </si>
-  <si>
-    <t>IsDependency</t>
-  </si>
-  <si>
-    <t>e2e\testimage.md</t>
-  </si>
-  <si>
-    <t>Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf</t>
+    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
   </si>
   <si>
     <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf</t>
   </si>
   <si>
-    <t>sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
-  </si>
-  <si>
     <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf</t>
   </si>
   <si>
@@ -219,15 +317,6 @@
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
   </si>
   <si>
-    <t>testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf</t>
-  </si>
-  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
   </si>
   <si>
@@ -241,9 +330,6 @@
   </si>
   <si>
     <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -300,7 +386,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:L26" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L25" headerRowCount="1">
+  <autoFilter ref="A1:L25"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Latest Handoff File"/>
+    <tableColumn id="5" name="Latest Handoff Datetime"/>
+    <tableColumn id="6" name="Latest Target File"/>
+    <tableColumn id="7" name="Latest Handback File"/>
+    <tableColumn id="8" name="Latest Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="pl-pl" displayName="pl_pl" ref="A1:L26" headerRowCount="1">
   <autoFilter ref="A1:L26"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
@@ -320,13 +427,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C26" headerRowCount="1">
-  <autoFilter ref="A1:C26"/>
-  <tableColumns count="3">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D26" headerRowCount="1">
+  <autoFilter ref="A1:D26"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="pl-pl"/>
-    <tableColumn id="3" name="Latest Handoff Date"/>
+    <tableColumn id="2" name="zh-cn"/>
+    <tableColumn id="3" name="pl-pl"/>
+    <tableColumn id="4" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -334,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -343,6 +451,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -355,309 +464,387 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
     <hyperlink ref="A3" display="1111111111111111.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="empty.yml" r:id="rId4"/>
-    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="github.png" r:id="rId6"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId9"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId10"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId11"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId12"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId13"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId14"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="testworkerrole.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="testimage.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="TOC.yml" r:id="rId20"/>
-    <hyperlink ref="A21" display="workerroletest.md" r:id="rId21"/>
+    <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="empty.yml" r:id="rId5"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="sync.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId9"/>
+    <hyperlink ref="A10" display="test.yml" r:id="rId10"/>
+    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId11"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId12"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId13"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId14"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId15"/>
+    <hyperlink ref="A16" display="Pong.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId21"/>
     <hyperlink ref="A22" display="README.md" r:id="rId22"/>
     <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
     <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
     <hyperlink ref="A25" display="TOC1.yml" r:id="rId25"/>
-    <hyperlink ref="A26" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId26"/>
+    <hyperlink ref="A26" display="github.png" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -667,6 +854,676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="1111111111111111.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="aaaaalllllladnasfhaskdf.b712132d6bc9ac235759eabf0c713565d8caf4f5.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="empty.yml" r:id="rId8"/>
+    <hyperlink ref="D5" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="sync.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="sync.44dca3b39987ac4b23775a64e99fefda5e04cd9a.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="test-scenario-1.739f4fcaaf5f2b717808eb786e1fca559e71a38a.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test.yml" r:id="rId18"/>
+    <hyperlink ref="D10" display="test.01982eb1a1c91b42b2583d594f9a1dd2c617d011.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="test1-aaa.b411795040929dbbaf3f33c27a402c62b2fe36f6.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="test1.c9599a0c11b2b514a282fe034f5f19637133e96e.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="testimage.cc8aa6daa73b9c3c601469290ea85d73a6be066f.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
+    <hyperlink ref="D14" display="TOC.bbdc8b4a7868aa8c7af6d531b2eecc2cfad98724.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="workerroletest.78f57a3d2c18a5cf64cdff8dfa96e56546fb8f0a.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="Pong.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="testworkerrole.6a85a19fefa00cfb5437c78feb49e19cda9e290e.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="TOC1.yml" r:id="rId48"/>
+    <hyperlink ref="D25" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf" r:id="rId49"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L26"/>
   <sheetViews>
@@ -690,762 +1547,762 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>47</v>
+        <v>83</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1458,78 +2315,78 @@
     <hyperlink ref="D3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId7"/>
     <hyperlink ref="F3" display="1111111111111111.md" r:id="rId8"/>
     <hyperlink ref="G3" display="testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf" r:id="rId9"/>
-    <hyperlink ref="A4" display="empty.yml" r:id="rId10"/>
-    <hyperlink ref="D4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId11"/>
-    <hyperlink ref="F4" display="empty.yml" r:id="rId12"/>
-    <hyperlink ref="G4" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId13"/>
-    <hyperlink ref="A5" display="generate-warning and error.md" r:id="rId14"/>
-    <hyperlink ref="D5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId15"/>
-    <hyperlink ref="F5" display="generate-warning and error.md" r:id="rId16"/>
-    <hyperlink ref="G5" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId17"/>
-    <hyperlink ref="A6" display="github.png" r:id="rId18"/>
-    <hyperlink ref="D6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId19"/>
-    <hyperlink ref="F6" display="github.png" r:id="rId20"/>
-    <hyperlink ref="G6" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId21"/>
-    <hyperlink ref="A7" display="Ping.md" r:id="rId22"/>
-    <hyperlink ref="D7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId23"/>
-    <hyperlink ref="F7" display="Ping.md" r:id="rId24"/>
-    <hyperlink ref="G7" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId25"/>
-    <hyperlink ref="A8" display="Pong.md" r:id="rId26"/>
-    <hyperlink ref="D8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId27"/>
-    <hyperlink ref="F8" display="Pong.md" r:id="rId28"/>
-    <hyperlink ref="G8" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId29"/>
-    <hyperlink ref="A9" display="sync.md" r:id="rId30"/>
-    <hyperlink ref="D9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId31"/>
-    <hyperlink ref="F9" display="sync.md" r:id="rId32"/>
-    <hyperlink ref="G9" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId33"/>
-    <hyperlink ref="A10" display="test-scenario-1.md" r:id="rId34"/>
-    <hyperlink ref="D10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId35"/>
-    <hyperlink ref="F10" display="test-scenario-1.md" r:id="rId36"/>
-    <hyperlink ref="G10" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId37"/>
-    <hyperlink ref="A11" display="test.yml" r:id="rId38"/>
-    <hyperlink ref="D11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId39"/>
-    <hyperlink ref="F11" display="test.yml" r:id="rId40"/>
-    <hyperlink ref="G11" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId41"/>
-    <hyperlink ref="A12" display="test1-aaa.md" r:id="rId42"/>
-    <hyperlink ref="D12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId43"/>
-    <hyperlink ref="F12" display="test1-aaa.md" r:id="rId44"/>
-    <hyperlink ref="G12" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId45"/>
-    <hyperlink ref="A13" display="test1.md" r:id="rId46"/>
-    <hyperlink ref="D13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId47"/>
-    <hyperlink ref="F13" display="test1.md" r:id="rId48"/>
-    <hyperlink ref="G13" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId49"/>
-    <hyperlink ref="A14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId50"/>
-    <hyperlink ref="D14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId51"/>
-    <hyperlink ref="F14" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId52"/>
-    <hyperlink ref="G14" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId53"/>
-    <hyperlink ref="A15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId54"/>
-    <hyperlink ref="D15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId55"/>
-    <hyperlink ref="F15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId56"/>
-    <hyperlink ref="G15" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId57"/>
-    <hyperlink ref="A16" display="keep-the-ui-thread-responsive.md" r:id="rId58"/>
-    <hyperlink ref="D16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId59"/>
-    <hyperlink ref="F16" display="keep-the-ui-thread-responsive.md" r:id="rId60"/>
-    <hyperlink ref="G16" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId61"/>
-    <hyperlink ref="A17" display="test2.md" r:id="rId62"/>
-    <hyperlink ref="D17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId63"/>
-    <hyperlink ref="F17" display="test2.md" r:id="rId64"/>
-    <hyperlink ref="G17" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId65"/>
-    <hyperlink ref="A18" display="testworkerrole.md" r:id="rId66"/>
-    <hyperlink ref="D18" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId67"/>
-    <hyperlink ref="F18" display="testworkerrole.md" r:id="rId68"/>
-    <hyperlink ref="G18" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId69"/>
-    <hyperlink ref="A19" display="testimage.md" r:id="rId70"/>
-    <hyperlink ref="D19" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId71"/>
-    <hyperlink ref="F19" display="testimage.md" r:id="rId72"/>
-    <hyperlink ref="G19" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId73"/>
-    <hyperlink ref="A20" display="TOC.yml" r:id="rId74"/>
-    <hyperlink ref="D20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId75"/>
-    <hyperlink ref="F20" display="TOC.yml" r:id="rId76"/>
-    <hyperlink ref="G20" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId77"/>
-    <hyperlink ref="A21" display="workerroletest.md" r:id="rId78"/>
-    <hyperlink ref="D21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId79"/>
-    <hyperlink ref="F21" display="workerroletest.md" r:id="rId80"/>
-    <hyperlink ref="G21" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId81"/>
+    <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId10"/>
+    <hyperlink ref="D4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId11"/>
+    <hyperlink ref="F4" display="Ping.md" r:id="rId12"/>
+    <hyperlink ref="G4" display="Ping.95b58797b320fac8f901ea501ac186551882a36c.pl-pl.xlf" r:id="rId13"/>
+    <hyperlink ref="A5" display="empty.yml" r:id="rId14"/>
+    <hyperlink ref="D5" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId15"/>
+    <hyperlink ref="F5" display="empty.yml" r:id="rId16"/>
+    <hyperlink ref="G5" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf" r:id="rId17"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId18"/>
+    <hyperlink ref="D6" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId19"/>
+    <hyperlink ref="F6" display="generate-warning and error.md" r:id="rId20"/>
+    <hyperlink ref="G6" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.pl-pl.xlf" r:id="rId21"/>
+    <hyperlink ref="A7" display="github.png" r:id="rId22"/>
+    <hyperlink ref="D7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId23"/>
+    <hyperlink ref="F7" display="github.png" r:id="rId24"/>
+    <hyperlink ref="G7" display="c842d8537f73ae67d662c3d33c5d93a0b069dada.png" r:id="rId25"/>
+    <hyperlink ref="A8" display="sync.md" r:id="rId26"/>
+    <hyperlink ref="D8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId27"/>
+    <hyperlink ref="F8" display="sync.md" r:id="rId28"/>
+    <hyperlink ref="G8" display="sync.4881ec8b007605f9d1b860476d234d20da118439.pl-pl.xlf" r:id="rId29"/>
+    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId30"/>
+    <hyperlink ref="D9" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId31"/>
+    <hyperlink ref="F9" display="test-scenario-1.md" r:id="rId32"/>
+    <hyperlink ref="G9" display="test-scenario-1.974d721459da0ff5eab675ae57b2ea10d235c32c.pl-pl.xlf" r:id="rId33"/>
+    <hyperlink ref="A10" display="test.yml" r:id="rId34"/>
+    <hyperlink ref="D10" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId35"/>
+    <hyperlink ref="F10" display="test.yml" r:id="rId36"/>
+    <hyperlink ref="G10" display="test.923206bb82dbf3e3e0eb9ce21d5fde1d0b3b472b.pl-pl.xlf" r:id="rId37"/>
+    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId38"/>
+    <hyperlink ref="D11" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId39"/>
+    <hyperlink ref="F11" display="test1-aaa.md" r:id="rId40"/>
+    <hyperlink ref="G11" display="test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf" r:id="rId41"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId42"/>
+    <hyperlink ref="D12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId43"/>
+    <hyperlink ref="F12" display="test1.md" r:id="rId44"/>
+    <hyperlink ref="G12" display="test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf" r:id="rId45"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId46"/>
+    <hyperlink ref="D13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId47"/>
+    <hyperlink ref="F13" display="testimage.md" r:id="rId48"/>
+    <hyperlink ref="G13" display="testimage.e4fe78243ea29c8cf8db612f5ed26f5eefd71ea9.pl-pl.xlf" r:id="rId49"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId50"/>
+    <hyperlink ref="D14" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId51"/>
+    <hyperlink ref="F14" display="TOC.yml" r:id="rId52"/>
+    <hyperlink ref="G14" display="TOC.abc1ff9cd7077188122186bb8918c8ba02a02864.pl-pl.xlf" r:id="rId53"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId54"/>
+    <hyperlink ref="D15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId55"/>
+    <hyperlink ref="F15" display="workerroletest.md" r:id="rId56"/>
+    <hyperlink ref="G15" display="workerroletest.dc40fb5e16870e53471bb0020c81ccf8829300ba.pl-pl.xlf" r:id="rId57"/>
+    <hyperlink ref="A16" display="Pong.md" r:id="rId58"/>
+    <hyperlink ref="D16" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId59"/>
+    <hyperlink ref="F16" display="Pong.md" r:id="rId60"/>
+    <hyperlink ref="G16" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf" r:id="rId61"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId62"/>
+    <hyperlink ref="D17" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId63"/>
+    <hyperlink ref="F17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId64"/>
+    <hyperlink ref="G17" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.pl-pl.xlf" r:id="rId65"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId66"/>
+    <hyperlink ref="D18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId67"/>
+    <hyperlink ref="F18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId68"/>
+    <hyperlink ref="G18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.pl-pl.xlf" r:id="rId69"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId70"/>
+    <hyperlink ref="D19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId71"/>
+    <hyperlink ref="F19" display="keep-the-ui-thread-responsive.md" r:id="rId72"/>
+    <hyperlink ref="G19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.pl-pl.xlf" r:id="rId73"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId74"/>
+    <hyperlink ref="D20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId75"/>
+    <hyperlink ref="F20" display="test2.md" r:id="rId76"/>
+    <hyperlink ref="G20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.pl-pl.xlf" r:id="rId77"/>
+    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId78"/>
+    <hyperlink ref="D21" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId79"/>
+    <hyperlink ref="F21" display="testworkerrole.md" r:id="rId80"/>
+    <hyperlink ref="G21" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId81"/>
     <hyperlink ref="A22" display="README.md" r:id="rId82"/>
     <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId83"/>
     <hyperlink ref="F22" display="README.md" r:id="rId84"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>File Name</t>
   </si>
@@ -93,19 +93,22 @@
     <t>testworkerrole.md</t>
   </si>
   <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
+    <t>TOC1.yml</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>README.md</t>
   </si>
   <si>
-    <t>testfirstlevel.md</t>
-  </si>
-  <si>
-    <t>TOC1.yml</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
+    <t>2016-04-14 10:49:22</t>
   </si>
   <si>
     <t>testfirstlevel2.md</t>
@@ -235,19 +238,19 @@
     <t>testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf</t>
   </si>
   <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf</t>
@@ -610,7 +613,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -618,24 +621,24 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +663,10 @@
     <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId19"/>
     <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
     <hyperlink ref="A21" display="testworkerrole.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="TOC1.yml" r:id="rId24"/>
-    <hyperlink ref="A25" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId25"/>
+    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="TOC1.yml" r:id="rId23"/>
+    <hyperlink ref="A24" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="README.md" r:id="rId25"/>
     <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
@@ -697,40 +700,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -738,13 +741,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -753,13 +756,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -767,13 +770,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
@@ -782,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -796,28 +799,28 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -825,13 +828,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
@@ -840,13 +843,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -854,13 +857,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -869,13 +872,13 @@
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -883,13 +886,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
@@ -898,16 +901,16 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -915,13 +918,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -930,13 +933,13 @@
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -944,13 +947,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
@@ -959,13 +962,13 @@
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -973,13 +976,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
@@ -988,13 +991,13 @@
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -1002,13 +1005,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1017,13 +1020,13 @@
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -1031,13 +1034,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
@@ -1046,13 +1049,13 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -1060,13 +1063,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
@@ -1075,13 +1078,13 @@
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1089,13 +1092,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
@@ -1104,13 +1107,13 @@
         <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -1118,13 +1121,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
@@ -1133,13 +1136,13 @@
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1150,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
@@ -1162,13 +1165,13 @@
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1176,13 +1179,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
@@ -1191,13 +1194,13 @@
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1205,13 +1208,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>5</v>
@@ -1220,13 +1223,13 @@
         <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1234,13 +1237,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>5</v>
@@ -1249,13 +1252,13 @@
         <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1263,13 +1266,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
@@ -1278,13 +1281,13 @@
         <v>24</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -1292,13 +1295,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>5</v>
@@ -1307,13 +1310,13 @@
         <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -1321,13 +1324,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
@@ -1336,13 +1339,13 @@
         <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1350,13 +1353,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>5</v>
@@ -1365,13 +1368,13 @@
         <v>27</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1379,80 +1382,80 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>5</v>
+      <c r="G25" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1537,20 +1540,20 @@
     <hyperlink ref="D21" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId79"/>
     <hyperlink ref="F21" display="testworkerrole.md" r:id="rId80"/>
     <hyperlink ref="G21" display="testworkerrole.b0a3cfcb60a89bf143be3196ab71d7fea2c0e324.pl-pl.xlf" r:id="rId81"/>
-    <hyperlink ref="A22" display="README.md" r:id="rId82"/>
-    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId83"/>
-    <hyperlink ref="F22" display="README.md" r:id="rId84"/>
-    <hyperlink ref="G22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId85"/>
-    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId86"/>
-    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId87"/>
-    <hyperlink ref="F23" display="testfirstlevel.md" r:id="rId88"/>
-    <hyperlink ref="G23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId89"/>
-    <hyperlink ref="A24" display="TOC1.yml" r:id="rId90"/>
-    <hyperlink ref="D24" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId91"/>
-    <hyperlink ref="F24" display="TOC1.yml" r:id="rId92"/>
-    <hyperlink ref="G24" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId93"/>
-    <hyperlink ref="A25" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId94"/>
-    <hyperlink ref="D25" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf" r:id="rId95"/>
+    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId82"/>
+    <hyperlink ref="D22" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId83"/>
+    <hyperlink ref="F22" display="testfirstlevel.md" r:id="rId84"/>
+    <hyperlink ref="G22" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.pl-pl.xlf" r:id="rId85"/>
+    <hyperlink ref="A23" display="TOC1.yml" r:id="rId86"/>
+    <hyperlink ref="D23" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId87"/>
+    <hyperlink ref="F23" display="TOC1.yml" r:id="rId88"/>
+    <hyperlink ref="G23" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.pl-pl.xlf" r:id="rId89"/>
+    <hyperlink ref="A24" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId90"/>
+    <hyperlink ref="D24" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf" r:id="rId91"/>
+    <hyperlink ref="A25" display="README.md" r:id="rId92"/>
+    <hyperlink ref="D25" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId93"/>
+    <hyperlink ref="F25" display="README.md" r:id="rId94"/>
+    <hyperlink ref="G25" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf" r:id="rId95"/>
     <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId96"/>
     <hyperlink ref="D26" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf" r:id="rId97"/>
     <hyperlink ref="F26" display="testfirstlevel2.md" r:id="rId98"/>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -6,18 +6,22 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="pl-pl" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="pl-pl" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
     <t>pl-pl</t>
   </si>
   <si>
@@ -27,96 +31,96 @@
     <t>a1111.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-04-14 08:22:06</t>
+  </si>
+  <si>
+    <t>1111111111111111.md</t>
+  </si>
+  <si>
+    <t>aaaaalllllladnasfhaskdf.md</t>
+  </si>
+  <si>
+    <t>empty.yml</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
+    <t>sync.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test.yml</t>
+  </si>
+  <si>
+    <t>test1-aaa.md</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>testimage.md</t>
+  </si>
+  <si>
+    <t>TOC.yml</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>test2.md</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>2016-04-15 03:57:02</t>
+  </si>
+  <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.md</t>
+  </si>
+  <si>
+    <t>TOC1.yml</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
     <t>2016-04-14 03:11:29</t>
   </si>
   <si>
-    <t>1111111111111111.md</t>
-  </si>
-  <si>
-    <t>aaaaalllllladnasfhaskdf.md</t>
-  </si>
-  <si>
-    <t>empty.yml</t>
-  </si>
-  <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>sync.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>test.yml</t>
-  </si>
-  <si>
-    <t>test1-aaa.md</t>
-  </si>
-  <si>
-    <t>2016-04-14 03:27:11</t>
-  </si>
-  <si>
-    <t>test1.md</t>
-  </si>
-  <si>
-    <t>testimage.md</t>
-  </si>
-  <si>
-    <t>TOC.yml</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
-    <t>test2.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel.md</t>
-  </si>
-  <si>
-    <t>TOC1.yml</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>2016-04-14 10:49:22</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.md</t>
-  </si>
-  <si>
-    <t>2016-04-14 08:29:38</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -156,15 +160,93 @@
     <t>.md</t>
   </si>
   <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>aaaaalllllladnasfhaskdf.b712132d6bc9ac235759eabf0c713565d8caf4f5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.yml</t>
+  </si>
+  <si>
+    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>sync.44dca3b39987ac4b23775a64e99fefda5e04cd9a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.739f4fcaaf5f2b717808eb786e1fca559e71a38a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test.01982eb1a1c91b42b2583d594f9a1dd2c617d011.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.b411795040929dbbaf3f33c27a402c62b2fe36f6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1.c9599a0c11b2b514a282fe034f5f19637133e96e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testimage.cc8aa6daa73b9c3c601469290ea85d73a6be066f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.bbdc8b4a7868aa8c7af6d531b2eecc2cfad98724.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.78f57a3d2c18a5cf64cdff8dfa96e56546fb8f0a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.6a85a19fefa00cfb5437c78feb49e19cda9e290e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
     <t>2016-04-14 04:17:28</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
   </si>
   <si>
@@ -172,9 +254,6 @@
   </si>
   <si>
     <t>Ping.md</t>
-  </si>
-  <si>
-    <t>.yml</t>
   </si>
   <si>
     <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf</t>
@@ -208,6 +287,9 @@
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
   </si>
   <si>
+    <t>2016-04-14 03:27:11</t>
+  </si>
+  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
   </si>
   <si>
@@ -247,13 +329,16 @@
     <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
   </si>
   <si>
+    <t>2016-04-14 10:49:22</t>
+  </si>
+  <si>
     <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-14 08:29:38</t>
   </si>
 </sst>
 </file>
@@ -310,7 +395,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:L26" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L25" headerRowCount="1">
+  <autoFilter ref="A1:L25"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Latest Handoff File"/>
+    <tableColumn id="5" name="Latest Handoff Datetime"/>
+    <tableColumn id="6" name="Latest Target File"/>
+    <tableColumn id="7" name="Latest Handback File"/>
+    <tableColumn id="8" name="Latest Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="pl-pl" displayName="pl_pl" ref="A1:L26" headerRowCount="1">
   <autoFilter ref="A1:L26"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
@@ -330,13 +436,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C26" headerRowCount="1">
-  <autoFilter ref="A1:C26"/>
-  <tableColumns count="3">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D26" headerRowCount="1">
+  <autoFilter ref="A1:D26"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="pl-pl"/>
-    <tableColumn id="3" name="Latest Handoff Date"/>
+    <tableColumn id="2" name="zh-cn"/>
+    <tableColumn id="3" name="pl-pl"/>
+    <tableColumn id="4" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -344,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -353,6 +460,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -365,269 +473,344 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -635,10 +818,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +834,7 @@
     <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId4"/>
     <hyperlink ref="A5" display="empty.yml" r:id="rId5"/>
     <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="github.png" r:id="rId7"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId7"/>
     <hyperlink ref="A8" display="sync.md" r:id="rId8"/>
     <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId9"/>
     <hyperlink ref="A10" display="test.yml" r:id="rId10"/>
@@ -663,11 +849,11 @@
     <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId19"/>
     <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
     <hyperlink ref="A21" display="testworkerrole.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="testfirstlevel.md" r:id="rId22"/>
-    <hyperlink ref="A23" display="TOC1.yml" r:id="rId23"/>
-    <hyperlink ref="A24" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="README.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId26"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="TOC1.yml" r:id="rId25"/>
+    <hyperlink ref="A26" display="github.png" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -677,6 +863,676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="a1111.md" r:id="rId2"/>
+    <hyperlink ref="D2" display="a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="A3" display="1111111111111111.md" r:id="rId4"/>
+    <hyperlink ref="D3" display="1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.zh-cn.xlf" r:id="rId5"/>
+    <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId6"/>
+    <hyperlink ref="D4" display="aaaaalllllladnasfhaskdf.b712132d6bc9ac235759eabf0c713565d8caf4f5.zh-cn.xlf" r:id="rId7"/>
+    <hyperlink ref="A5" display="empty.yml" r:id="rId8"/>
+    <hyperlink ref="D5" display="empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf" r:id="rId9"/>
+    <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId10"/>
+    <hyperlink ref="D6" display="generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf" r:id="rId11"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId12"/>
+    <hyperlink ref="D7" display="looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf" r:id="rId13"/>
+    <hyperlink ref="A8" display="sync.md" r:id="rId14"/>
+    <hyperlink ref="D8" display="sync.44dca3b39987ac4b23775a64e99fefda5e04cd9a.zh-cn.xlf" r:id="rId15"/>
+    <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId16"/>
+    <hyperlink ref="D9" display="test-scenario-1.739f4fcaaf5f2b717808eb786e1fca559e71a38a.zh-cn.xlf" r:id="rId17"/>
+    <hyperlink ref="A10" display="test.yml" r:id="rId18"/>
+    <hyperlink ref="D10" display="test.01982eb1a1c91b42b2583d594f9a1dd2c617d011.zh-cn.xlf" r:id="rId19"/>
+    <hyperlink ref="A11" display="test1-aaa.md" r:id="rId20"/>
+    <hyperlink ref="D11" display="test1-aaa.b411795040929dbbaf3f33c27a402c62b2fe36f6.zh-cn.xlf" r:id="rId21"/>
+    <hyperlink ref="A12" display="test1.md" r:id="rId22"/>
+    <hyperlink ref="D12" display="test1.c9599a0c11b2b514a282fe034f5f19637133e96e.zh-cn.xlf" r:id="rId23"/>
+    <hyperlink ref="A13" display="testimage.md" r:id="rId24"/>
+    <hyperlink ref="D13" display="testimage.cc8aa6daa73b9c3c601469290ea85d73a6be066f.zh-cn.xlf" r:id="rId25"/>
+    <hyperlink ref="A14" display="TOC.yml" r:id="rId26"/>
+    <hyperlink ref="D14" display="TOC.bbdc8b4a7868aa8c7af6d531b2eecc2cfad98724.zh-cn.xlf" r:id="rId27"/>
+    <hyperlink ref="A15" display="workerroletest.md" r:id="rId28"/>
+    <hyperlink ref="D15" display="workerroletest.78f57a3d2c18a5cf64cdff8dfa96e56546fb8f0a.zh-cn.xlf" r:id="rId29"/>
+    <hyperlink ref="A16" display="Pong.md" r:id="rId30"/>
+    <hyperlink ref="D16" display="Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf" r:id="rId31"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId32"/>
+    <hyperlink ref="D17" display="Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf" r:id="rId33"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId34"/>
+    <hyperlink ref="D18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf" r:id="rId35"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId36"/>
+    <hyperlink ref="D19" display="keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf" r:id="rId37"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId38"/>
+    <hyperlink ref="D20" display="test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf" r:id="rId39"/>
+    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId40"/>
+    <hyperlink ref="D21" display="testworkerrole.6a85a19fefa00cfb5437c78feb49e19cda9e290e.zh-cn.xlf" r:id="rId41"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId42"/>
+    <hyperlink ref="D22" display="README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf" r:id="rId43"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId44"/>
+    <hyperlink ref="D23" display="testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf" r:id="rId45"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId46"/>
+    <hyperlink ref="D24" display="testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf" r:id="rId47"/>
+    <hyperlink ref="A25" display="TOC1.yml" r:id="rId48"/>
+    <hyperlink ref="D25" display="TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf" r:id="rId49"/>
+  </hyperlinks>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L26"/>
   <sheetViews>
@@ -700,762 +1556,762 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -99,7 +99,7 @@
     <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>Pong.md</t>

--- a/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTest/oltest/master/localization-status.xlsx
@@ -6,18 +6,22 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId2"/>
-    <sheet name="pl-pl" sheetId="2" r:id="rId3"/>
+    <sheet name="zh-cn" sheetId="2" r:id="rId3"/>
+    <sheet name="pl-pl" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
     <t>pl-pl</t>
   </si>
   <si>
@@ -27,99 +31,102 @@
     <t>a1111.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2016-04-14 08:22:06</t>
+  </si>
+  <si>
+    <t>1111111111111111.md</t>
+  </si>
+  <si>
+    <t>aaaaalllllladnasfhaskdf.md</t>
+  </si>
+  <si>
+    <t>empty.yml</t>
+  </si>
+  <si>
+    <t>generate-warning and error.md</t>
+  </si>
+  <si>
+    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>sync.md</t>
+  </si>
+  <si>
+    <t>test-scenario-1.md</t>
+  </si>
+  <si>
+    <t>test.yml</t>
+  </si>
+  <si>
+    <t>test1-aaa.md</t>
+  </si>
+  <si>
+    <t>test1.md</t>
+  </si>
+  <si>
+    <t>testimage.md</t>
+  </si>
+  <si>
+    <t>TOC.yml</t>
+  </si>
+  <si>
+    <t>workerroletest.md</t>
+  </si>
+  <si>
+    <t>Pong.md</t>
+  </si>
+  <si>
+    <t>2016-04-15 06:30:23</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.md</t>
+  </si>
+  <si>
+    <t>test2.md</t>
+  </si>
+  <si>
+    <t>testworkerrole.md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>2016-04-15 03:57:02</t>
+  </si>
+  <si>
+    <t>testfirstlevel.md</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.md</t>
+  </si>
+  <si>
+    <t>TOC1.yml</t>
+  </si>
+  <si>
+    <t>github.png</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
     <t>2016-04-14 03:11:29</t>
   </si>
   <si>
-    <t>1111111111111111.md</t>
-  </si>
-  <si>
-    <t>aaaaalllllladnasfhaskdf.md</t>
-  </si>
-  <si>
-    <t>empty.yml</t>
-  </si>
-  <si>
-    <t>generate-warning and error.md</t>
-  </si>
-  <si>
-    <t>github.png</t>
-  </si>
-  <si>
-    <t>sync.md</t>
-  </si>
-  <si>
-    <t>test-scenario-1.md</t>
-  </si>
-  <si>
-    <t>test.yml</t>
-  </si>
-  <si>
-    <t>test1-aaa.md</t>
-  </si>
-  <si>
-    <t>2016-04-14 03:27:11</t>
-  </si>
-  <si>
-    <t>test1.md</t>
-  </si>
-  <si>
-    <t>testimage.md</t>
-  </si>
-  <si>
-    <t>TOC.yml</t>
-  </si>
-  <si>
-    <t>workerroletest.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools.md</t>
-  </si>
-  <si>
-    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.md</t>
-  </si>
-  <si>
-    <t>keep-the-ui-thread-responsive.md</t>
-  </si>
-  <si>
-    <t>test2.md</t>
-  </si>
-  <si>
-    <t>testworkerrole.md</t>
-  </si>
-  <si>
-    <t>testfirstlevel.md</t>
-  </si>
-  <si>
-    <t>TOC1.yml</t>
-  </si>
-  <si>
-    <t>loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>Pong.md</t>
-  </si>
-  <si>
-    <t>2016-04-15 06:08:32</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>2016-04-14 10:49:22</t>
-  </si>
-  <si>
-    <t>testfirstlevel2.md</t>
-  </si>
-  <si>
-    <t>2016-04-14 08:29:38</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -159,15 +166,93 @@
     <t>.md</t>
   </si>
   <si>
+    <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>1111111111111111.5d2d753009862ea9b42aec27c7b7c7d11544f986.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>aaaaalllllladnasfhaskdf.b712132d6bc9ac235759eabf0c713565d8caf4f5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>.yml</t>
+  </si>
+  <si>
+    <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>generate-warning and error.9fe7b82e076200098551a7a7bb326760afecc903.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>sync.44dca3b39987ac4b23775a64e99fefda5e04cd9a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test-scenario-1.739f4fcaaf5f2b717808eb786e1fca559e71a38a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test.01982eb1a1c91b42b2583d594f9a1dd2c617d011.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1-aaa.b411795040929dbbaf3f33c27a402c62b2fe36f6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test1.c9599a0c11b2b514a282fe034f5f19637133e96e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testimage.cc8aa6daa73b9c3c601469290ea85d73a6be066f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC.bbdc8b4a7868aa8c7af6d531b2eecc2cfad98724.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>workerroletest.78f57a3d2c18a5cf64cdff8dfa96e56546fb8f0a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools.2f0e6a3902b9e6c7b62f53236dc1561dfb6db160.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>Analyzing a Driver Using Code Analysis and Verification Tools1.ba122fb84ba33de08b279368414dacd49e3087c2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>keep-the-ui-thread-responsive.f82130e9fb356ee4bb01059d48bac41876c11bc7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>test2.dd770ae7d8d0bb37ce5217d18b66c19f089bd53d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testworkerrole.6a85a19fefa00cfb5437c78feb49e19cda9e290e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel.fa40837f90c8a09ed2887d39bf8b90e84742fb7d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>TOC1.d219c6d49852d625b7ace0e9b181d67cc10eae5f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>a1111.c541c8d3db91dc730273a2cccabd2d17f7846d69.pl-pl.xlf</t>
   </si>
   <si>
     <t>2016-04-14 04:17:28</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
     <t>testmove.0bcb04c679577b8e613df6ec7d93633d52e852b9.pl-pl.xlf</t>
   </si>
   <si>
@@ -175,9 +260,6 @@
   </si>
   <si>
     <t>Ping.md</t>
-  </si>
-  <si>
-    <t>.yml</t>
   </si>
   <si>
     <t>empty.4270f269850d91168c9547fc4e5de905552f1a8d.pl-pl.xlf</t>
@@ -211,6 +293,9 @@
     <t>test1-aaa.58524ca6fce63e3b61e4ebadfe7febf9ec5a7106.pl-pl.xlf</t>
   </si>
   <si>
+    <t>2016-04-14 03:27:11</t>
+  </si>
+  <si>
     <t>test1.29bc21b3f55532cdefcb885ffedfe40bf4096522.pl-pl.xlf</t>
   </si>
   <si>
@@ -247,16 +332,22 @@
     <t>looooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.7bf750d7e1d5d926ee49dc6ef4da1c0c69406cf0.pl-pl.xlf</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>Pong.f5965988772320608f28a831c2d662c88665d3e1.pl-pl.xlf</t>
   </si>
   <si>
+    <t>2016-04-15 06:08:32</t>
+  </si>
+  <si>
     <t>README.8ec9a00bfd09b3190ac6b22251dbb1aa95a0579d.pl-pl.xlf</t>
   </si>
   <si>
+    <t>2016-04-14 10:49:22</t>
+  </si>
+  <si>
     <t>testfirstlevel2.5cffd5bbfb7b49d1c82ff1450d56ebdc13155066.pl-pl.xlf</t>
+  </si>
+  <si>
+    <t>2016-04-14 08:29:38</t>
   </si>
 </sst>
 </file>
@@ -313,7 +404,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pl-pl" displayName="pl_pl" ref="A1:L26" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:L25" headerRowCount="1">
+  <autoFilter ref="A1:L25"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Source File Name"/>
+    <tableColumn id="2" name="File Extension"/>
+    <tableColumn id="3" name="Status"/>
+    <tableColumn id="4" name="Latest Handoff File"/>
+    <tableColumn id="5" name="Latest Handoff Datetime"/>
+    <tableColumn id="6" name="Latest Target File"/>
+    <tableColumn id="7" name="Latest Handback File"/>
+    <tableColumn id="8" name="Latest Handback DateTime"/>
+    <tableColumn id="9" name="Reference Tokens"/>
+    <tableColumn id="10" name="Handoff Reason"/>
+    <tableColumn id="11" name="Dependency From"/>
+    <tableColumn id="12" name="Error Detail"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="pl-pl" displayName="pl_pl" ref="A1:L26" headerRowCount="1">
   <autoFilter ref="A1:L26"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Source File Name"/>
@@ -333,13 +445,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Overview" displayName="Overview" ref="A1:C26" headerRowCount="1">
-  <autoFilter ref="A1:C26"/>
-  <tableColumns count="3">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:D26" headerRowCount="1">
+  <autoFilter ref="A1:D26"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="pl-pl"/>
-    <tableColumn id="3" name="Latest Handoff Date"/>
+    <tableColumn id="2" name="zh-cn"/>
+    <tableColumn id="3" name="pl-pl"/>
+    <tableColumn id="4" name="Latest Handoff Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -347,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -356,6 +469,7 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -368,280 +482,358 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +843,7 @@
     <hyperlink ref="A4" display="aaaaalllllladnasfhaskdf.md" r:id="rId4"/>
     <hyperlink ref="A5" display="empty.yml" r:id="rId5"/>
     <hyperlink ref="A6" display="generate-warning and error.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="github.png" r:id="rId7"/>
+    <hyperlink ref="A7" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId7"/>
     <hyperlink ref="A8" display="sync.md" r:id="rId8"/>
     <hyperlink ref="A9" display="test-scenario-1.md" r:id="rId9"/>
     <hyperlink ref="A10" display="test.yml" r:id="rId10"/>
@@ -660,17 +852,17 @@
     <hyperlink ref="A13" display="testimage.md" r:id="rId13"/>
     <hyperlink ref="A14" display="TOC.yml" r:id="rId14"/>
     <hyperlink ref="A15" display="workerroletest.md" r:id="rId15"/>
-    <hyperlink ref="A16" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId16"/>
-    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId17"/>
-    <hyperlink ref="A18" display="keep-the-ui-thread-responsive.md" r:id="rId18"/>
-    <hyperlink ref="A19" display="test2.md" r:id="rId19"/>
-    <hyperlink ref="A20" display="testworkerrole.md" r:id="rId20"/>
-    <hyperlink ref="A21" display="testfirstlevel.md" r:id="rId21"/>
-    <hyperlink ref="A22" display="TOC1.yml" r:id="rId22"/>
-    <hyperlink ref="A23" display="loooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooong.md" r:id="rId23"/>
-    <hyperlink ref="A24" display="Pong.md" r:id="rId24"/>
-    <hyperlink ref="A25" display="README.md" r:id="rId25"/>
-    <hyperlink ref="A26" display="testfirstlevel2.md" r:id="rId26"/>
+    <hyperlink ref="A16" display="Pong.md" r:id="rId16"/>
+    <hyperlink ref="A17" display="Analyzing a Driver Using Code Analysis and Verification Tools.md" r:id="rId17"/>
+    <hyperlink ref="A18" display="Analyzing a Driver Using Code Analysis and Verification Tools1.md" r:id="rId18"/>
+    <hyperlink ref="A19" display="keep-the-ui-thread-responsive.md" r:id="rId19"/>
+    <hyperlink ref="A20" display="test2.md" r:id="rId20"/>
+    <hyperlink ref="A21" display="testworkerrole.md" r:id="rId21"/>
+    <hyperlink ref="A22" display="README.md" r:id="rId22"/>
+    <hyperlink ref="A23" display="testfirstlevel.md" r:id="rId23"/>
+    <hyperlink ref="A24" display="testfirstlevel2.md" r:id="rId24"/>
+    <hyperlink ref="A25" display="TOC1.yml" r:id="rId25"/>
+    <hyperlink ref="A26" display="github.png" r:id="rId26"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -680,6 +872,676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimensi